--- a/grafic_output.xlsx
+++ b/grafic_output.xlsx
@@ -1979,12 +1979,16 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n"/>
-      <c r="B8" s="24" t="n"/>
+      <c r="A8" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>NIÑERA</t>
+          <t>HOMBRE 3</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
@@ -2039,12 +2043,16 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n"/>
-      <c r="B9" s="24" t="n"/>
+      <c r="A9" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>HANNA</t>
+          <t>INSERTO</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -2099,12 +2107,16 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n"/>
-      <c r="B10" s="24" t="n"/>
+      <c r="A10" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>LUCIO</t>
+          <t>MUJER</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
@@ -2159,12 +2171,16 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n"/>
-      <c r="B11" s="24" t="n"/>
+      <c r="A11" s="41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>8</v>
+      </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>MUJER</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -2219,12 +2235,16 @@
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n"/>
-      <c r="B12" s="24" t="n"/>
+      <c r="A12" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="24" t="n">
+        <v>5</v>
+      </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>ANTON</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -2279,12 +2299,16 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n"/>
-      <c r="B13" s="24" t="n"/>
+      <c r="A13" s="41" t="n">
+        <v>106</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>34</v>
+      </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>TÍTULO</t>
+          <t>HANNA</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -2339,12 +2363,16 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n"/>
-      <c r="B14" s="24" t="n"/>
+      <c r="A14" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>ANTON</t>
+          <t>HOMBRE 1</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
@@ -2399,8 +2427,12 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>47</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>16</v>
+      </c>
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
@@ -2459,12 +2491,16 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="A16" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>AMBIENTE HOMBRES</t>
+          <t>NIÑERA</t>
         </is>
       </c>
       <c r="E16" s="27" t="n"/>
@@ -2519,12 +2555,16 @@
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
-      <c r="A17" s="41" t="n"/>
-      <c r="B17" s="24" t="n"/>
+      <c r="A17" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="26" t="inlineStr">
         <is>
-          <t>PROFESORA</t>
+          <t>HOMBRE 2</t>
         </is>
       </c>
       <c r="E17" s="27" t="n"/>
@@ -2579,12 +2619,16 @@
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
-      <c r="A18" s="41" t="n"/>
-      <c r="B18" s="24" t="n"/>
+      <c r="A18" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" s="25" t="n"/>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>PROFESORA</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
@@ -2639,12 +2683,16 @@
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n"/>
-      <c r="B19" s="24" t="n"/>
+      <c r="A19" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="C19" s="25" t="n"/>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 1</t>
+          <t>MARIE</t>
         </is>
       </c>
       <c r="E19" s="27" t="n"/>
@@ -2699,12 +2747,16 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n"/>
-      <c r="B20" s="24" t="n"/>
+      <c r="A20" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="25" t="n"/>
       <c r="D20" s="26" t="inlineStr">
         <is>
-          <t>HELENE</t>
+          <t>PROFESOR</t>
         </is>
       </c>
       <c r="E20" s="27" t="n"/>
@@ -2759,12 +2811,16 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n"/>
-      <c r="B21" s="24" t="n"/>
+      <c r="A21" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="C21" s="25" t="n"/>
       <c r="D21" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE</t>
+          <t>AMBIENTE NIÑAS</t>
         </is>
       </c>
       <c r="E21" s="27" t="n"/>
@@ -2819,12 +2875,16 @@
       <c r="BB21" s="33" t="n"/>
     </row>
     <row r="22" ht="13.75" customHeight="1" s="19">
-      <c r="A22" s="41" t="n"/>
-      <c r="B22" s="24" t="n"/>
+      <c r="A22" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C22" s="25" t="n"/>
       <c r="D22" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 2</t>
+          <t>LISA</t>
         </is>
       </c>
       <c r="E22" s="27" t="n"/>
@@ -2879,12 +2939,16 @@
       <c r="BB22" s="33" t="n"/>
     </row>
     <row r="23" ht="13.75" customHeight="1" s="19">
-      <c r="A23" s="41" t="n"/>
-      <c r="B23" s="24" t="n"/>
+      <c r="A23" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="25" t="n"/>
       <c r="D23" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 3</t>
+          <t>TÍTULO</t>
         </is>
       </c>
       <c r="E23" s="27" t="n"/>
@@ -2939,12 +3003,16 @@
       <c r="BB23" s="33" t="n"/>
     </row>
     <row r="24" ht="13.75" customHeight="1" s="19">
-      <c r="A24" s="41" t="n"/>
-      <c r="B24" s="24" t="n"/>
+      <c r="A24" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C24" s="25" t="n"/>
       <c r="D24" s="26" t="inlineStr">
         <is>
-          <t>LISA</t>
+          <t>HELENE</t>
         </is>
       </c>
       <c r="E24" s="27" t="n"/>
@@ -2999,12 +3067,16 @@
       <c r="BB24" s="33" t="n"/>
     </row>
     <row r="25" ht="13.75" customHeight="1" s="19">
-      <c r="A25" s="41" t="n"/>
-      <c r="B25" s="24" t="n"/>
+      <c r="A25" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="C25" s="25" t="n"/>
       <c r="D25" s="26" t="inlineStr">
         <is>
-          <t>INSERTO</t>
+          <t>LOTTE</t>
         </is>
       </c>
       <c r="E25" s="27" t="n"/>
@@ -3059,12 +3131,16 @@
       <c r="BB25" s="33" t="n"/>
     </row>
     <row r="26" ht="13.75" customHeight="1" s="19">
-      <c r="A26" s="41" t="n"/>
-      <c r="B26" s="24" t="n"/>
+      <c r="A26" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C26" s="30" t="n"/>
       <c r="D26" s="26" t="inlineStr">
         <is>
-          <t>AMBIENTE NIÑAS</t>
+          <t>AMBIENTE HOMBRES</t>
         </is>
       </c>
       <c r="E26" s="27" t="n"/>
@@ -3119,12 +3195,16 @@
       <c r="BB26" s="33" t="n"/>
     </row>
     <row r="27" ht="13.75" customHeight="1" s="19">
-      <c r="A27" s="41" t="n"/>
-      <c r="B27" s="24" t="n"/>
+      <c r="A27" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C27" s="25" t="n"/>
       <c r="D27" s="26" t="inlineStr">
         <is>
-          <t>PROFESOR</t>
+          <t>LUCIO</t>
         </is>
       </c>
       <c r="E27" s="27" t="n"/>
@@ -3179,12 +3259,16 @@
       <c r="BB27" s="33" t="n"/>
     </row>
     <row r="28" ht="13.75" customHeight="1" s="19">
-      <c r="A28" s="41" t="n"/>
-      <c r="B28" s="24" t="n"/>
+      <c r="A28" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C28" s="25" t="n"/>
       <c r="D28" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>HOMBRE</t>
         </is>
       </c>
       <c r="E28" s="27" t="n"/>
@@ -3239,12 +3323,16 @@
       <c r="BB28" s="33" t="n"/>
     </row>
     <row r="29" ht="13.75" customHeight="1" s="19">
-      <c r="A29" s="41" t="n"/>
-      <c r="B29" s="24" t="n"/>
+      <c r="A29" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="n">
+        <v>7</v>
+      </c>
       <c r="C29" s="25" t="n"/>
       <c r="D29" s="26" t="inlineStr">
         <is>
-          <t>MARIE</t>
+          <t>AMB</t>
         </is>
       </c>
       <c r="E29" s="27" t="n"/>
@@ -4932,12 +5020,16 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n"/>
-      <c r="B8" s="24" t="n"/>
+      <c r="A8" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>MUJER 2</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
@@ -4992,12 +5084,16 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n"/>
-      <c r="B9" s="24" t="n"/>
+      <c r="A9" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>HOMBRE 3</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -5052,12 +5148,16 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n"/>
-      <c r="B10" s="24" t="n"/>
+      <c r="A10" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>HOMBRES</t>
+          <t>HOMBRE 2</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
@@ -5112,12 +5212,16 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n"/>
-      <c r="B11" s="24" t="n"/>
+      <c r="A11" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>ANTON</t>
+          <t>AGNES</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -5172,12 +5276,16 @@
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n"/>
-      <c r="B12" s="24" t="n"/>
+      <c r="A12" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 1</t>
+          <t>HOMBRES</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -5232,12 +5340,16 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n"/>
-      <c r="B13" s="24" t="n"/>
+      <c r="A13" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>HELENE</t>
+          <t>HERMANN</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -5292,12 +5404,16 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n"/>
-      <c r="B14" s="24" t="n"/>
+      <c r="A14" s="41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>8</v>
+      </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>OTTO</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
@@ -5352,12 +5468,16 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
-          <t>HERMANN</t>
+          <t>ANTON</t>
         </is>
       </c>
       <c r="E15" s="27" t="n"/>
@@ -5412,12 +5532,16 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="A16" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>HELENE</t>
         </is>
       </c>
       <c r="E16" s="27" t="n"/>
@@ -5472,12 +5596,16 @@
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
-      <c r="A17" s="41" t="n"/>
-      <c r="B17" s="24" t="n"/>
+      <c r="A17" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="26" t="inlineStr">
         <is>
-          <t>MUJER 2</t>
+          <t>LOTTE</t>
         </is>
       </c>
       <c r="E17" s="27" t="n"/>
@@ -5532,12 +5660,16 @@
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
-      <c r="A18" s="41" t="n"/>
-      <c r="B18" s="24" t="n"/>
+      <c r="A18" s="41" t="n">
+        <v>106</v>
+      </c>
+      <c r="B18" s="24" t="n">
+        <v>30</v>
+      </c>
       <c r="C18" s="25" t="n"/>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 2</t>
+          <t>HANNA</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
@@ -5592,12 +5724,16 @@
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n"/>
-      <c r="B19" s="24" t="n"/>
+      <c r="A19" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>7</v>
+      </c>
       <c r="C19" s="25" t="n"/>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 3</t>
+          <t>AMB</t>
         </is>
       </c>
       <c r="E19" s="27" t="n"/>
@@ -5652,12 +5788,16 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n"/>
-      <c r="B20" s="24" t="n"/>
+      <c r="A20" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="25" t="n"/>
       <c r="D20" s="26" t="inlineStr">
         <is>
-          <t>HANNA</t>
+          <t>HOMBRE 1</t>
         </is>
       </c>
       <c r="E20" s="27" t="n"/>
@@ -5712,12 +5852,16 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n"/>
-      <c r="B21" s="24" t="n"/>
+      <c r="A21" s="41" t="n">
+        <v>47</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>17</v>
+      </c>
       <c r="C21" s="25" t="n"/>
       <c r="D21" s="26" t="inlineStr">
         <is>
-          <t>AGNES</t>
+          <t>OTTO</t>
         </is>
       </c>
       <c r="E21" s="27" t="n"/>
@@ -5772,8 +5916,12 @@
       <c r="BB21" s="33" t="n"/>
     </row>
     <row r="22" ht="13.75" customHeight="1" s="19">
-      <c r="A22" s="41" t="n"/>
-      <c r="B22" s="24" t="n"/>
+      <c r="A22" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C22" s="25" t="n"/>
       <c r="D22" s="26" t="inlineStr">
         <is>
@@ -5832,12 +5980,16 @@
       <c r="BB22" s="33" t="n"/>
     </row>
     <row r="23" ht="13.75" customHeight="1" s="19">
-      <c r="A23" s="41" t="n"/>
-      <c r="B23" s="24" t="n"/>
+      <c r="A23" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="25" t="n"/>
       <c r="D23" s="26" t="inlineStr">
         <is>
-          <t>LUCIO</t>
+          <t>MARIE</t>
         </is>
       </c>
       <c r="E23" s="27" t="n"/>
@@ -5892,12 +6044,16 @@
       <c r="BB23" s="33" t="n"/>
     </row>
     <row r="24" ht="13.75" customHeight="1" s="19">
-      <c r="A24" s="41" t="n"/>
-      <c r="B24" s="24" t="n"/>
+      <c r="A24" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" s="25" t="n"/>
       <c r="D24" s="26" t="inlineStr">
         <is>
-          <t>MARIE</t>
+          <t>LUCIO</t>
         </is>
       </c>
       <c r="E24" s="27" t="n"/>
@@ -7865,12 +8021,16 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n"/>
-      <c r="B8" s="24" t="n"/>
+      <c r="A8" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>H0MBRE 5</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
@@ -7925,12 +8085,16 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n"/>
-      <c r="B9" s="24" t="n"/>
+      <c r="A9" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>MUJER 3</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -7985,12 +8149,16 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n"/>
-      <c r="B10" s="24" t="n"/>
+      <c r="A10" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>ANTON</t>
+          <t>LUCIO</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
@@ -8045,12 +8213,16 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n"/>
-      <c r="B11" s="24" t="n"/>
+      <c r="A11" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>MUJER 3</t>
+          <t>HOMBRE 6</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -8105,12 +8277,16 @@
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n"/>
-      <c r="B12" s="24" t="n"/>
+      <c r="A12" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 6</t>
+          <t>HERMANN</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -8165,12 +8341,16 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n"/>
-      <c r="B13" s="24" t="n"/>
+      <c r="A13" s="41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>8</v>
+      </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>HERMANN</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -8225,12 +8405,16 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n"/>
-      <c r="B14" s="24" t="n"/>
+      <c r="A14" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>OTTO</t>
+          <t>ANTON</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
@@ -8285,12 +8469,16 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 4</t>
+          <t>HELENE</t>
         </is>
       </c>
       <c r="E15" s="27" t="n"/>
@@ -8345,12 +8533,16 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="A16" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>6</v>
+      </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>HELENE</t>
+          <t>LOTTE</t>
         </is>
       </c>
       <c r="E16" s="27" t="n"/>
@@ -8405,12 +8597,16 @@
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
-      <c r="A17" s="41" t="n"/>
-      <c r="B17" s="24" t="n"/>
+      <c r="A17" s="41" t="n">
+        <v>106</v>
+      </c>
+      <c r="B17" s="24" t="n">
+        <v>32</v>
+      </c>
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="26" t="inlineStr">
         <is>
-          <t>INSERTO HANNA</t>
+          <t>HANNA</t>
         </is>
       </c>
       <c r="E17" s="27" t="n"/>
@@ -8465,12 +8661,16 @@
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
-      <c r="A18" s="41" t="n"/>
-      <c r="B18" s="24" t="n"/>
+      <c r="A18" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" s="25" t="n"/>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>INSERTO HANNA</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
@@ -8525,12 +8725,16 @@
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n"/>
-      <c r="B19" s="24" t="n"/>
+      <c r="A19" s="41" t="n">
+        <v>47</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>13</v>
+      </c>
       <c r="C19" s="25" t="n"/>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>HANNA</t>
+          <t>OTTO</t>
         </is>
       </c>
       <c r="E19" s="27" t="n"/>
@@ -8585,12 +8789,16 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n"/>
-      <c r="B20" s="24" t="n"/>
+      <c r="A20" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="25" t="n"/>
       <c r="D20" s="26" t="inlineStr">
         <is>
-          <t>LUCIO</t>
+          <t>HOMBRE 4</t>
         </is>
       </c>
       <c r="E20" s="27" t="n"/>
@@ -8645,12 +8853,16 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n"/>
-      <c r="B21" s="24" t="n"/>
+      <c r="A21" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>11</v>
+      </c>
       <c r="C21" s="25" t="n"/>
       <c r="D21" s="26" t="inlineStr">
         <is>
-          <t>H0MBRE 5</t>
+          <t>AMB</t>
         </is>
       </c>
       <c r="E21" s="27" t="n"/>
@@ -10786,12 +10998,16 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n"/>
-      <c r="B8" s="24" t="n"/>
+      <c r="A8" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>HENRI</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
@@ -10846,12 +11062,16 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n"/>
-      <c r="B9" s="24" t="n"/>
+      <c r="A9" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24" t="n">
+        <v>6</v>
+      </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>INSERTO</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -10906,12 +11126,16 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n"/>
-      <c r="B10" s="24" t="n"/>
+      <c r="A10" s="41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B10" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE BARCO</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
@@ -10966,8 +11190,12 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n"/>
-      <c r="B11" s="24" t="n"/>
+      <c r="A11" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
@@ -11026,12 +11254,16 @@
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n"/>
-      <c r="B12" s="24" t="n"/>
+      <c r="A12" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>HENRI</t>
+          <t>LOTTE</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -11086,12 +11318,16 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n"/>
-      <c r="B13" s="24" t="n"/>
+      <c r="A13" s="41" t="n">
+        <v>106</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>6</v>
+      </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>HANNA</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -11146,12 +11382,16 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n"/>
-      <c r="B14" s="24" t="n"/>
+      <c r="A14" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>HANNA</t>
+          <t>HOMBRE BARCO</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
@@ -11206,8 +11446,12 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
@@ -11266,12 +11510,16 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="A16" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>INSERTO</t>
+          <t>AMB</t>
         </is>
       </c>
       <c r="E16" s="27" t="n"/>

--- a/grafic_output.xlsx
+++ b/grafic_output.xlsx
@@ -1976,7 +1976,7 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B8" s="24" t="n">
         <v>3</v>
@@ -1984,7 +1984,7 @@
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>TIM:</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
@@ -2004,22 +2004,26 @@
       <c r="S8" s="27" t="n"/>
       <c r="T8" s="27" t="n"/>
       <c r="U8" s="27" t="n"/>
-      <c r="V8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V8" s="27" t="n"/>
       <c r="W8" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="X8" s="27" t="n"/>
+      <c r="X8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y8" s="27" t="n"/>
       <c r="Z8" s="27" t="n"/>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
-      <c r="AC8" s="27" t="n"/>
+      <c r="AC8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD8" s="27" t="n"/>
       <c r="AE8" s="27" t="n"/>
       <c r="AF8" s="27" t="n"/>
@@ -2040,11 +2044,7 @@
       <c r="AU8" s="27" t="n"/>
       <c r="AV8" s="27" t="n"/>
       <c r="AW8" s="27" t="n"/>
-      <c r="AX8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX8" s="27" t="n"/>
       <c r="AY8" s="27" t="n"/>
       <c r="AZ8" s="27" t="n"/>
       <c r="BA8" s="27" t="n"/>
@@ -2052,15 +2052,15 @@
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>HOME 3:</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -2069,44 +2069,24 @@
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
       <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
-      <c r="N9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N9" s="27" t="n"/>
       <c r="O9" s="27" t="n"/>
       <c r="P9" s="27" t="n"/>
       <c r="Q9" s="27" t="n"/>
-      <c r="R9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="R9" s="27" t="n"/>
       <c r="S9" s="27" t="n"/>
       <c r="T9" s="27" t="n"/>
       <c r="U9" s="27" t="n"/>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
       <c r="X9" s="27" t="n"/>
-      <c r="Y9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y9" s="27" t="n"/>
       <c r="Z9" s="27" t="n"/>
       <c r="AA9" s="27" t="n"/>
-      <c r="AB9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
       <c r="AD9" s="27" t="n"/>
       <c r="AE9" s="27" t="n"/>
@@ -2122,29 +2102,29 @@
       <c r="AO9" s="27" t="n"/>
       <c r="AP9" s="27" t="n"/>
       <c r="AQ9" s="27" t="n"/>
-      <c r="AR9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR9" s="27" t="n"/>
       <c r="AS9" s="27" t="n"/>
       <c r="AT9" s="27" t="n"/>
       <c r="AU9" s="27" t="n"/>
       <c r="AV9" s="27" t="n"/>
-      <c r="AW9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AX9" s="27" t="n"/>
-      <c r="AY9" s="27" t="n"/>
+      <c r="AW9" s="27" t="n"/>
+      <c r="AX9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ9" s="27" t="n"/>
       <c r="BA9" s="27" t="n"/>
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10" s="24" t="n">
         <v>1</v>
@@ -2152,15 +2132,11 @@
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>INSERTO</t>
+          <t>HOME 1:</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
       <c r="I10" s="27" t="n"/>
@@ -2168,7 +2144,11 @@
       <c r="K10" s="27" t="n"/>
       <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
-      <c r="N10" s="27" t="n"/>
+      <c r="N10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O10" s="27" t="n"/>
       <c r="P10" s="27" t="n"/>
       <c r="Q10" s="27" t="n"/>
@@ -2212,15 +2192,15 @@
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>MARIE</t>
+          <t>CHRIS:</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -2235,11 +2215,7 @@
       <c r="N11" s="27" t="n"/>
       <c r="O11" s="27" t="n"/>
       <c r="P11" s="27" t="n"/>
-      <c r="Q11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q11" s="27" t="n"/>
       <c r="R11" s="27" t="n"/>
       <c r="S11" s="27" t="n"/>
       <c r="T11" s="27" t="n"/>
@@ -2259,19 +2235,15 @@
       <c r="AH11" s="27" t="n"/>
       <c r="AI11" s="27" t="n"/>
       <c r="AJ11" s="27" t="n"/>
-      <c r="AK11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AK11" s="27" t="n"/>
+      <c r="AL11" s="27" t="n"/>
       <c r="AM11" s="27" t="n"/>
       <c r="AN11" s="27" t="n"/>
-      <c r="AO11" s="27" t="n"/>
+      <c r="AO11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP11" s="27" t="n"/>
       <c r="AQ11" s="27" t="n"/>
       <c r="AR11" s="27" t="n"/>
@@ -2288,15 +2260,15 @@
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>LUCIO</t>
+          <t>ANNA:</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -2306,11 +2278,7 @@
       <c r="I12" s="27" t="n"/>
       <c r="J12" s="27" t="n"/>
       <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L12" s="27" t="n"/>
       <c r="M12" s="27" t="n"/>
       <c r="N12" s="27" t="n"/>
       <c r="O12" s="27" t="n"/>
@@ -2325,9 +2293,17 @@
       <c r="X12" s="27" t="n"/>
       <c r="Y12" s="27" t="n"/>
       <c r="Z12" s="27" t="n"/>
-      <c r="AA12" s="27" t="n"/>
+      <c r="AA12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB12" s="27" t="n"/>
-      <c r="AC12" s="27" t="n"/>
+      <c r="AC12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD12" s="27" t="n"/>
       <c r="AE12" s="27" t="n"/>
       <c r="AF12" s="27" t="n"/>
@@ -2352,31 +2328,47 @@
       <c r="AY12" s="27" t="n"/>
       <c r="AZ12" s="27" t="n"/>
       <c r="BA12" s="27" t="n"/>
-      <c r="BB12" s="33" t="n"/>
+      <c r="BB12" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>AMBIENTE HOMBRES</t>
+          <t>PRESENTADORA:</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
-      <c r="G13" s="27" t="n"/>
+      <c r="G13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H13" s="27" t="n"/>
-      <c r="I13" s="27" t="n"/>
+      <c r="I13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J13" s="27" t="n"/>
       <c r="K13" s="27" t="n"/>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="n"/>
+      <c r="N13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O13" s="27" t="n"/>
       <c r="P13" s="27" t="n"/>
       <c r="Q13" s="27" t="n"/>
@@ -2387,11 +2379,7 @@
       <c r="V13" s="27" t="n"/>
       <c r="W13" s="27" t="n"/>
       <c r="X13" s="27" t="n"/>
-      <c r="Y13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y13" s="27" t="n"/>
       <c r="Z13" s="27" t="n"/>
       <c r="AA13" s="27" t="n"/>
       <c r="AB13" s="27" t="n"/>
@@ -2424,15 +2412,15 @@
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
       <c r="A14" s="41" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B14" s="24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>GUÍA 1:</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
@@ -2459,34 +2447,18 @@
       <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
       <c r="AB14" s="27" t="n"/>
-      <c r="AC14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC14" s="27" t="n"/>
+      <c r="AD14" s="27" t="n"/>
+      <c r="AE14" s="27" t="n"/>
+      <c r="AF14" s="27" t="n"/>
+      <c r="AG14" s="27" t="n"/>
       <c r="AH14" s="27" t="n"/>
       <c r="AI14" s="27" t="n"/>
-      <c r="AJ14" s="27" t="n"/>
+      <c r="AJ14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK14" s="27" t="n"/>
       <c r="AL14" s="27" t="n"/>
       <c r="AM14" s="27" t="n"/>
@@ -2502,33 +2474,21 @@
       <c r="AW14" s="27" t="n"/>
       <c r="AX14" s="27" t="n"/>
       <c r="AY14" s="27" t="n"/>
-      <c r="AZ14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BA14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BB14" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AZ14" s="27" t="n"/>
+      <c r="BA14" s="27" t="n"/>
+      <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
       <c r="A15" s="41" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B15" s="24" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
-          <t>PROFESOR</t>
+          <t>BEN:</t>
         </is>
       </c>
       <c r="E15" s="27" t="n"/>
@@ -2536,11 +2496,27 @@
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
       <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="n"/>
+      <c r="J15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K15" s="27" t="n"/>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
+      <c r="L15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
       <c r="Q15" s="27" t="inlineStr">
@@ -2548,41 +2524,125 @@
           <t>X</t>
         </is>
       </c>
-      <c r="R15" s="27" t="n"/>
-      <c r="S15" s="27" t="n"/>
-      <c r="T15" s="27" t="n"/>
+      <c r="R15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U15" s="27" t="n"/>
-      <c r="V15" s="27" t="n"/>
+      <c r="V15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W15" s="27" t="n"/>
       <c r="X15" s="27" t="n"/>
       <c r="Y15" s="27" t="n"/>
-      <c r="Z15" s="27" t="n"/>
+      <c r="Z15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA15" s="27" t="n"/>
       <c r="AB15" s="27" t="n"/>
       <c r="AC15" s="27" t="n"/>
-      <c r="AD15" s="27" t="n"/>
+      <c r="AD15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE15" s="27" t="n"/>
       <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
-      <c r="AH15" s="27" t="n"/>
-      <c r="AI15" s="27" t="n"/>
-      <c r="AJ15" s="27" t="n"/>
-      <c r="AK15" s="27" t="n"/>
-      <c r="AL15" s="27" t="n"/>
+      <c r="AH15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM15" s="27" t="n"/>
-      <c r="AN15" s="27" t="n"/>
+      <c r="AN15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO15" s="27" t="n"/>
-      <c r="AP15" s="27" t="n"/>
+      <c r="AP15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AQ15" s="27" t="n"/>
       <c r="AR15" s="27" t="n"/>
-      <c r="AS15" s="27" t="n"/>
-      <c r="AT15" s="27" t="n"/>
-      <c r="AU15" s="27" t="n"/>
-      <c r="AV15" s="27" t="n"/>
-      <c r="AW15" s="27" t="n"/>
-      <c r="AX15" s="27" t="n"/>
-      <c r="AY15" s="27" t="n"/>
-      <c r="AZ15" s="27" t="n"/>
+      <c r="AS15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AV15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AW15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AX15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AZ15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BA15" s="27" t="n"/>
       <c r="BB15" s="33" t="n"/>
     </row>
@@ -2596,7 +2656,7 @@
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>LISA</t>
+          <t>HOME 2:</t>
         </is>
       </c>
       <c r="E16" s="27" t="n"/>
@@ -2625,16 +2685,16 @@
       <c r="AB16" s="27" t="n"/>
       <c r="AC16" s="27" t="n"/>
       <c r="AD16" s="27" t="n"/>
-      <c r="AE16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE16" s="27" t="n"/>
       <c r="AF16" s="27" t="n"/>
       <c r="AG16" s="27" t="n"/>
       <c r="AH16" s="27" t="n"/>
       <c r="AI16" s="27" t="n"/>
-      <c r="AJ16" s="27" t="n"/>
+      <c r="AJ16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK16" s="27" t="n"/>
       <c r="AL16" s="27" t="n"/>
       <c r="AM16" s="27" t="n"/>
@@ -2656,64 +2716,112 @@
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
       <c r="A17" s="41" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B17" s="24" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="26" t="inlineStr">
         <is>
-          <t>HELENE</t>
-        </is>
-      </c>
-      <c r="E17" s="27" t="n"/>
-      <c r="F17" s="27" t="n"/>
+          <t>INSERT:</t>
+        </is>
+      </c>
+      <c r="E17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G17" s="27" t="n"/>
-      <c r="H17" s="27" t="n"/>
+      <c r="H17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I17" s="27" t="n"/>
       <c r="J17" s="27" t="n"/>
-      <c r="K17" s="27" t="n"/>
+      <c r="K17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L17" s="27" t="n"/>
       <c r="M17" s="27" t="n"/>
       <c r="N17" s="27" t="n"/>
-      <c r="O17" s="27" t="n"/>
-      <c r="P17" s="27" t="n"/>
-      <c r="Q17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q17" s="27" t="n"/>
       <c r="R17" s="27" t="n"/>
       <c r="S17" s="27" t="n"/>
       <c r="T17" s="27" t="n"/>
-      <c r="U17" s="27" t="n"/>
+      <c r="U17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V17" s="27" t="n"/>
       <c r="W17" s="27" t="n"/>
       <c r="X17" s="27" t="n"/>
-      <c r="Y17" s="27" t="n"/>
+      <c r="Y17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z17" s="27" t="n"/>
       <c r="AA17" s="27" t="n"/>
-      <c r="AB17" s="27" t="n"/>
+      <c r="AB17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC17" s="27" t="n"/>
       <c r="AD17" s="27" t="n"/>
-      <c r="AE17" s="27" t="n"/>
-      <c r="AF17" s="27" t="n"/>
-      <c r="AG17" s="27" t="n"/>
+      <c r="AE17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH17" s="27" t="n"/>
       <c r="AI17" s="27" t="n"/>
       <c r="AJ17" s="27" t="n"/>
       <c r="AK17" s="27" t="n"/>
-      <c r="AL17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM17" s="27" t="n"/>
+      <c r="AL17" s="27" t="n"/>
+      <c r="AM17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN17" s="27" t="n"/>
       <c r="AO17" s="27" t="n"/>
       <c r="AP17" s="27" t="n"/>
-      <c r="AQ17" s="27" t="n"/>
+      <c r="AQ17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR17" s="27" t="n"/>
       <c r="AS17" s="27" t="n"/>
       <c r="AT17" s="27" t="n"/>
@@ -2723,12 +2831,16 @@
       <c r="AX17" s="27" t="n"/>
       <c r="AY17" s="27" t="n"/>
       <c r="AZ17" s="27" t="n"/>
-      <c r="BA17" s="27" t="n"/>
+      <c r="BA17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
       <c r="A18" s="41" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B18" s="24" t="n">
         <v>1</v>
@@ -2736,7 +2848,7 @@
       <c r="C18" s="25" t="n"/>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>PROFESORA</t>
+          <t>WANG:</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
@@ -2759,11 +2871,7 @@
       <c r="V18" s="27" t="n"/>
       <c r="W18" s="27" t="n"/>
       <c r="X18" s="27" t="n"/>
-      <c r="Y18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y18" s="27" t="n"/>
       <c r="Z18" s="27" t="n"/>
       <c r="AA18" s="27" t="n"/>
       <c r="AB18" s="27" t="n"/>
@@ -2782,7 +2890,11 @@
       <c r="AO18" s="27" t="n"/>
       <c r="AP18" s="27" t="n"/>
       <c r="AQ18" s="27" t="n"/>
-      <c r="AR18" s="27" t="n"/>
+      <c r="AR18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AS18" s="27" t="n"/>
       <c r="AT18" s="27" t="n"/>
       <c r="AU18" s="27" t="n"/>
@@ -2795,26 +2907,14 @@
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A19" s="41" t="n"/>
+      <c r="B19" s="24" t="n"/>
       <c r="C19" s="25" t="n"/>
-      <c r="D19" s="26" t="inlineStr">
-        <is>
-          <t>TÍTULO</t>
-        </is>
-      </c>
+      <c r="D19" s="26" t="n"/>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
-      <c r="H19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H19" s="27" t="n"/>
       <c r="I19" s="27" t="n"/>
       <c r="J19" s="27" t="n"/>
       <c r="K19" s="27" t="n"/>
@@ -2863,29 +2963,17 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" s="41" t="n"/>
+      <c r="B20" s="24" t="n"/>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE</t>
-        </is>
-      </c>
+      <c r="D20" s="26" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
       <c r="I20" s="27" t="n"/>
       <c r="J20" s="27" t="n"/>
-      <c r="K20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K20" s="27" t="n"/>
       <c r="L20" s="27" t="n"/>
       <c r="M20" s="27" t="n"/>
       <c r="N20" s="27" t="n"/>
@@ -2931,233 +3019,73 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n">
-        <v>106</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <v>35</v>
-      </c>
+      <c r="A21" s="41" t="n"/>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="inlineStr">
-        <is>
-          <t>HANNA</t>
-        </is>
-      </c>
-      <c r="E21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D21" s="26" t="n"/>
+      <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
-      <c r="I21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I21" s="27" t="n"/>
       <c r="J21" s="27" t="n"/>
       <c r="K21" s="27" t="n"/>
-      <c r="L21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
+      <c r="N21" s="27" t="n"/>
+      <c r="O21" s="27" t="n"/>
+      <c r="P21" s="27" t="n"/>
+      <c r="Q21" s="27" t="n"/>
       <c r="R21" s="27" t="n"/>
-      <c r="S21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S21" s="27" t="n"/>
+      <c r="T21" s="27" t="n"/>
+      <c r="U21" s="27" t="n"/>
       <c r="V21" s="27" t="n"/>
       <c r="W21" s="27" t="n"/>
       <c r="X21" s="27" t="n"/>
-      <c r="Y21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y21" s="27" t="n"/>
+      <c r="Z21" s="27" t="n"/>
       <c r="AA21" s="27" t="n"/>
       <c r="AB21" s="27" t="n"/>
-      <c r="AC21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC21" s="27" t="n"/>
+      <c r="AD21" s="27" t="n"/>
       <c r="AE21" s="27" t="n"/>
       <c r="AF21" s="27" t="n"/>
-      <c r="AG21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AG21" s="27" t="n"/>
       <c r="AH21" s="27" t="n"/>
-      <c r="AI21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI21" s="27" t="n"/>
+      <c r="AJ21" s="27" t="n"/>
+      <c r="AK21" s="27" t="n"/>
+      <c r="AL21" s="27" t="n"/>
       <c r="AM21" s="27" t="n"/>
-      <c r="AN21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AN21" s="27" t="n"/>
+      <c r="AO21" s="27" t="n"/>
       <c r="AP21" s="27" t="n"/>
-      <c r="AQ21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AV21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AX21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AZ21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BA21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BB21" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AQ21" s="27" t="n"/>
+      <c r="AR21" s="27" t="n"/>
+      <c r="AS21" s="27" t="n"/>
+      <c r="AT21" s="27" t="n"/>
+      <c r="AU21" s="27" t="n"/>
+      <c r="AV21" s="27" t="n"/>
+      <c r="AW21" s="27" t="n"/>
+      <c r="AX21" s="27" t="n"/>
+      <c r="AY21" s="27" t="n"/>
+      <c r="AZ21" s="27" t="n"/>
+      <c r="BA21" s="27" t="n"/>
+      <c r="BB21" s="33" t="n"/>
     </row>
     <row r="22" ht="13.75" customHeight="1" s="19">
-      <c r="A22" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A22" s="41" t="n"/>
+      <c r="B22" s="24" t="n"/>
       <c r="C22" s="25" t="n"/>
-      <c r="D22" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 3</t>
-        </is>
-      </c>
+      <c r="D22" s="26" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
       <c r="I22" s="27" t="n"/>
       <c r="J22" s="27" t="n"/>
-      <c r="K22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K22" s="27" t="n"/>
       <c r="L22" s="27" t="n"/>
       <c r="M22" s="27" t="n"/>
       <c r="N22" s="27" t="n"/>
@@ -3203,29 +3131,17 @@
       <c r="BB22" s="33" t="n"/>
     </row>
     <row r="23" ht="13.75" customHeight="1" s="19">
-      <c r="A23" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A23" s="41" t="n"/>
+      <c r="B23" s="24" t="n"/>
       <c r="C23" s="25" t="n"/>
-      <c r="D23" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 2</t>
-        </is>
-      </c>
+      <c r="D23" s="26" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
       <c r="I23" s="27" t="n"/>
       <c r="J23" s="27" t="n"/>
-      <c r="K23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K23" s="27" t="n"/>
       <c r="L23" s="27" t="n"/>
       <c r="M23" s="27" t="n"/>
       <c r="N23" s="27" t="n"/>
@@ -3271,35 +3187,15 @@
       <c r="BB23" s="33" t="n"/>
     </row>
     <row r="24" ht="13.75" customHeight="1" s="19">
-      <c r="A24" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="B24" s="24" t="n">
-        <v>6</v>
-      </c>
+      <c r="A24" s="41" t="n"/>
+      <c r="B24" s="24" t="n"/>
       <c r="C24" s="25" t="n"/>
-      <c r="D24" s="26" t="inlineStr">
-        <is>
-          <t>ANTON</t>
-        </is>
-      </c>
-      <c r="E24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D24" s="26" t="n"/>
+      <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
-      <c r="G24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
-      <c r="I24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I24" s="27" t="n"/>
       <c r="J24" s="27" t="n"/>
       <c r="K24" s="27" t="n"/>
       <c r="L24" s="27" t="n"/>
@@ -3309,21 +3205,9 @@
       <c r="P24" s="27" t="n"/>
       <c r="Q24" s="27" t="n"/>
       <c r="R24" s="27" t="n"/>
-      <c r="S24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S24" s="27" t="n"/>
+      <c r="T24" s="27" t="n"/>
+      <c r="U24" s="27" t="n"/>
       <c r="V24" s="27" t="n"/>
       <c r="W24" s="27" t="n"/>
       <c r="X24" s="27" t="n"/>
@@ -3359,18 +3243,10 @@
       <c r="BB24" s="33" t="n"/>
     </row>
     <row r="25" ht="13.75" customHeight="1" s="19">
-      <c r="A25" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A25" s="41" t="n"/>
+      <c r="B25" s="24" t="n"/>
       <c r="C25" s="25" t="n"/>
-      <c r="D25" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 1</t>
-        </is>
-      </c>
+      <c r="D25" s="26" t="n"/>
       <c r="E25" s="27" t="n"/>
       <c r="F25" s="27" t="n"/>
       <c r="G25" s="27" t="n"/>
@@ -3391,11 +3267,7 @@
       <c r="V25" s="27" t="n"/>
       <c r="W25" s="27" t="n"/>
       <c r="X25" s="27" t="n"/>
-      <c r="Y25" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y25" s="27" t="n"/>
       <c r="Z25" s="27" t="n"/>
       <c r="AA25" s="27" t="n"/>
       <c r="AB25" s="27" t="n"/>
@@ -3427,23 +3299,11 @@
       <c r="BB25" s="33" t="n"/>
     </row>
     <row r="26" ht="13.75" customHeight="1" s="19">
-      <c r="A26" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A26" s="41" t="n"/>
+      <c r="B26" s="24" t="n"/>
       <c r="C26" s="30" t="n"/>
-      <c r="D26" s="26" t="inlineStr">
-        <is>
-          <t>NIÑERA</t>
-        </is>
-      </c>
-      <c r="E26" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D26" s="26" t="n"/>
+      <c r="E26" s="27" t="n"/>
       <c r="F26" s="27" t="n"/>
       <c r="G26" s="27" t="n"/>
       <c r="H26" s="27" t="n"/>
@@ -3495,18 +3355,10 @@
       <c r="BB26" s="33" t="n"/>
     </row>
     <row r="27" ht="13.75" customHeight="1" s="19">
-      <c r="A27" s="41" t="n">
-        <v>47</v>
-      </c>
-      <c r="B27" s="24" t="n">
-        <v>16</v>
-      </c>
+      <c r="A27" s="41" t="n"/>
+      <c r="B27" s="24" t="n"/>
       <c r="C27" s="25" t="n"/>
-      <c r="D27" s="26" t="inlineStr">
-        <is>
-          <t>OTTO</t>
-        </is>
-      </c>
+      <c r="D27" s="26" t="n"/>
       <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
@@ -3516,130 +3368,54 @@
       <c r="K27" s="27" t="n"/>
       <c r="L27" s="27" t="n"/>
       <c r="M27" s="27" t="n"/>
-      <c r="N27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
       <c r="Q27" s="27" t="n"/>
       <c r="R27" s="27" t="n"/>
       <c r="S27" s="27" t="n"/>
       <c r="T27" s="27" t="n"/>
-      <c r="U27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U27" s="27" t="n"/>
+      <c r="V27" s="27" t="n"/>
+      <c r="W27" s="27" t="n"/>
       <c r="X27" s="27" t="n"/>
       <c r="Y27" s="27" t="n"/>
       <c r="Z27" s="27" t="n"/>
       <c r="AA27" s="27" t="n"/>
       <c r="AB27" s="27" t="n"/>
-      <c r="AC27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC27" s="27" t="n"/>
       <c r="AD27" s="27" t="n"/>
       <c r="AE27" s="27" t="n"/>
       <c r="AF27" s="27" t="n"/>
       <c r="AG27" s="27" t="n"/>
       <c r="AH27" s="27" t="n"/>
       <c r="AI27" s="27" t="n"/>
-      <c r="AJ27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AJ27" s="27" t="n"/>
       <c r="AK27" s="27" t="n"/>
       <c r="AL27" s="27" t="n"/>
       <c r="AM27" s="27" t="n"/>
       <c r="AN27" s="27" t="n"/>
-      <c r="AO27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AO27" s="27" t="n"/>
       <c r="AP27" s="27" t="n"/>
-      <c r="AQ27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AQ27" s="27" t="n"/>
+      <c r="AR27" s="27" t="n"/>
+      <c r="AS27" s="27" t="n"/>
+      <c r="AT27" s="27" t="n"/>
+      <c r="AU27" s="27" t="n"/>
       <c r="AV27" s="27" t="n"/>
       <c r="AW27" s="27" t="n"/>
       <c r="AX27" s="27" t="n"/>
       <c r="AY27" s="27" t="n"/>
-      <c r="AZ27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BA27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AZ27" s="27" t="n"/>
+      <c r="BA27" s="27" t="n"/>
       <c r="BB27" s="33" t="n"/>
     </row>
     <row r="28" ht="13.75" customHeight="1" s="19">
-      <c r="A28" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A28" s="41" t="n"/>
+      <c r="B28" s="24" t="n"/>
       <c r="C28" s="25" t="n"/>
-      <c r="D28" s="26" t="inlineStr">
-        <is>
-          <t>AMBIENTE NIÑAS</t>
-        </is>
-      </c>
-      <c r="E28" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D28" s="26" t="n"/>
+      <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
@@ -3691,29 +3467,17 @@
       <c r="BB28" s="33" t="n"/>
     </row>
     <row r="29" ht="13.75" customHeight="1" s="19">
-      <c r="A29" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A29" s="41" t="n"/>
+      <c r="B29" s="24" t="n"/>
       <c r="C29" s="25" t="n"/>
-      <c r="D29" s="26" t="inlineStr">
-        <is>
-          <t>MUJER</t>
-        </is>
-      </c>
+      <c r="D29" s="26" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
       <c r="I29" s="27" t="n"/>
       <c r="J29" s="27" t="n"/>
-      <c r="K29" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K29" s="27" t="n"/>
       <c r="L29" s="27" t="n"/>
       <c r="M29" s="27" t="n"/>
       <c r="N29" s="27" t="n"/>
@@ -5389,15 +5153,15 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>TIM:</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
@@ -5414,14 +5178,22 @@
       <c r="P8" s="27" t="n"/>
       <c r="Q8" s="27" t="n"/>
       <c r="R8" s="27" t="n"/>
-      <c r="S8" s="27" t="n"/>
+      <c r="S8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T8" s="27" t="n"/>
       <c r="U8" s="27" t="n"/>
       <c r="V8" s="27" t="n"/>
       <c r="W8" s="27" t="n"/>
       <c r="X8" s="27" t="n"/>
       <c r="Y8" s="27" t="n"/>
-      <c r="Z8" s="27" t="n"/>
+      <c r="Z8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
       <c r="AC8" s="27" t="n"/>
@@ -5434,9 +5206,17 @@
       <c r="AJ8" s="27" t="n"/>
       <c r="AK8" s="27" t="n"/>
       <c r="AL8" s="27" t="n"/>
-      <c r="AM8" s="27" t="n"/>
+      <c r="AM8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN8" s="27" t="n"/>
-      <c r="AO8" s="27" t="n"/>
+      <c r="AO8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP8" s="27" t="n"/>
       <c r="AQ8" s="27" t="n"/>
       <c r="AR8" s="27" t="n"/>
@@ -5444,47 +5224,31 @@
       <c r="AT8" s="27" t="n"/>
       <c r="AU8" s="27" t="n"/>
       <c r="AV8" s="27" t="n"/>
-      <c r="AW8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AX8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AW8" s="27" t="n"/>
+      <c r="AX8" s="27" t="n"/>
+      <c r="AY8" s="27" t="n"/>
       <c r="AZ8" s="27" t="n"/>
       <c r="BA8" s="27" t="n"/>
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>MUJER 2</t>
+          <t>CHRIS:</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I9" s="27" t="n"/>
       <c r="J9" s="27" t="n"/>
       <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
@@ -5495,68 +5259,116 @@
       <c r="Q9" s="27" t="n"/>
       <c r="R9" s="27" t="n"/>
       <c r="S9" s="27" t="n"/>
-      <c r="T9" s="27" t="n"/>
+      <c r="T9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U9" s="27" t="n"/>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
-      <c r="X9" s="27" t="n"/>
-      <c r="Y9" s="27" t="n"/>
+      <c r="X9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z9" s="27" t="n"/>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
       <c r="AD9" s="27" t="n"/>
       <c r="AE9" s="27" t="n"/>
-      <c r="AF9" s="27" t="n"/>
+      <c r="AF9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG9" s="27" t="n"/>
-      <c r="AH9" s="27" t="n"/>
-      <c r="AI9" s="27" t="n"/>
-      <c r="AJ9" s="27" t="n"/>
-      <c r="AK9" s="27" t="n"/>
+      <c r="AH9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AL9" s="27" t="n"/>
       <c r="AM9" s="27" t="n"/>
       <c r="AN9" s="27" t="n"/>
       <c r="AO9" s="27" t="n"/>
-      <c r="AP9" s="27" t="n"/>
-      <c r="AQ9" s="27" t="n"/>
+      <c r="AP9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR9" s="27" t="n"/>
       <c r="AS9" s="27" t="n"/>
       <c r="AT9" s="27" t="n"/>
       <c r="AU9" s="27" t="n"/>
       <c r="AV9" s="27" t="n"/>
       <c r="AW9" s="27" t="n"/>
-      <c r="AX9" s="27" t="n"/>
-      <c r="AY9" s="27" t="n"/>
+      <c r="AX9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ9" s="27" t="n"/>
       <c r="BA9" s="27" t="n"/>
-      <c r="BB9" s="33" t="n"/>
+      <c r="BB9" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>ANNA:</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="27" t="n"/>
       <c r="L10" s="27" t="n"/>
@@ -5568,11 +5380,7 @@
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U10" s="27" t="n"/>
       <c r="V10" s="27" t="n"/>
       <c r="W10" s="27" t="n"/>
       <c r="X10" s="27" t="n"/>
@@ -5584,71 +5392,119 @@
       </c>
       <c r="AA10" s="27" t="n"/>
       <c r="AB10" s="27" t="n"/>
-      <c r="AC10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC10" s="27" t="n"/>
+      <c r="AD10" s="27" t="n"/>
       <c r="AE10" s="27" t="n"/>
-      <c r="AF10" s="27" t="n"/>
+      <c r="AF10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG10" s="27" t="n"/>
-      <c r="AH10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH10" s="27" t="n"/>
       <c r="AI10" s="27" t="n"/>
       <c r="AJ10" s="27" t="n"/>
       <c r="AK10" s="27" t="n"/>
       <c r="AL10" s="27" t="n"/>
-      <c r="AM10" s="27" t="n"/>
-      <c r="AN10" s="27" t="n"/>
+      <c r="AM10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO10" s="27" t="n"/>
-      <c r="AP10" s="27" t="n"/>
-      <c r="AQ10" s="27" t="n"/>
+      <c r="AP10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR10" s="27" t="n"/>
       <c r="AS10" s="27" t="n"/>
       <c r="AT10" s="27" t="n"/>
-      <c r="AU10" s="27" t="n"/>
+      <c r="AU10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV10" s="27" t="n"/>
       <c r="AW10" s="27" t="n"/>
-      <c r="AX10" s="27" t="n"/>
-      <c r="AY10" s="27" t="n"/>
-      <c r="AZ10" s="27" t="n"/>
-      <c r="BA10" s="27" t="n"/>
+      <c r="AX10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AZ10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BA10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>ANTON</t>
-        </is>
-      </c>
-      <c r="E11" s="27" t="n"/>
+          <t>BEN:</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
-      <c r="H11" s="27" t="n"/>
-      <c r="I11" s="27" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="n"/>
+      <c r="H11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N11" s="27" t="n"/>
       <c r="O11" s="27" t="inlineStr">
         <is>
@@ -5668,17 +5524,45 @@
       <c r="R11" s="27" t="n"/>
       <c r="S11" s="27" t="n"/>
       <c r="T11" s="27" t="n"/>
-      <c r="U11" s="27" t="n"/>
-      <c r="V11" s="27" t="n"/>
-      <c r="W11" s="27" t="n"/>
+      <c r="U11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X11" s="27" t="n"/>
       <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
-      <c r="AA11" s="27" t="n"/>
-      <c r="AB11" s="27" t="n"/>
-      <c r="AC11" s="27" t="n"/>
+      <c r="AA11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD11" s="27" t="n"/>
-      <c r="AE11" s="27" t="n"/>
+      <c r="AE11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF11" s="27" t="n"/>
       <c r="AG11" s="27" t="n"/>
       <c r="AH11" s="27" t="n"/>
@@ -5691,34 +5575,74 @@
       <c r="AO11" s="27" t="n"/>
       <c r="AP11" s="27" t="n"/>
       <c r="AQ11" s="27" t="n"/>
-      <c r="AR11" s="27" t="n"/>
-      <c r="AS11" s="27" t="n"/>
-      <c r="AT11" s="27" t="n"/>
-      <c r="AU11" s="27" t="n"/>
-      <c r="AV11" s="27" t="n"/>
-      <c r="AW11" s="27" t="n"/>
+      <c r="AR11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AV11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AW11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AX11" s="27" t="n"/>
-      <c r="AY11" s="27" t="n"/>
-      <c r="AZ11" s="27" t="n"/>
-      <c r="BA11" s="27" t="n"/>
+      <c r="AY11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AZ11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BA11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>INSERT:</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="n"/>
+      <c r="G12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H12" s="27" t="n"/>
       <c r="I12" s="27" t="n"/>
       <c r="J12" s="27" t="n"/>
@@ -5729,47 +5653,27 @@
       <c r="O12" s="27" t="n"/>
       <c r="P12" s="27" t="n"/>
       <c r="Q12" s="27" t="n"/>
-      <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="R12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S12" s="27" t="n"/>
+      <c r="T12" s="27" t="n"/>
       <c r="U12" s="27" t="n"/>
-      <c r="V12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V12" s="27" t="n"/>
+      <c r="W12" s="27" t="n"/>
       <c r="X12" s="27" t="n"/>
-      <c r="Y12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y12" s="27" t="n"/>
+      <c r="Z12" s="27" t="n"/>
       <c r="AA12" s="27" t="n"/>
       <c r="AB12" s="27" t="n"/>
-      <c r="AC12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD12" s="27" t="n"/>
+      <c r="AC12" s="27" t="n"/>
+      <c r="AD12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE12" s="27" t="n"/>
       <c r="AF12" s="27" t="n"/>
       <c r="AG12" s="27" t="inlineStr">
@@ -5781,7 +5685,11 @@
       <c r="AI12" s="27" t="n"/>
       <c r="AJ12" s="27" t="n"/>
       <c r="AK12" s="27" t="n"/>
-      <c r="AL12" s="27" t="n"/>
+      <c r="AL12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM12" s="27" t="n"/>
       <c r="AN12" s="27" t="n"/>
       <c r="AO12" s="27" t="n"/>
@@ -5801,15 +5709,15 @@
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>AGNES</t>
+          <t>WANG:</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -5825,7 +5733,11 @@
       </c>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="n"/>
+      <c r="N13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O13" s="27" t="n"/>
       <c r="P13" s="27" t="n"/>
       <c r="Q13" s="27" t="n"/>
@@ -5858,7 +5770,11 @@
       <c r="AR13" s="27" t="n"/>
       <c r="AS13" s="27" t="n"/>
       <c r="AT13" s="27" t="n"/>
-      <c r="AU13" s="27" t="n"/>
+      <c r="AU13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV13" s="27" t="n"/>
       <c r="AW13" s="27" t="n"/>
       <c r="AX13" s="27" t="n"/>
@@ -5868,18 +5784,10 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A14" s="41" t="n"/>
+      <c r="B14" s="24" t="n"/>
       <c r="C14" s="25" t="n"/>
-      <c r="D14" s="26" t="inlineStr">
-        <is>
-          <t>MÉDICO</t>
-        </is>
-      </c>
+      <c r="D14" s="26" t="n"/>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
@@ -5888,11 +5796,7 @@
       <c r="J14" s="27" t="n"/>
       <c r="K14" s="27" t="n"/>
       <c r="L14" s="27" t="n"/>
-      <c r="M14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M14" s="27" t="n"/>
       <c r="N14" s="27" t="n"/>
       <c r="O14" s="27" t="n"/>
       <c r="P14" s="27" t="n"/>
@@ -5936,216 +5840,72 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n">
-        <v>106</v>
-      </c>
-      <c r="B15" s="24" t="n">
-        <v>31</v>
-      </c>
+      <c r="A15" s="41" t="n"/>
+      <c r="B15" s="24" t="n"/>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="inlineStr">
-        <is>
-          <t>HANNA</t>
-        </is>
-      </c>
-      <c r="E15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D15" s="26" t="n"/>
+      <c r="E15" s="27" t="n"/>
+      <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
-      <c r="H15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H15" s="27" t="n"/>
       <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J15" s="27" t="n"/>
+      <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M15" s="27" t="n"/>
       <c r="N15" s="27" t="n"/>
-      <c r="O15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
+      <c r="S15" s="27" t="n"/>
       <c r="T15" s="27" t="n"/>
       <c r="U15" s="27" t="n"/>
-      <c r="V15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V15" s="27" t="n"/>
       <c r="W15" s="27" t="n"/>
-      <c r="X15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="X15" s="27" t="n"/>
       <c r="Y15" s="27" t="n"/>
-      <c r="Z15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z15" s="27" t="n"/>
+      <c r="AA15" s="27" t="n"/>
       <c r="AB15" s="27" t="n"/>
-      <c r="AC15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC15" s="27" t="n"/>
       <c r="AD15" s="27" t="n"/>
       <c r="AE15" s="27" t="n"/>
       <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
       <c r="AH15" s="27" t="n"/>
-      <c r="AI15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI15" s="27" t="n"/>
+      <c r="AJ15" s="27" t="n"/>
       <c r="AK15" s="27" t="n"/>
-      <c r="AL15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AN15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AL15" s="27" t="n"/>
+      <c r="AM15" s="27" t="n"/>
+      <c r="AN15" s="27" t="n"/>
       <c r="AO15" s="27" t="n"/>
-      <c r="AP15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP15" s="27" t="n"/>
+      <c r="AQ15" s="27" t="n"/>
+      <c r="AR15" s="27" t="n"/>
+      <c r="AS15" s="27" t="n"/>
+      <c r="AT15" s="27" t="n"/>
       <c r="AU15" s="27" t="n"/>
-      <c r="AV15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AX15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AV15" s="27" t="n"/>
+      <c r="AW15" s="27" t="n"/>
+      <c r="AX15" s="27" t="n"/>
+      <c r="AY15" s="27" t="n"/>
       <c r="AZ15" s="27" t="n"/>
-      <c r="BA15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BA15" s="27" t="n"/>
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A16" s="41" t="n"/>
+      <c r="B16" s="24" t="n"/>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="inlineStr">
-        <is>
-          <t>MARIE</t>
-        </is>
-      </c>
+      <c r="D16" s="26" t="n"/>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
       <c r="G16" s="27" t="n"/>
       <c r="H16" s="27" t="n"/>
       <c r="I16" s="27" t="n"/>
-      <c r="J16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J16" s="27" t="n"/>
       <c r="K16" s="27" t="n"/>
       <c r="L16" s="27" t="n"/>
       <c r="M16" s="27" t="n"/>
@@ -6192,18 +5952,10 @@
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
-      <c r="A17" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A17" s="41" t="n"/>
+      <c r="B17" s="24" t="n"/>
       <c r="C17" s="25" t="n"/>
-      <c r="D17" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRES</t>
-        </is>
-      </c>
+      <c r="D17" s="26" t="n"/>
       <c r="E17" s="27" t="n"/>
       <c r="F17" s="27" t="n"/>
       <c r="G17" s="27" t="n"/>
@@ -6238,11 +5990,7 @@
       <c r="AJ17" s="27" t="n"/>
       <c r="AK17" s="27" t="n"/>
       <c r="AL17" s="27" t="n"/>
-      <c r="AM17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AM17" s="27" t="n"/>
       <c r="AN17" s="27" t="n"/>
       <c r="AO17" s="27" t="n"/>
       <c r="AP17" s="27" t="n"/>
@@ -6260,18 +6008,10 @@
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
-      <c r="A18" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A18" s="41" t="n"/>
+      <c r="B18" s="24" t="n"/>
       <c r="C18" s="25" t="n"/>
-      <c r="D18" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 3</t>
-        </is>
-      </c>
+      <c r="D18" s="26" t="n"/>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
@@ -6298,11 +6038,7 @@
       <c r="AB18" s="27" t="n"/>
       <c r="AC18" s="27" t="n"/>
       <c r="AD18" s="27" t="n"/>
-      <c r="AE18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE18" s="27" t="n"/>
       <c r="AF18" s="27" t="n"/>
       <c r="AG18" s="27" t="n"/>
       <c r="AH18" s="27" t="n"/>
@@ -6328,33 +6064,13 @@
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n">
-        <v>47</v>
-      </c>
-      <c r="B19" s="24" t="n">
-        <v>18</v>
-      </c>
+      <c r="A19" s="41" t="n"/>
+      <c r="B19" s="24" t="n"/>
       <c r="C19" s="25" t="n"/>
-      <c r="D19" s="26" t="inlineStr">
-        <is>
-          <t>OTTO</t>
-        </is>
-      </c>
-      <c r="E19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D19" s="26" t="n"/>
+      <c r="E19" s="27" t="n"/>
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
       <c r="I19" s="27" t="n"/>
       <c r="J19" s="27" t="n"/>
@@ -6374,85 +6090,25 @@
       <c r="X19" s="27" t="n"/>
       <c r="Y19" s="27" t="n"/>
       <c r="Z19" s="27" t="n"/>
-      <c r="AA19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA19" s="27" t="n"/>
       <c r="AB19" s="27" t="n"/>
-      <c r="AC19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC19" s="27" t="n"/>
       <c r="AD19" s="27" t="n"/>
       <c r="AE19" s="27" t="n"/>
-      <c r="AF19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AF19" s="27" t="n"/>
+      <c r="AG19" s="27" t="n"/>
       <c r="AH19" s="27" t="n"/>
-      <c r="AI19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AN19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AP19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI19" s="27" t="n"/>
+      <c r="AJ19" s="27" t="n"/>
+      <c r="AK19" s="27" t="n"/>
+      <c r="AL19" s="27" t="n"/>
+      <c r="AM19" s="27" t="n"/>
+      <c r="AN19" s="27" t="n"/>
+      <c r="AO19" s="27" t="n"/>
+      <c r="AP19" s="27" t="n"/>
+      <c r="AQ19" s="27" t="n"/>
+      <c r="AR19" s="27" t="n"/>
+      <c r="AS19" s="27" t="n"/>
       <c r="AT19" s="27" t="n"/>
       <c r="AU19" s="27" t="n"/>
       <c r="AV19" s="27" t="n"/>
@@ -6464,28 +6120,16 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" s="41" t="n"/>
+      <c r="B20" s="24" t="n"/>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="inlineStr">
-        <is>
-          <t>HELENE</t>
-        </is>
-      </c>
+      <c r="D20" s="26" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
       <c r="I20" s="27" t="n"/>
-      <c r="J20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J20" s="27" t="n"/>
       <c r="K20" s="27" t="n"/>
       <c r="L20" s="27" t="n"/>
       <c r="M20" s="27" t="n"/>
@@ -6532,18 +6176,10 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <v>4</v>
-      </c>
+      <c r="A21" s="41" t="n"/>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 2</t>
-        </is>
-      </c>
+      <c r="D21" s="26" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -6561,27 +6197,11 @@
       <c r="S21" s="27" t="n"/>
       <c r="T21" s="27" t="n"/>
       <c r="U21" s="27" t="n"/>
-      <c r="V21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V21" s="27" t="n"/>
+      <c r="W21" s="27" t="n"/>
+      <c r="X21" s="27" t="n"/>
       <c r="Y21" s="27" t="n"/>
-      <c r="Z21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z21" s="27" t="n"/>
       <c r="AA21" s="27" t="n"/>
       <c r="AB21" s="27" t="n"/>
       <c r="AC21" s="27" t="n"/>
@@ -6612,18 +6232,10 @@
       <c r="BB21" s="33" t="n"/>
     </row>
     <row r="22" ht="13.75" customHeight="1" s="19">
-      <c r="A22" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="B22" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A22" s="41" t="n"/>
+      <c r="B22" s="24" t="n"/>
       <c r="C22" s="25" t="n"/>
-      <c r="D22" s="26" t="inlineStr">
-        <is>
-          <t>HERMANN</t>
-        </is>
-      </c>
+      <c r="D22" s="26" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -6650,16 +6262,8 @@
       <c r="AB22" s="27" t="n"/>
       <c r="AC22" s="27" t="n"/>
       <c r="AD22" s="27" t="n"/>
-      <c r="AE22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE22" s="27" t="n"/>
+      <c r="AF22" s="27" t="n"/>
       <c r="AG22" s="27" t="n"/>
       <c r="AH22" s="27" t="n"/>
       <c r="AI22" s="27" t="n"/>
@@ -6684,25 +6288,13 @@
       <c r="BB22" s="33" t="n"/>
     </row>
     <row r="23" ht="13.75" customHeight="1" s="19">
-      <c r="A23" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A23" s="41" t="n"/>
+      <c r="B23" s="24" t="n"/>
       <c r="C23" s="25" t="n"/>
-      <c r="D23" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 1</t>
-        </is>
-      </c>
+      <c r="D23" s="26" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
-      <c r="G23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
       <c r="I23" s="27" t="n"/>
       <c r="J23" s="27" t="n"/>
@@ -6752,26 +6344,14 @@
       <c r="BB23" s="33" t="n"/>
     </row>
     <row r="24" ht="13.75" customHeight="1" s="19">
-      <c r="A24" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A24" s="41" t="n"/>
+      <c r="B24" s="24" t="n"/>
       <c r="C24" s="25" t="n"/>
-      <c r="D24" s="26" t="inlineStr">
-        <is>
-          <t>LUCIO</t>
-        </is>
-      </c>
+      <c r="D24" s="26" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
-      <c r="H24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H24" s="27" t="n"/>
       <c r="I24" s="27" t="n"/>
       <c r="J24" s="27" t="n"/>
       <c r="K24" s="27" t="n"/>
@@ -8730,19 +8310,27 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>H0MBRE 5</t>
-        </is>
-      </c>
-      <c r="E8" s="27" t="n"/>
-      <c r="F8" s="27" t="n"/>
+          <t>TIM:</t>
+        </is>
+      </c>
+      <c r="E8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G8" s="27" t="n"/>
       <c r="H8" s="27" t="n"/>
       <c r="I8" s="27" t="n"/>
@@ -8761,22 +8349,42 @@
       <c r="V8" s="27" t="n"/>
       <c r="W8" s="27" t="n"/>
       <c r="X8" s="27" t="n"/>
-      <c r="Y8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y8" s="27" t="n"/>
       <c r="Z8" s="27" t="n"/>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
-      <c r="AC8" s="27" t="n"/>
-      <c r="AD8" s="27" t="n"/>
-      <c r="AE8" s="27" t="n"/>
+      <c r="AC8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF8" s="27" t="n"/>
       <c r="AG8" s="27" t="n"/>
-      <c r="AH8" s="27" t="n"/>
-      <c r="AI8" s="27" t="n"/>
-      <c r="AJ8" s="27" t="n"/>
+      <c r="AH8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK8" s="27" t="n"/>
       <c r="AL8" s="27" t="n"/>
       <c r="AM8" s="27" t="n"/>
@@ -8798,36 +8406,24 @@
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>CHRIS:</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
       <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
       <c r="N9" s="27" t="n"/>
@@ -8840,9 +8436,17 @@
       <c r="U9" s="27" t="n"/>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
-      <c r="X9" s="27" t="n"/>
+      <c r="X9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y9" s="27" t="n"/>
-      <c r="Z9" s="27" t="n"/>
+      <c r="Z9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
@@ -8853,24 +8457,40 @@
       <c r="AH9" s="27" t="n"/>
       <c r="AI9" s="27" t="n"/>
       <c r="AJ9" s="27" t="n"/>
-      <c r="AK9" s="27" t="n"/>
-      <c r="AL9" s="27" t="n"/>
+      <c r="AK9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM9" s="27" t="n"/>
-      <c r="AN9" s="27" t="n"/>
+      <c r="AN9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO9" s="27" t="n"/>
-      <c r="AP9" s="27" t="n"/>
-      <c r="AQ9" s="27" t="n"/>
-      <c r="AR9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT9" s="27" t="n"/>
+      <c r="AP9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR9" s="27" t="n"/>
+      <c r="AS9" s="27" t="n"/>
+      <c r="AT9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AU9" s="27" t="n"/>
       <c r="AV9" s="27" t="inlineStr">
         <is>
@@ -8882,108 +8502,104 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AX9" s="27" t="n"/>
+      <c r="AX9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AY9" s="27" t="n"/>
-      <c r="AZ9" s="27" t="n"/>
+      <c r="AZ9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BA9" s="27" t="n"/>
-      <c r="BB9" s="33" t="n"/>
+      <c r="BB9" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
-        </is>
-      </c>
-      <c r="E10" s="27" t="n"/>
+          <t>ANNA:</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="27" t="n"/>
-      <c r="L10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
       <c r="N10" s="27" t="n"/>
       <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="P10" s="27" t="n"/>
       <c r="Q10" s="27" t="n"/>
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="n"/>
+      <c r="U10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V10" s="27" t="n"/>
-      <c r="W10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W10" s="27" t="n"/>
       <c r="X10" s="27" t="n"/>
       <c r="Y10" s="27" t="n"/>
       <c r="Z10" s="27" t="n"/>
       <c r="AA10" s="27" t="n"/>
-      <c r="AB10" s="27" t="n"/>
+      <c r="AB10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC10" s="27" t="n"/>
-      <c r="AD10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD10" s="27" t="n"/>
+      <c r="AE10" s="27" t="n"/>
       <c r="AF10" s="27" t="n"/>
       <c r="AG10" s="27" t="n"/>
-      <c r="AH10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH10" s="27" t="n"/>
       <c r="AI10" s="27" t="n"/>
       <c r="AJ10" s="27" t="n"/>
-      <c r="AK10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AK10" s="27" t="n"/>
       <c r="AL10" s="27" t="n"/>
       <c r="AM10" s="27" t="n"/>
-      <c r="AN10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AN10" s="27" t="n"/>
       <c r="AO10" s="27" t="n"/>
       <c r="AP10" s="27" t="n"/>
       <c r="AQ10" s="27" t="n"/>
       <c r="AR10" s="27" t="n"/>
       <c r="AS10" s="27" t="n"/>
-      <c r="AT10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU10" s="27" t="n"/>
+      <c r="AT10" s="27" t="n"/>
+      <c r="AU10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV10" s="27" t="n"/>
       <c r="AW10" s="27" t="n"/>
       <c r="AX10" s="27" t="inlineStr">
@@ -8994,7 +8610,11 @@
       <c r="AY10" s="27" t="n"/>
       <c r="AZ10" s="27" t="n"/>
       <c r="BA10" s="27" t="n"/>
-      <c r="BB10" s="33" t="n"/>
+      <c r="BB10" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
@@ -9006,7 +8626,7 @@
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 6</t>
+          <t>DAVE:</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -9029,11 +8649,7 @@
       <c r="V11" s="27" t="n"/>
       <c r="W11" s="27" t="n"/>
       <c r="X11" s="27" t="n"/>
-      <c r="Y11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
       <c r="AA11" s="27" t="n"/>
       <c r="AB11" s="27" t="n"/>
@@ -9062,44 +8678,92 @@
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
       <c r="BA11" s="27" t="n"/>
-      <c r="BB11" s="33" t="n"/>
+      <c r="BB11" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
-        </is>
-      </c>
-      <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>BEN:</t>
+        </is>
+      </c>
+      <c r="E12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I12" s="27" t="n"/>
-      <c r="J12" s="27" t="n"/>
-      <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="n"/>
-      <c r="M12" s="27" t="n"/>
-      <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="n"/>
+      <c r="I12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="n"/>
+      <c r="S12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T12" s="27" t="inlineStr">
         <is>
           <t>X</t>
@@ -9107,21 +8771,37 @@
       </c>
       <c r="U12" s="27" t="n"/>
       <c r="V12" s="27" t="n"/>
-      <c r="W12" s="27" t="n"/>
+      <c r="W12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X12" s="27" t="n"/>
-      <c r="Y12" s="27" t="n"/>
+      <c r="Y12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z12" s="27" t="n"/>
-      <c r="AA12" s="27" t="n"/>
-      <c r="AB12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB12" s="27" t="n"/>
       <c r="AC12" s="27" t="n"/>
       <c r="AD12" s="27" t="n"/>
       <c r="AE12" s="27" t="n"/>
-      <c r="AF12" s="27" t="n"/>
-      <c r="AG12" s="27" t="n"/>
+      <c r="AF12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH12" s="27" t="n"/>
       <c r="AI12" s="27" t="n"/>
       <c r="AJ12" s="27" t="n"/>
@@ -9129,29 +8809,21 @@
       <c r="AL12" s="27" t="n"/>
       <c r="AM12" s="27" t="n"/>
       <c r="AN12" s="27" t="n"/>
-      <c r="AO12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AP12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR12" s="27" t="n"/>
-      <c r="AS12" s="27" t="n"/>
+      <c r="AO12" s="27" t="n"/>
+      <c r="AP12" s="27" t="n"/>
+      <c r="AQ12" s="27" t="n"/>
+      <c r="AR12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AT12" s="27" t="n"/>
-      <c r="AU12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AU12" s="27" t="n"/>
       <c r="AV12" s="27" t="n"/>
       <c r="AW12" s="27" t="n"/>
       <c r="AX12" s="27" t="n"/>
@@ -9162,151 +8834,55 @@
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>HANNA</t>
-        </is>
-      </c>
-      <c r="E13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>INSERT:</t>
+        </is>
+      </c>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
       <c r="I13" s="27" t="n"/>
       <c r="J13" s="27" t="n"/>
-      <c r="K13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K13" s="27" t="n"/>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
       <c r="S13" s="27" t="n"/>
-      <c r="T13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T13" s="27" t="n"/>
+      <c r="U13" s="27" t="n"/>
       <c r="V13" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="W13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W13" s="27" t="n"/>
       <c r="X13" s="27" t="n"/>
-      <c r="Y13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y13" s="27" t="n"/>
+      <c r="Z13" s="27" t="n"/>
       <c r="AA13" s="27" t="n"/>
-      <c r="AB13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB13" s="27" t="n"/>
+      <c r="AC13" s="27" t="n"/>
+      <c r="AD13" s="27" t="n"/>
+      <c r="AE13" s="27" t="n"/>
+      <c r="AF13" s="27" t="n"/>
       <c r="AG13" s="27" t="n"/>
-      <c r="AH13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH13" s="27" t="n"/>
+      <c r="AI13" s="27" t="n"/>
+      <c r="AJ13" s="27" t="n"/>
       <c r="AK13" s="27" t="n"/>
-      <c r="AL13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AL13" s="27" t="n"/>
       <c r="AM13" s="27" t="n"/>
       <c r="AN13" s="27" t="n"/>
       <c r="AO13" s="27" t="inlineStr">
@@ -9314,68 +8890,40 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AP13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP13" s="27" t="n"/>
+      <c r="AQ13" s="27" t="n"/>
       <c r="AR13" s="27" t="n"/>
       <c r="AS13" s="27" t="n"/>
       <c r="AT13" s="27" t="n"/>
       <c r="AU13" s="27" t="n"/>
-      <c r="AV13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AV13" s="27" t="n"/>
+      <c r="AW13" s="27" t="n"/>
       <c r="AX13" s="27" t="n"/>
-      <c r="AY13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY13" s="27" t="n"/>
       <c r="AZ13" s="27" t="n"/>
       <c r="BA13" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="BB13" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
       <c r="A14" s="41" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B14" s="24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>HERMANN</t>
+          <t>WANG:</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
@@ -9385,24 +8933,24 @@
       <c r="N14" s="27" t="n"/>
       <c r="O14" s="27" t="n"/>
       <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="27" t="n"/>
-      <c r="R14" s="27" t="n"/>
+      <c r="Q14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="S14" s="27" t="n"/>
       <c r="T14" s="27" t="n"/>
       <c r="U14" s="27" t="n"/>
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
-      <c r="X14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="X14" s="27" t="n"/>
       <c r="Y14" s="27" t="n"/>
-      <c r="Z14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
       <c r="AB14" s="27" t="n"/>
       <c r="AC14" s="27" t="n"/>
@@ -9411,15 +8959,15 @@
       <c r="AF14" s="27" t="n"/>
       <c r="AG14" s="27" t="n"/>
       <c r="AH14" s="27" t="n"/>
-      <c r="AI14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI14" s="27" t="n"/>
       <c r="AJ14" s="27" t="n"/>
       <c r="AK14" s="27" t="n"/>
       <c r="AL14" s="27" t="n"/>
-      <c r="AM14" s="27" t="n"/>
+      <c r="AM14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN14" s="27" t="n"/>
       <c r="AO14" s="27" t="n"/>
       <c r="AP14" s="27" t="n"/>
@@ -9427,28 +8975,28 @@
       <c r="AR14" s="27" t="n"/>
       <c r="AS14" s="27" t="n"/>
       <c r="AT14" s="27" t="n"/>
-      <c r="AU14" s="27" t="n"/>
+      <c r="AU14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV14" s="27" t="n"/>
       <c r="AW14" s="27" t="n"/>
       <c r="AX14" s="27" t="n"/>
-      <c r="AY14" s="27" t="n"/>
+      <c r="AY14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ14" s="27" t="n"/>
       <c r="BA14" s="27" t="n"/>
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n">
-        <v>47</v>
-      </c>
-      <c r="B15" s="24" t="n">
-        <v>13</v>
-      </c>
+      <c r="A15" s="41" t="n"/>
+      <c r="B15" s="24" t="n"/>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="inlineStr">
-        <is>
-          <t>OTTO</t>
-        </is>
-      </c>
+      <c r="D15" s="26" t="n"/>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -9457,52 +9005,16 @@
       <c r="J15" s="27" t="n"/>
       <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
       <c r="S15" s="27" t="n"/>
-      <c r="T15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T15" s="27" t="n"/>
+      <c r="U15" s="27" t="n"/>
+      <c r="V15" s="27" t="n"/>
       <c r="W15" s="27" t="n"/>
       <c r="X15" s="27" t="n"/>
       <c r="Y15" s="27" t="n"/>
@@ -9515,16 +9027,8 @@
       <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
       <c r="AH15" s="27" t="n"/>
-      <c r="AI15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI15" s="27" t="n"/>
+      <c r="AJ15" s="27" t="n"/>
       <c r="AK15" s="27" t="n"/>
       <c r="AL15" s="27" t="n"/>
       <c r="AM15" s="27" t="n"/>
@@ -9532,16 +9036,8 @@
       <c r="AO15" s="27" t="n"/>
       <c r="AP15" s="27" t="n"/>
       <c r="AQ15" s="27" t="n"/>
-      <c r="AR15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR15" s="27" t="n"/>
+      <c r="AS15" s="27" t="n"/>
       <c r="AT15" s="27" t="n"/>
       <c r="AU15" s="27" t="n"/>
       <c r="AV15" s="27" t="n"/>
@@ -9553,18 +9049,10 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A16" s="41" t="n"/>
+      <c r="B16" s="24" t="n"/>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="inlineStr">
-        <is>
-          <t>MUJER 3</t>
-        </is>
-      </c>
+      <c r="D16" s="26" t="n"/>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
       <c r="G16" s="27" t="n"/>
@@ -9583,17 +9071,9 @@
       <c r="T16" s="27" t="n"/>
       <c r="U16" s="27" t="n"/>
       <c r="V16" s="27" t="n"/>
-      <c r="W16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W16" s="27" t="n"/>
       <c r="X16" s="27" t="n"/>
-      <c r="Y16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y16" s="27" t="n"/>
       <c r="Z16" s="27" t="n"/>
       <c r="AA16" s="27" t="n"/>
       <c r="AB16" s="27" t="n"/>
@@ -9625,18 +9105,10 @@
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
-      <c r="A17" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A17" s="41" t="n"/>
+      <c r="B17" s="24" t="n"/>
       <c r="C17" s="25" t="n"/>
-      <c r="D17" s="26" t="inlineStr">
-        <is>
-          <t>HELENE</t>
-        </is>
-      </c>
+      <c r="D17" s="26" t="n"/>
       <c r="E17" s="27" t="n"/>
       <c r="F17" s="27" t="n"/>
       <c r="G17" s="27" t="n"/>
@@ -9683,32 +9155,16 @@
       <c r="AV17" s="27" t="n"/>
       <c r="AW17" s="27" t="n"/>
       <c r="AX17" s="27" t="n"/>
-      <c r="AY17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY17" s="27" t="n"/>
       <c r="AZ17" s="27" t="n"/>
-      <c r="BA17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BA17" s="27" t="n"/>
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
-      <c r="A18" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A18" s="41" t="n"/>
+      <c r="B18" s="24" t="n"/>
       <c r="C18" s="25" t="n"/>
-      <c r="D18" s="26" t="inlineStr">
-        <is>
-          <t>INSERTO HANNA</t>
-        </is>
-      </c>
+      <c r="D18" s="26" t="n"/>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
@@ -9756,27 +9212,15 @@
       <c r="AW18" s="27" t="n"/>
       <c r="AX18" s="27" t="n"/>
       <c r="AY18" s="27" t="n"/>
-      <c r="AZ18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AZ18" s="27" t="n"/>
       <c r="BA18" s="27" t="n"/>
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A19" s="41" t="n"/>
+      <c r="B19" s="24" t="n"/>
       <c r="C19" s="25" t="n"/>
-      <c r="D19" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 4</t>
-        </is>
-      </c>
+      <c r="D19" s="26" t="n"/>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
@@ -9792,11 +9236,7 @@
       <c r="Q19" s="27" t="n"/>
       <c r="R19" s="27" t="n"/>
       <c r="S19" s="27" t="n"/>
-      <c r="T19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T19" s="27" t="n"/>
       <c r="U19" s="27" t="n"/>
       <c r="V19" s="27" t="n"/>
       <c r="W19" s="27" t="n"/>
@@ -9833,18 +9273,10 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <v>4</v>
-      </c>
+      <c r="A20" s="41" t="n"/>
+      <c r="B20" s="24" t="n"/>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="inlineStr">
-        <is>
-          <t>ANTON</t>
-        </is>
-      </c>
+      <c r="D20" s="26" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
@@ -9871,31 +9303,15 @@
       <c r="AB20" s="27" t="n"/>
       <c r="AC20" s="27" t="n"/>
       <c r="AD20" s="27" t="n"/>
-      <c r="AE20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE20" s="27" t="n"/>
+      <c r="AF20" s="27" t="n"/>
       <c r="AG20" s="27" t="n"/>
       <c r="AH20" s="27" t="n"/>
       <c r="AI20" s="27" t="n"/>
       <c r="AJ20" s="27" t="n"/>
       <c r="AK20" s="27" t="n"/>
-      <c r="AL20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AL20" s="27" t="n"/>
+      <c r="AM20" s="27" t="n"/>
       <c r="AN20" s="27" t="n"/>
       <c r="AO20" s="27" t="n"/>
       <c r="AP20" s="27" t="n"/>
@@ -9913,18 +9329,10 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A21" s="41" t="n"/>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="inlineStr">
-        <is>
-          <t>LUCIO</t>
-        </is>
-      </c>
+      <c r="D21" s="26" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -9950,11 +9358,7 @@
       <c r="AA21" s="27" t="n"/>
       <c r="AB21" s="27" t="n"/>
       <c r="AC21" s="27" t="n"/>
-      <c r="AD21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD21" s="27" t="n"/>
       <c r="AE21" s="27" t="n"/>
       <c r="AF21" s="27" t="n"/>
       <c r="AG21" s="27" t="n"/>
@@ -9975,11 +9379,7 @@
       <c r="AV21" s="27" t="n"/>
       <c r="AW21" s="27" t="n"/>
       <c r="AX21" s="27" t="n"/>
-      <c r="AY21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY21" s="27" t="n"/>
       <c r="AZ21" s="27" t="n"/>
       <c r="BA21" s="27" t="n"/>
       <c r="BB21" s="33" t="n"/>
@@ -12063,30 +11463,34 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
-        </is>
-      </c>
-      <c r="E8" s="27" t="n"/>
-      <c r="F8" s="27" t="n"/>
+          <t>TIM:</t>
+        </is>
+      </c>
+      <c r="E8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G8" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
       <c r="H8" s="27" t="n"/>
-      <c r="I8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I8" s="27" t="n"/>
       <c r="J8" s="27" t="n"/>
       <c r="K8" s="27" t="inlineStr">
         <is>
@@ -12101,16 +11505,28 @@
       <c r="Q8" s="27" t="n"/>
       <c r="R8" s="27" t="n"/>
       <c r="S8" s="27" t="n"/>
-      <c r="T8" s="27" t="n"/>
+      <c r="T8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U8" s="27" t="n"/>
       <c r="V8" s="27" t="n"/>
-      <c r="W8" s="27" t="n"/>
+      <c r="W8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X8" s="27" t="n"/>
       <c r="Y8" s="27" t="n"/>
       <c r="Z8" s="27" t="n"/>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
-      <c r="AC8" s="27" t="n"/>
+      <c r="AC8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD8" s="27" t="n"/>
       <c r="AE8" s="27" t="n"/>
       <c r="AF8" s="27" t="n"/>
@@ -12139,15 +11555,15 @@
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>MUJER 1:</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -12159,18 +11575,10 @@
       <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
-      <c r="N9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N9" s="27" t="n"/>
       <c r="O9" s="27" t="n"/>
       <c r="P9" s="27" t="n"/>
-      <c r="Q9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q9" s="27" t="n"/>
       <c r="R9" s="27" t="n"/>
       <c r="S9" s="27" t="inlineStr">
         <is>
@@ -12215,15 +11623,15 @@
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>INSERTO</t>
+          <t>CHRIS:</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
@@ -12236,42 +11644,22 @@
       <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
       <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
+      <c r="O10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P10" s="27" t="n"/>
       <c r="Q10" s="27" t="n"/>
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U10" s="27" t="n"/>
+      <c r="V10" s="27" t="n"/>
+      <c r="W10" s="27" t="n"/>
+      <c r="X10" s="27" t="n"/>
+      <c r="Y10" s="27" t="n"/>
+      <c r="Z10" s="27" t="n"/>
       <c r="AA10" s="27" t="n"/>
       <c r="AB10" s="27" t="n"/>
       <c r="AC10" s="27" t="n"/>
@@ -12296,55 +11684,83 @@
       <c r="AV10" s="27" t="n"/>
       <c r="AW10" s="27" t="n"/>
       <c r="AX10" s="27" t="n"/>
-      <c r="AY10" s="27" t="n"/>
-      <c r="AZ10" s="27" t="n"/>
+      <c r="AY10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AZ10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BA10" s="27" t="n"/>
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>ANNA:</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
+      <c r="F11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H11" s="27" t="n"/>
       <c r="I11" s="27" t="n"/>
       <c r="J11" s="27" t="n"/>
       <c r="K11" s="27" t="n"/>
       <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="n"/>
+      <c r="M11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N11" s="27" t="n"/>
-      <c r="O11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
       <c r="Q11" s="27" t="n"/>
       <c r="R11" s="27" t="n"/>
-      <c r="S11" s="27" t="n"/>
+      <c r="S11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T11" s="27" t="n"/>
-      <c r="U11" s="27" t="n"/>
-      <c r="V11" s="27" t="n"/>
+      <c r="U11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W11" s="27" t="n"/>
       <c r="X11" s="27" t="n"/>
       <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
-      <c r="AA11" s="27" t="n"/>
+      <c r="AA11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB11" s="27" t="n"/>
       <c r="AC11" s="27" t="n"/>
       <c r="AD11" s="27" t="n"/>
@@ -12352,38 +11768,66 @@
       <c r="AF11" s="27" t="n"/>
       <c r="AG11" s="27" t="n"/>
       <c r="AH11" s="27" t="n"/>
-      <c r="AI11" s="27" t="n"/>
+      <c r="AI11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ11" s="27" t="n"/>
       <c r="AK11" s="27" t="n"/>
       <c r="AL11" s="27" t="n"/>
       <c r="AM11" s="27" t="n"/>
       <c r="AN11" s="27" t="n"/>
       <c r="AO11" s="27" t="n"/>
-      <c r="AP11" s="27" t="n"/>
-      <c r="AQ11" s="27" t="n"/>
+      <c r="AP11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR11" s="27" t="n"/>
       <c r="AS11" s="27" t="n"/>
-      <c r="AT11" s="27" t="n"/>
-      <c r="AU11" s="27" t="n"/>
+      <c r="AT11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV11" s="27" t="n"/>
-      <c r="AW11" s="27" t="n"/>
+      <c r="AW11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AX11" s="27" t="n"/>
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
       <c r="BA11" s="27" t="n"/>
-      <c r="BB11" s="33" t="n"/>
+      <c r="BB11" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE BARCO</t>
+          <t>BEN:</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -12391,49 +11835,125 @@
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
       <c r="I12" s="27" t="n"/>
-      <c r="J12" s="27" t="n"/>
+      <c r="J12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="n"/>
-      <c r="M12" s="27" t="n"/>
+      <c r="L12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N12" s="27" t="n"/>
       <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="n"/>
+      <c r="P12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q12" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="R12" s="27" t="n"/>
+      <c r="R12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="S12" s="27" t="n"/>
       <c r="T12" s="27" t="n"/>
       <c r="U12" s="27" t="n"/>
       <c r="V12" s="27" t="n"/>
       <c r="W12" s="27" t="n"/>
-      <c r="X12" s="27" t="n"/>
+      <c r="X12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y12" s="27" t="n"/>
-      <c r="Z12" s="27" t="n"/>
+      <c r="Z12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA12" s="27" t="n"/>
-      <c r="AB12" s="27" t="n"/>
+      <c r="AB12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC12" s="27" t="n"/>
       <c r="AD12" s="27" t="n"/>
-      <c r="AE12" s="27" t="n"/>
-      <c r="AF12" s="27" t="n"/>
-      <c r="AG12" s="27" t="n"/>
+      <c r="AE12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH12" s="27" t="n"/>
       <c r="AI12" s="27" t="n"/>
       <c r="AJ12" s="27" t="n"/>
-      <c r="AK12" s="27" t="n"/>
-      <c r="AL12" s="27" t="n"/>
-      <c r="AM12" s="27" t="n"/>
-      <c r="AN12" s="27" t="n"/>
+      <c r="AK12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO12" s="27" t="n"/>
-      <c r="AP12" s="27" t="n"/>
-      <c r="AQ12" s="27" t="n"/>
+      <c r="AP12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR12" s="27" t="n"/>
-      <c r="AS12" s="27" t="n"/>
+      <c r="AS12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AT12" s="27" t="n"/>
       <c r="AU12" s="27" t="n"/>
-      <c r="AV12" s="27" t="n"/>
+      <c r="AV12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AW12" s="27" t="n"/>
       <c r="AX12" s="27" t="n"/>
       <c r="AY12" s="27" t="n"/>
@@ -12443,37 +11963,41 @@
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>HENRI</t>
+          <t>INSERT:</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
-      <c r="H13" s="27" t="n"/>
-      <c r="I13" s="27" t="n"/>
+      <c r="H13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J13" s="27" t="n"/>
       <c r="K13" s="27" t="n"/>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="n"/>
-      <c r="O13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
       <c r="Q13" s="27" t="n"/>
       <c r="R13" s="27" t="n"/>
       <c r="S13" s="27" t="n"/>
@@ -12487,13 +12011,25 @@
       <c r="AA13" s="27" t="n"/>
       <c r="AB13" s="27" t="n"/>
       <c r="AC13" s="27" t="n"/>
-      <c r="AD13" s="27" t="n"/>
+      <c r="AD13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE13" s="27" t="n"/>
       <c r="AF13" s="27" t="n"/>
       <c r="AG13" s="27" t="n"/>
-      <c r="AH13" s="27" t="n"/>
+      <c r="AH13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AI13" s="27" t="n"/>
-      <c r="AJ13" s="27" t="n"/>
+      <c r="AJ13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK13" s="27" t="n"/>
       <c r="AL13" s="27" t="n"/>
       <c r="AM13" s="27" t="n"/>
@@ -12507,66 +12043,46 @@
       <c r="AU13" s="27" t="n"/>
       <c r="AV13" s="27" t="n"/>
       <c r="AW13" s="27" t="n"/>
-      <c r="AX13" s="27" t="n"/>
+      <c r="AX13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AY13" s="27" t="n"/>
       <c r="AZ13" s="27" t="n"/>
-      <c r="BA13" s="27" t="n"/>
+      <c r="BA13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
       <c r="A14" s="41" t="n">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B14" s="24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>HANNA</t>
-        </is>
-      </c>
-      <c r="E14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>WANG:</t>
+        </is>
+      </c>
+      <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
-      <c r="I14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
       <c r="N14" s="27" t="n"/>
       <c r="O14" s="27" t="n"/>
       <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="27" t="n"/>
       <c r="R14" s="27" t="n"/>
       <c r="S14" s="27" t="n"/>
       <c r="T14" s="27" t="n"/>
@@ -12574,7 +12090,11 @@
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
       <c r="X14" s="27" t="n"/>
-      <c r="Y14" s="27" t="n"/>
+      <c r="Y14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
       <c r="AB14" s="27" t="n"/>
@@ -12589,13 +12109,29 @@
       <c r="AK14" s="27" t="n"/>
       <c r="AL14" s="27" t="n"/>
       <c r="AM14" s="27" t="n"/>
-      <c r="AN14" s="27" t="n"/>
-      <c r="AO14" s="27" t="n"/>
+      <c r="AN14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP14" s="27" t="n"/>
       <c r="AQ14" s="27" t="n"/>
-      <c r="AR14" s="27" t="n"/>
+      <c r="AR14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AS14" s="27" t="n"/>
-      <c r="AT14" s="27" t="n"/>
+      <c r="AT14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AU14" s="27" t="n"/>
       <c r="AV14" s="27" t="n"/>
       <c r="AW14" s="27" t="n"/>
@@ -12606,18 +12142,10 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A15" s="41" t="n"/>
+      <c r="B15" s="24" t="n"/>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="inlineStr">
-        <is>
-          <t>MARIE</t>
-        </is>
-      </c>
+      <c r="D15" s="26" t="n"/>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -12630,11 +12158,7 @@
       <c r="N15" s="27" t="n"/>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
-      <c r="Q15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q15" s="27" t="n"/>
       <c r="R15" s="27" t="n"/>
       <c r="S15" s="27" t="n"/>
       <c r="T15" s="27" t="n"/>
@@ -12674,18 +12198,10 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A16" s="41" t="n"/>
+      <c r="B16" s="24" t="n"/>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="inlineStr">
-        <is>
-          <t>HELENE</t>
-        </is>
-      </c>
+      <c r="D16" s="26" t="n"/>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
       <c r="G16" s="27" t="n"/>
@@ -12698,11 +12214,7 @@
       <c r="N16" s="27" t="n"/>
       <c r="O16" s="27" t="n"/>
       <c r="P16" s="27" t="n"/>
-      <c r="Q16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q16" s="27" t="n"/>
       <c r="R16" s="27" t="n"/>
       <c r="S16" s="27" t="n"/>
       <c r="T16" s="27" t="n"/>
@@ -14800,7 +14312,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="44" t="n"/>
+      <c r="D3" s="44" t="inlineStr"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -14859,7 +14371,11 @@
       <c r="AT3" s="56" t="n"/>
       <c r="AU3" s="56" t="n"/>
       <c r="AV3" s="57" t="n"/>
-      <c r="AW3" s="59" t="n"/>
+      <c r="AW3" s="59" t="inlineStr">
+        <is>
+          <t>03/07/2022</t>
+        </is>
+      </c>
       <c r="AX3" s="56" t="n"/>
       <c r="AY3" s="56" t="n"/>
       <c r="AZ3" s="56" t="n"/>
@@ -15095,10 +14611,18 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n"/>
-      <c r="B8" s="24" t="n"/>
+      <c r="A8" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C8" s="25" t="n"/>
-      <c r="D8" s="26" t="n"/>
+      <c r="D8" s="26" t="inlineStr">
+        <is>
+          <t>DONA TIM:</t>
+        </is>
+      </c>
       <c r="E8" s="27" t="n"/>
       <c r="F8" s="27" t="n"/>
       <c r="G8" s="27" t="n"/>
@@ -15129,7 +14653,11 @@
       <c r="AF8" s="27" t="n"/>
       <c r="AG8" s="27" t="n"/>
       <c r="AH8" s="27" t="n"/>
-      <c r="AI8" s="27" t="n"/>
+      <c r="AI8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ8" s="27" t="n"/>
       <c r="AK8" s="27" t="n"/>
       <c r="AL8" s="27" t="n"/>
@@ -15151,27 +14679,67 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n"/>
-      <c r="B9" s="24" t="n"/>
+      <c r="A9" s="41" t="n">
+        <v>49</v>
+      </c>
+      <c r="B9" s="24" t="n">
+        <v>19</v>
+      </c>
       <c r="C9" s="25" t="n"/>
-      <c r="D9" s="26" t="n"/>
+      <c r="D9" s="26" t="inlineStr">
+        <is>
+          <t>TIM:</t>
+        </is>
+      </c>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="n"/>
+      <c r="J9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K9" s="27" t="n"/>
-      <c r="L9" s="27" t="n"/>
+      <c r="L9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M9" s="27" t="n"/>
       <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="n"/>
-      <c r="P9" s="27" t="n"/>
-      <c r="Q9" s="27" t="n"/>
-      <c r="R9" s="27" t="n"/>
-      <c r="S9" s="27" t="n"/>
+      <c r="O9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T9" s="27" t="n"/>
-      <c r="U9" s="27" t="n"/>
+      <c r="U9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
       <c r="X9" s="27" t="n"/>
@@ -15179,25 +14747,69 @@
       <c r="Z9" s="27" t="n"/>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
-      <c r="AC9" s="27" t="n"/>
+      <c r="AC9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD9" s="27" t="n"/>
-      <c r="AE9" s="27" t="n"/>
-      <c r="AF9" s="27" t="n"/>
-      <c r="AG9" s="27" t="n"/>
-      <c r="AH9" s="27" t="n"/>
-      <c r="AI9" s="27" t="n"/>
-      <c r="AJ9" s="27" t="n"/>
+      <c r="AE9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AH9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK9" s="27" t="n"/>
       <c r="AL9" s="27" t="n"/>
       <c r="AM9" s="27" t="n"/>
-      <c r="AN9" s="27" t="n"/>
+      <c r="AN9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO9" s="27" t="n"/>
       <c r="AP9" s="27" t="n"/>
       <c r="AQ9" s="27" t="n"/>
       <c r="AR9" s="27" t="n"/>
-      <c r="AS9" s="27" t="n"/>
-      <c r="AT9" s="27" t="n"/>
-      <c r="AU9" s="27" t="n"/>
+      <c r="AS9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV9" s="27" t="n"/>
       <c r="AW9" s="27" t="n"/>
       <c r="AX9" s="27" t="n"/>
@@ -15207,11 +14819,23 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n"/>
-      <c r="B10" s="24" t="n"/>
+      <c r="A10" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C10" s="25" t="n"/>
-      <c r="D10" s="26" t="n"/>
-      <c r="E10" s="27" t="n"/>
+      <c r="D10" s="26" t="inlineStr">
+        <is>
+          <t>HOME 3:</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
@@ -15263,10 +14887,18 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n"/>
-      <c r="B11" s="24" t="n"/>
+      <c r="A11" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C11" s="25" t="n"/>
-      <c r="D11" s="26" t="n"/>
+      <c r="D11" s="26" t="inlineStr">
+        <is>
+          <t>WANG:</t>
+        </is>
+      </c>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
@@ -15303,7 +14935,11 @@
       <c r="AL11" s="27" t="n"/>
       <c r="AM11" s="27" t="n"/>
       <c r="AN11" s="27" t="n"/>
-      <c r="AO11" s="27" t="n"/>
+      <c r="AO11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP11" s="27" t="n"/>
       <c r="AQ11" s="27" t="n"/>
       <c r="AR11" s="27" t="n"/>
@@ -15316,13 +14952,25 @@
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
       <c r="BA11" s="27" t="n"/>
-      <c r="BB11" s="33" t="n"/>
+      <c r="BB11" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n"/>
-      <c r="B12" s="24" t="n"/>
+      <c r="A12" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" s="25" t="n"/>
-      <c r="D12" s="26" t="n"/>
+      <c r="D12" s="26" t="inlineStr">
+        <is>
+          <t>GUÍA 2:</t>
+        </is>
+      </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
@@ -15338,7 +14986,11 @@
       <c r="Q12" s="27" t="n"/>
       <c r="R12" s="27" t="n"/>
       <c r="S12" s="27" t="n"/>
-      <c r="T12" s="27" t="n"/>
+      <c r="T12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U12" s="27" t="n"/>
       <c r="V12" s="27" t="n"/>
       <c r="W12" s="27" t="n"/>
@@ -15375,28 +15027,60 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n"/>
-      <c r="B13" s="24" t="n"/>
+      <c r="A13" s="41" t="n">
+        <v>57</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>9</v>
+      </c>
       <c r="C13" s="25" t="n"/>
-      <c r="D13" s="26" t="n"/>
+      <c r="D13" s="26" t="inlineStr">
+        <is>
+          <t>ANNA:</t>
+        </is>
+      </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
-      <c r="H13" s="27" t="n"/>
-      <c r="I13" s="27" t="n"/>
+      <c r="H13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J13" s="27" t="n"/>
       <c r="K13" s="27" t="n"/>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
       <c r="N13" s="27" t="n"/>
-      <c r="O13" s="27" t="n"/>
-      <c r="P13" s="27" t="n"/>
+      <c r="O13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q13" s="27" t="n"/>
       <c r="R13" s="27" t="n"/>
       <c r="S13" s="27" t="n"/>
-      <c r="T13" s="27" t="n"/>
+      <c r="T13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U13" s="27" t="n"/>
-      <c r="V13" s="27" t="n"/>
+      <c r="V13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W13" s="27" t="n"/>
       <c r="X13" s="27" t="n"/>
       <c r="Y13" s="27" t="n"/>
@@ -15413,16 +15097,28 @@
       <c r="AJ13" s="27" t="n"/>
       <c r="AK13" s="27" t="n"/>
       <c r="AL13" s="27" t="n"/>
-      <c r="AM13" s="27" t="n"/>
+      <c r="AM13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN13" s="27" t="n"/>
       <c r="AO13" s="27" t="n"/>
-      <c r="AP13" s="27" t="n"/>
+      <c r="AP13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AQ13" s="27" t="n"/>
       <c r="AR13" s="27" t="n"/>
       <c r="AS13" s="27" t="n"/>
       <c r="AT13" s="27" t="n"/>
       <c r="AU13" s="27" t="n"/>
-      <c r="AV13" s="27" t="n"/>
+      <c r="AV13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AW13" s="27" t="n"/>
       <c r="AX13" s="27" t="n"/>
       <c r="AY13" s="27" t="n"/>
@@ -15431,34 +15127,94 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n"/>
-      <c r="B14" s="24" t="n"/>
+      <c r="A14" s="41" t="n">
+        <v>126</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>19</v>
+      </c>
       <c r="C14" s="25" t="n"/>
-      <c r="D14" s="26" t="n"/>
-      <c r="E14" s="27" t="n"/>
-      <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="n"/>
+      <c r="D14" s="26" t="inlineStr">
+        <is>
+          <t>BEN:</t>
+        </is>
+      </c>
+      <c r="E14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="n"/>
+      <c r="K14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L14" s="27" t="n"/>
-      <c r="M14" s="27" t="n"/>
+      <c r="M14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N14" s="27" t="n"/>
-      <c r="O14" s="27" t="n"/>
+      <c r="O14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P14" s="27" t="n"/>
       <c r="Q14" s="27" t="n"/>
-      <c r="R14" s="27" t="n"/>
-      <c r="S14" s="27" t="n"/>
+      <c r="R14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T14" s="27" t="n"/>
       <c r="U14" s="27" t="n"/>
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
-      <c r="X14" s="27" t="n"/>
-      <c r="Y14" s="27" t="n"/>
-      <c r="Z14" s="27" t="n"/>
-      <c r="AA14" s="27" t="n"/>
-      <c r="AB14" s="27" t="n"/>
+      <c r="X14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC14" s="27" t="n"/>
       <c r="AD14" s="27" t="n"/>
       <c r="AE14" s="27" t="n"/>
@@ -15467,30 +15223,62 @@
       <c r="AH14" s="27" t="n"/>
       <c r="AI14" s="27" t="n"/>
       <c r="AJ14" s="27" t="n"/>
-      <c r="AK14" s="27" t="n"/>
-      <c r="AL14" s="27" t="n"/>
-      <c r="AM14" s="27" t="n"/>
+      <c r="AK14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN14" s="27" t="n"/>
       <c r="AO14" s="27" t="n"/>
       <c r="AP14" s="27" t="n"/>
-      <c r="AQ14" s="27" t="n"/>
+      <c r="AQ14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR14" s="27" t="n"/>
       <c r="AS14" s="27" t="n"/>
       <c r="AT14" s="27" t="n"/>
       <c r="AU14" s="27" t="n"/>
       <c r="AV14" s="27" t="n"/>
       <c r="AW14" s="27" t="n"/>
-      <c r="AX14" s="27" t="n"/>
+      <c r="AX14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AY14" s="27" t="n"/>
       <c r="AZ14" s="27" t="n"/>
-      <c r="BA14" s="27" t="n"/>
+      <c r="BA14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>7</v>
+      </c>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="n"/>
+      <c r="D15" s="26" t="inlineStr">
+        <is>
+          <t>INSERT:</t>
+        </is>
+      </c>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -15500,7 +15288,11 @@
       <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
       <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
+      <c r="N15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
       <c r="Q15" s="27" t="n"/>
@@ -15509,14 +15301,22 @@
       <c r="T15" s="27" t="n"/>
       <c r="U15" s="27" t="n"/>
       <c r="V15" s="27" t="n"/>
-      <c r="W15" s="27" t="n"/>
+      <c r="W15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X15" s="27" t="n"/>
       <c r="Y15" s="27" t="n"/>
       <c r="Z15" s="27" t="n"/>
       <c r="AA15" s="27" t="n"/>
       <c r="AB15" s="27" t="n"/>
       <c r="AC15" s="27" t="n"/>
-      <c r="AD15" s="27" t="n"/>
+      <c r="AD15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE15" s="27" t="n"/>
       <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
@@ -15530,23 +15330,47 @@
       <c r="AO15" s="27" t="n"/>
       <c r="AP15" s="27" t="n"/>
       <c r="AQ15" s="27" t="n"/>
-      <c r="AR15" s="27" t="n"/>
+      <c r="AR15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AS15" s="27" t="n"/>
       <c r="AT15" s="27" t="n"/>
       <c r="AU15" s="27" t="n"/>
       <c r="AV15" s="27" t="n"/>
-      <c r="AW15" s="27" t="n"/>
+      <c r="AW15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AX15" s="27" t="n"/>
-      <c r="AY15" s="27" t="n"/>
-      <c r="AZ15" s="27" t="n"/>
+      <c r="AY15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AZ15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BA15" s="27" t="n"/>
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="A16" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="n"/>
+      <c r="D16" s="26" t="inlineStr">
+        <is>
+          <t>TRISTAN:</t>
+        </is>
+      </c>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
       <c r="G16" s="27" t="n"/>
@@ -15573,11 +15397,19 @@
       <c r="AB16" s="27" t="n"/>
       <c r="AC16" s="27" t="n"/>
       <c r="AD16" s="27" t="n"/>
-      <c r="AE16" s="27" t="n"/>
+      <c r="AE16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF16" s="27" t="n"/>
       <c r="AG16" s="27" t="n"/>
       <c r="AH16" s="27" t="n"/>
-      <c r="AI16" s="27" t="n"/>
+      <c r="AI16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ16" s="27" t="n"/>
       <c r="AK16" s="27" t="n"/>
       <c r="AL16" s="27" t="n"/>
@@ -17657,7 +17489,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="44" t="n"/>
+      <c r="D3" s="44" t="inlineStr"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -17716,7 +17548,11 @@
       <c r="AT3" s="56" t="n"/>
       <c r="AU3" s="56" t="n"/>
       <c r="AV3" s="57" t="n"/>
-      <c r="AW3" s="59" t="n"/>
+      <c r="AW3" s="59" t="inlineStr">
+        <is>
+          <t>03/07/2022</t>
+        </is>
+      </c>
       <c r="AX3" s="56" t="n"/>
       <c r="AY3" s="56" t="n"/>
       <c r="AZ3" s="56" t="n"/>
@@ -17952,12 +17788,24 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n"/>
-      <c r="B8" s="24" t="n"/>
+      <c r="A8" s="41" t="n">
+        <v>49</v>
+      </c>
+      <c r="B8" s="24" t="n">
+        <v>8</v>
+      </c>
       <c r="C8" s="25" t="n"/>
-      <c r="D8" s="26" t="n"/>
+      <c r="D8" s="26" t="inlineStr">
+        <is>
+          <t>TIM:</t>
+        </is>
+      </c>
       <c r="E8" s="27" t="n"/>
-      <c r="F8" s="27" t="n"/>
+      <c r="F8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G8" s="27" t="n"/>
       <c r="H8" s="27" t="n"/>
       <c r="I8" s="27" t="n"/>
@@ -17966,28 +17814,56 @@
       <c r="L8" s="27" t="n"/>
       <c r="M8" s="27" t="n"/>
       <c r="N8" s="27" t="n"/>
-      <c r="O8" s="27" t="n"/>
-      <c r="P8" s="27" t="n"/>
+      <c r="O8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q8" s="27" t="n"/>
       <c r="R8" s="27" t="n"/>
       <c r="S8" s="27" t="n"/>
       <c r="T8" s="27" t="n"/>
       <c r="U8" s="27" t="n"/>
-      <c r="V8" s="27" t="n"/>
+      <c r="V8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W8" s="27" t="n"/>
-      <c r="X8" s="27" t="n"/>
-      <c r="Y8" s="27" t="n"/>
+      <c r="X8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z8" s="27" t="n"/>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
       <c r="AC8" s="27" t="n"/>
-      <c r="AD8" s="27" t="n"/>
+      <c r="AD8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE8" s="27" t="n"/>
       <c r="AF8" s="27" t="n"/>
       <c r="AG8" s="27" t="n"/>
       <c r="AH8" s="27" t="n"/>
       <c r="AI8" s="27" t="n"/>
-      <c r="AJ8" s="27" t="n"/>
+      <c r="AJ8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK8" s="27" t="n"/>
       <c r="AL8" s="27" t="n"/>
       <c r="AM8" s="27" t="n"/>
@@ -18008,10 +17884,18 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n"/>
-      <c r="B9" s="24" t="n"/>
+      <c r="A9" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C9" s="25" t="n"/>
-      <c r="D9" s="26" t="n"/>
+      <c r="D9" s="26" t="inlineStr">
+        <is>
+          <t>GUÍA 2:</t>
+        </is>
+      </c>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
@@ -18039,7 +17923,11 @@
       <c r="AC9" s="27" t="n"/>
       <c r="AD9" s="27" t="n"/>
       <c r="AE9" s="27" t="n"/>
-      <c r="AF9" s="27" t="n"/>
+      <c r="AF9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG9" s="27" t="n"/>
       <c r="AH9" s="27" t="n"/>
       <c r="AI9" s="27" t="n"/>
@@ -18064,40 +17952,92 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n"/>
-      <c r="B10" s="24" t="n"/>
+      <c r="A10" s="41" t="n">
+        <v>57</v>
+      </c>
+      <c r="B10" s="24" t="n">
+        <v>11</v>
+      </c>
       <c r="C10" s="25" t="n"/>
-      <c r="D10" s="26" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
+      <c r="D10" s="26" t="inlineStr">
+        <is>
+          <t>ANNA:</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
       <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="27" t="n"/>
-      <c r="L10" s="27" t="n"/>
-      <c r="M10" s="27" t="n"/>
+      <c r="L10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
+      <c r="O10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P10" s="27" t="n"/>
       <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n"/>
+      <c r="R10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="S10" s="27" t="n"/>
-      <c r="T10" s="27" t="n"/>
+      <c r="T10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U10" s="27" t="n"/>
-      <c r="V10" s="27" t="n"/>
+      <c r="V10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W10" s="27" t="n"/>
       <c r="X10" s="27" t="n"/>
       <c r="Y10" s="27" t="n"/>
-      <c r="Z10" s="27" t="n"/>
+      <c r="Z10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA10" s="27" t="n"/>
       <c r="AB10" s="27" t="n"/>
       <c r="AC10" s="27" t="n"/>
       <c r="AD10" s="27" t="n"/>
       <c r="AE10" s="27" t="n"/>
-      <c r="AF10" s="27" t="n"/>
+      <c r="AF10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG10" s="27" t="n"/>
-      <c r="AH10" s="27" t="n"/>
+      <c r="AH10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AI10" s="27" t="n"/>
       <c r="AJ10" s="27" t="n"/>
       <c r="AK10" s="27" t="n"/>
@@ -18120,10 +18060,18 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n"/>
-      <c r="B11" s="24" t="n"/>
+      <c r="A11" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" s="25" t="n"/>
-      <c r="D11" s="26" t="n"/>
+      <c r="D11" s="26" t="inlineStr">
+        <is>
+          <t>GUÍA 3:</t>
+        </is>
+      </c>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
@@ -18131,7 +18079,11 @@
       <c r="I11" s="27" t="n"/>
       <c r="J11" s="27" t="n"/>
       <c r="K11" s="27" t="n"/>
-      <c r="L11" s="27" t="n"/>
+      <c r="L11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M11" s="27" t="n"/>
       <c r="N11" s="27" t="n"/>
       <c r="O11" s="27" t="n"/>
@@ -18176,45 +18128,113 @@
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n"/>
-      <c r="B12" s="24" t="n"/>
+      <c r="A12" s="41" t="n">
+        <v>126</v>
+      </c>
+      <c r="B12" s="24" t="n">
+        <v>15</v>
+      </c>
       <c r="C12" s="25" t="n"/>
-      <c r="D12" s="26" t="n"/>
+      <c r="D12" s="26" t="inlineStr">
+        <is>
+          <t>BEN:</t>
+        </is>
+      </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
-      <c r="H12" s="27" t="n"/>
-      <c r="I12" s="27" t="n"/>
+      <c r="H12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J12" s="27" t="n"/>
       <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="n"/>
+      <c r="L12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M12" s="27" t="n"/>
       <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="n"/>
+      <c r="O12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="n"/>
+      <c r="Q12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="n"/>
+      <c r="S12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T12" s="27" t="n"/>
-      <c r="U12" s="27" t="n"/>
+      <c r="U12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V12" s="27" t="n"/>
-      <c r="W12" s="27" t="n"/>
-      <c r="X12" s="27" t="n"/>
+      <c r="W12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y12" s="27" t="n"/>
       <c r="Z12" s="27" t="n"/>
-      <c r="AA12" s="27" t="n"/>
+      <c r="AA12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB12" s="27" t="n"/>
-      <c r="AC12" s="27" t="n"/>
+      <c r="AC12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD12" s="27" t="n"/>
       <c r="AE12" s="27" t="n"/>
       <c r="AF12" s="27" t="n"/>
-      <c r="AG12" s="27" t="n"/>
+      <c r="AG12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH12" s="27" t="n"/>
       <c r="AI12" s="27" t="n"/>
       <c r="AJ12" s="27" t="n"/>
-      <c r="AK12" s="27" t="n"/>
-      <c r="AL12" s="27" t="n"/>
-      <c r="AM12" s="27" t="n"/>
+      <c r="AK12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN12" s="27" t="n"/>
       <c r="AO12" s="27" t="n"/>
       <c r="AP12" s="27" t="n"/>
@@ -18232,10 +18252,18 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n"/>
-      <c r="B13" s="24" t="n"/>
+      <c r="A13" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C13" s="25" t="n"/>
-      <c r="D13" s="26" t="n"/>
+      <c r="D13" s="26" t="inlineStr">
+        <is>
+          <t>AMBIENTE:</t>
+        </is>
+      </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
@@ -18271,7 +18299,11 @@
       <c r="AK13" s="27" t="n"/>
       <c r="AL13" s="27" t="n"/>
       <c r="AM13" s="27" t="n"/>
-      <c r="AN13" s="27" t="n"/>
+      <c r="AN13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO13" s="27" t="n"/>
       <c r="AP13" s="27" t="n"/>
       <c r="AQ13" s="27" t="n"/>
@@ -18288,17 +18320,33 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n"/>
-      <c r="B14" s="24" t="n"/>
+      <c r="A14" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="C14" s="25" t="n"/>
-      <c r="D14" s="26" t="n"/>
+      <c r="D14" s="26" t="inlineStr">
+        <is>
+          <t>INSERT:</t>
+        </is>
+      </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="n"/>
+      <c r="G14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="n"/>
+      <c r="K14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L14" s="27" t="n"/>
       <c r="M14" s="27" t="n"/>
       <c r="N14" s="27" t="n"/>
@@ -18315,10 +18363,18 @@
       <c r="Y14" s="27" t="n"/>
       <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
-      <c r="AB14" s="27" t="n"/>
+      <c r="AB14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC14" s="27" t="n"/>
       <c r="AD14" s="27" t="n"/>
-      <c r="AE14" s="27" t="n"/>
+      <c r="AE14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF14" s="27" t="n"/>
       <c r="AG14" s="27" t="n"/>
       <c r="AH14" s="27" t="n"/>
@@ -18344,20 +18400,40 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="n"/>
+      <c r="D15" s="26" t="inlineStr">
+        <is>
+          <t>WANG:</t>
+        </is>
+      </c>
       <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="n"/>
+      <c r="F15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
       <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="n"/>
+      <c r="J15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
       <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
+      <c r="N15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
       <c r="Q15" s="27" t="n"/>
@@ -18378,7 +18454,11 @@
       <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
       <c r="AH15" s="27" t="n"/>
-      <c r="AI15" s="27" t="n"/>
+      <c r="AI15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ15" s="27" t="n"/>
       <c r="AK15" s="27" t="n"/>
       <c r="AL15" s="27" t="n"/>

--- a/grafic_output.xlsx
+++ b/grafic_output.xlsx
@@ -1976,15 +1976,15 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>TIM:</t>
+          <t>HOMBRE 3</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
@@ -1993,7 +1993,11 @@
       <c r="H8" s="27" t="n"/>
       <c r="I8" s="27" t="n"/>
       <c r="J8" s="27" t="n"/>
-      <c r="K8" s="27" t="n"/>
+      <c r="K8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L8" s="27" t="n"/>
       <c r="M8" s="27" t="n"/>
       <c r="N8" s="27" t="n"/>
@@ -2005,25 +2009,13 @@
       <c r="T8" s="27" t="n"/>
       <c r="U8" s="27" t="n"/>
       <c r="V8" s="27" t="n"/>
-      <c r="W8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W8" s="27" t="n"/>
+      <c r="X8" s="27" t="n"/>
       <c r="Y8" s="27" t="n"/>
       <c r="Z8" s="27" t="n"/>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
-      <c r="AC8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC8" s="27" t="n"/>
       <c r="AD8" s="27" t="n"/>
       <c r="AE8" s="27" t="n"/>
       <c r="AF8" s="27" t="n"/>
@@ -2052,22 +2044,34 @@
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>HOME 3:</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="n"/>
+          <t>ANTON</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
+      <c r="G9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="n"/>
+      <c r="I9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J9" s="27" t="n"/>
       <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
@@ -2077,9 +2081,21 @@
       <c r="P9" s="27" t="n"/>
       <c r="Q9" s="27" t="n"/>
       <c r="R9" s="27" t="n"/>
-      <c r="S9" s="27" t="n"/>
-      <c r="T9" s="27" t="n"/>
-      <c r="U9" s="27" t="n"/>
+      <c r="S9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
       <c r="X9" s="27" t="n"/>
@@ -2108,16 +2124,8 @@
       <c r="AU9" s="27" t="n"/>
       <c r="AV9" s="27" t="n"/>
       <c r="AW9" s="27" t="n"/>
-      <c r="AX9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX9" s="27" t="n"/>
+      <c r="AY9" s="27" t="n"/>
       <c r="AZ9" s="27" t="n"/>
       <c r="BA9" s="27" t="n"/>
       <c r="BB9" s="33" t="n"/>
@@ -2132,23 +2140,23 @@
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>HOME 1:</t>
+          <t>TÍTULO</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="n"/>
+      <c r="H10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="27" t="n"/>
       <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
-      <c r="N10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N10" s="27" t="n"/>
       <c r="O10" s="27" t="n"/>
       <c r="P10" s="27" t="n"/>
       <c r="Q10" s="27" t="n"/>
@@ -2192,15 +2200,15 @@
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>CHRIS:</t>
+          <t>LOTTE</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -2220,8 +2228,16 @@
       <c r="S11" s="27" t="n"/>
       <c r="T11" s="27" t="n"/>
       <c r="U11" s="27" t="n"/>
-      <c r="V11" s="27" t="n"/>
-      <c r="W11" s="27" t="n"/>
+      <c r="V11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X11" s="27" t="n"/>
       <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
@@ -2239,11 +2255,7 @@
       <c r="AL11" s="27" t="n"/>
       <c r="AM11" s="27" t="n"/>
       <c r="AN11" s="27" t="n"/>
-      <c r="AO11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AO11" s="27" t="n"/>
       <c r="AP11" s="27" t="n"/>
       <c r="AQ11" s="27" t="n"/>
       <c r="AR11" s="27" t="n"/>
@@ -2252,7 +2264,11 @@
       <c r="AU11" s="27" t="n"/>
       <c r="AV11" s="27" t="n"/>
       <c r="AW11" s="27" t="n"/>
-      <c r="AX11" s="27" t="n"/>
+      <c r="AX11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
       <c r="BA11" s="27" t="n"/>
@@ -2260,15 +2276,15 @@
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>ANNA:</t>
+          <t>HOMBRE 2</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -2277,7 +2293,11 @@
       <c r="H12" s="27" t="n"/>
       <c r="I12" s="27" t="n"/>
       <c r="J12" s="27" t="n"/>
-      <c r="K12" s="27" t="n"/>
+      <c r="K12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L12" s="27" t="n"/>
       <c r="M12" s="27" t="n"/>
       <c r="N12" s="27" t="n"/>
@@ -2293,17 +2313,9 @@
       <c r="X12" s="27" t="n"/>
       <c r="Y12" s="27" t="n"/>
       <c r="Z12" s="27" t="n"/>
-      <c r="AA12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA12" s="27" t="n"/>
       <c r="AB12" s="27" t="n"/>
-      <c r="AC12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC12" s="27" t="n"/>
       <c r="AD12" s="27" t="n"/>
       <c r="AE12" s="27" t="n"/>
       <c r="AF12" s="27" t="n"/>
@@ -2328,47 +2340,31 @@
       <c r="AY12" s="27" t="n"/>
       <c r="AZ12" s="27" t="n"/>
       <c r="BA12" s="27" t="n"/>
-      <c r="BB12" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>PRESENTADORA:</t>
+          <t>PROFESORA</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
-      <c r="G13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
-      <c r="I13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I13" s="27" t="n"/>
       <c r="J13" s="27" t="n"/>
       <c r="K13" s="27" t="n"/>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N13" s="27" t="n"/>
       <c r="O13" s="27" t="n"/>
       <c r="P13" s="27" t="n"/>
       <c r="Q13" s="27" t="n"/>
@@ -2379,7 +2375,11 @@
       <c r="V13" s="27" t="n"/>
       <c r="W13" s="27" t="n"/>
       <c r="X13" s="27" t="n"/>
-      <c r="Y13" s="27" t="n"/>
+      <c r="Y13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z13" s="27" t="n"/>
       <c r="AA13" s="27" t="n"/>
       <c r="AB13" s="27" t="n"/>
@@ -2420,7 +2420,7 @@
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>GUÍA 1:</t>
+          <t>AMBIENTE HOMBRES</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
@@ -2443,7 +2443,11 @@
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
       <c r="X14" s="27" t="n"/>
-      <c r="Y14" s="27" t="n"/>
+      <c r="Y14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
       <c r="AB14" s="27" t="n"/>
@@ -2454,11 +2458,7 @@
       <c r="AG14" s="27" t="n"/>
       <c r="AH14" s="27" t="n"/>
       <c r="AI14" s="27" t="n"/>
-      <c r="AJ14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AJ14" s="27" t="n"/>
       <c r="AK14" s="27" t="n"/>
       <c r="AL14" s="27" t="n"/>
       <c r="AM14" s="27" t="n"/>
@@ -2480,15 +2480,15 @@
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
       <c r="A15" s="41" t="n">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="B15" s="24" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
-          <t>BEN:</t>
+          <t>AMB</t>
         </is>
       </c>
       <c r="E15" s="27" t="n"/>
@@ -2496,22 +2496,14 @@
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
       <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K15" s="27" t="n"/>
-      <c r="L15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J15" s="27" t="n"/>
+      <c r="K15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
       <c r="N15" s="27" t="inlineStr">
         <is>
           <t>X</t>
@@ -2519,144 +2511,76 @@
       </c>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
-      <c r="Q15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q15" s="27" t="n"/>
       <c r="R15" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="S15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S15" s="27" t="n"/>
+      <c r="T15" s="27" t="n"/>
       <c r="U15" s="27" t="n"/>
-      <c r="V15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V15" s="27" t="n"/>
       <c r="W15" s="27" t="n"/>
       <c r="X15" s="27" t="n"/>
-      <c r="Y15" s="27" t="n"/>
-      <c r="Z15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z15" s="27" t="n"/>
       <c r="AA15" s="27" t="n"/>
-      <c r="AB15" s="27" t="n"/>
+      <c r="AB15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC15" s="27" t="n"/>
-      <c r="AD15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD15" s="27" t="n"/>
       <c r="AE15" s="27" t="n"/>
       <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
-      <c r="AH15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH15" s="27" t="n"/>
+      <c r="AI15" s="27" t="n"/>
+      <c r="AJ15" s="27" t="n"/>
+      <c r="AK15" s="27" t="n"/>
+      <c r="AL15" s="27" t="n"/>
       <c r="AM15" s="27" t="n"/>
-      <c r="AN15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AN15" s="27" t="n"/>
       <c r="AO15" s="27" t="n"/>
-      <c r="AP15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP15" s="27" t="n"/>
       <c r="AQ15" s="27" t="n"/>
-      <c r="AR15" s="27" t="n"/>
-      <c r="AS15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AV15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS15" s="27" t="n"/>
+      <c r="AT15" s="27" t="n"/>
+      <c r="AU15" s="27" t="n"/>
+      <c r="AV15" s="27" t="n"/>
       <c r="AW15" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AX15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AZ15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX15" s="27" t="n"/>
+      <c r="AY15" s="27" t="n"/>
+      <c r="AZ15" s="27" t="n"/>
       <c r="BA15" s="27" t="n"/>
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
       <c r="A16" s="41" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B16" s="24" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>HOME 2:</t>
+          <t>OTTO</t>
         </is>
       </c>
       <c r="E16" s="27" t="n"/>
@@ -2668,22 +2592,50 @@
       <c r="K16" s="27" t="n"/>
       <c r="L16" s="27" t="n"/>
       <c r="M16" s="27" t="n"/>
-      <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="n"/>
-      <c r="P16" s="27" t="n"/>
+      <c r="N16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q16" s="27" t="n"/>
       <c r="R16" s="27" t="n"/>
       <c r="S16" s="27" t="n"/>
       <c r="T16" s="27" t="n"/>
-      <c r="U16" s="27" t="n"/>
-      <c r="V16" s="27" t="n"/>
-      <c r="W16" s="27" t="n"/>
+      <c r="U16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X16" s="27" t="n"/>
       <c r="Y16" s="27" t="n"/>
       <c r="Z16" s="27" t="n"/>
       <c r="AA16" s="27" t="n"/>
       <c r="AB16" s="27" t="n"/>
-      <c r="AC16" s="27" t="n"/>
+      <c r="AC16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD16" s="27" t="n"/>
       <c r="AE16" s="27" t="n"/>
       <c r="AF16" s="27" t="n"/>
@@ -2699,32 +2651,64 @@
       <c r="AL16" s="27" t="n"/>
       <c r="AM16" s="27" t="n"/>
       <c r="AN16" s="27" t="n"/>
-      <c r="AO16" s="27" t="n"/>
+      <c r="AO16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP16" s="27" t="n"/>
-      <c r="AQ16" s="27" t="n"/>
-      <c r="AR16" s="27" t="n"/>
-      <c r="AS16" s="27" t="n"/>
-      <c r="AT16" s="27" t="n"/>
-      <c r="AU16" s="27" t="n"/>
+      <c r="AQ16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV16" s="27" t="n"/>
       <c r="AW16" s="27" t="n"/>
       <c r="AX16" s="27" t="n"/>
       <c r="AY16" s="27" t="n"/>
-      <c r="AZ16" s="27" t="n"/>
-      <c r="BA16" s="27" t="n"/>
+      <c r="AZ16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BA16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
       <c r="A17" s="41" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B17" s="24" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="26" t="inlineStr">
         <is>
-          <t>INSERT:</t>
+          <t>AMBIENTE NIÑAS</t>
         </is>
       </c>
       <c r="E17" s="27" t="inlineStr">
@@ -2732,96 +2716,44 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F17" s="27" t="n"/>
       <c r="G17" s="27" t="n"/>
-      <c r="H17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H17" s="27" t="n"/>
       <c r="I17" s="27" t="n"/>
       <c r="J17" s="27" t="n"/>
-      <c r="K17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K17" s="27" t="n"/>
       <c r="L17" s="27" t="n"/>
       <c r="M17" s="27" t="n"/>
       <c r="N17" s="27" t="n"/>
-      <c r="O17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O17" s="27" t="n"/>
+      <c r="P17" s="27" t="n"/>
       <c r="Q17" s="27" t="n"/>
       <c r="R17" s="27" t="n"/>
       <c r="S17" s="27" t="n"/>
       <c r="T17" s="27" t="n"/>
-      <c r="U17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U17" s="27" t="n"/>
       <c r="V17" s="27" t="n"/>
       <c r="W17" s="27" t="n"/>
       <c r="X17" s="27" t="n"/>
-      <c r="Y17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y17" s="27" t="n"/>
       <c r="Z17" s="27" t="n"/>
       <c r="AA17" s="27" t="n"/>
-      <c r="AB17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB17" s="27" t="n"/>
       <c r="AC17" s="27" t="n"/>
       <c r="AD17" s="27" t="n"/>
-      <c r="AE17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE17" s="27" t="n"/>
+      <c r="AF17" s="27" t="n"/>
+      <c r="AG17" s="27" t="n"/>
       <c r="AH17" s="27" t="n"/>
       <c r="AI17" s="27" t="n"/>
       <c r="AJ17" s="27" t="n"/>
       <c r="AK17" s="27" t="n"/>
       <c r="AL17" s="27" t="n"/>
-      <c r="AM17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AM17" s="27" t="n"/>
       <c r="AN17" s="27" t="n"/>
       <c r="AO17" s="27" t="n"/>
       <c r="AP17" s="27" t="n"/>
-      <c r="AQ17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AQ17" s="27" t="n"/>
       <c r="AR17" s="27" t="n"/>
       <c r="AS17" s="27" t="n"/>
       <c r="AT17" s="27" t="n"/>
@@ -2831,16 +2763,12 @@
       <c r="AX17" s="27" t="n"/>
       <c r="AY17" s="27" t="n"/>
       <c r="AZ17" s="27" t="n"/>
-      <c r="BA17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BA17" s="27" t="n"/>
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
       <c r="A18" s="41" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B18" s="24" t="n">
         <v>1</v>
@@ -2848,7 +2776,7 @@
       <c r="C18" s="25" t="n"/>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>WANG:</t>
+          <t>HOMBRE</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
@@ -2857,7 +2785,11 @@
       <c r="H18" s="27" t="n"/>
       <c r="I18" s="27" t="n"/>
       <c r="J18" s="27" t="n"/>
-      <c r="K18" s="27" t="n"/>
+      <c r="K18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L18" s="27" t="n"/>
       <c r="M18" s="27" t="n"/>
       <c r="N18" s="27" t="n"/>
@@ -2890,11 +2822,7 @@
       <c r="AO18" s="27" t="n"/>
       <c r="AP18" s="27" t="n"/>
       <c r="AQ18" s="27" t="n"/>
-      <c r="AR18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR18" s="27" t="n"/>
       <c r="AS18" s="27" t="n"/>
       <c r="AT18" s="27" t="n"/>
       <c r="AU18" s="27" t="n"/>
@@ -2907,10 +2835,18 @@
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n"/>
-      <c r="B19" s="24" t="n"/>
+      <c r="A19" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C19" s="25" t="n"/>
-      <c r="D19" s="26" t="n"/>
+      <c r="D19" s="26" t="inlineStr">
+        <is>
+          <t>HELENE</t>
+        </is>
+      </c>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
@@ -2923,7 +2859,11 @@
       <c r="N19" s="27" t="n"/>
       <c r="O19" s="27" t="n"/>
       <c r="P19" s="27" t="n"/>
-      <c r="Q19" s="27" t="n"/>
+      <c r="Q19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R19" s="27" t="n"/>
       <c r="S19" s="27" t="n"/>
       <c r="T19" s="27" t="n"/>
@@ -2944,7 +2884,11 @@
       <c r="AI19" s="27" t="n"/>
       <c r="AJ19" s="27" t="n"/>
       <c r="AK19" s="27" t="n"/>
-      <c r="AL19" s="27" t="n"/>
+      <c r="AL19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM19" s="27" t="n"/>
       <c r="AN19" s="27" t="n"/>
       <c r="AO19" s="27" t="n"/>
@@ -2963,11 +2907,23 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n"/>
-      <c r="B20" s="24" t="n"/>
+      <c r="A20" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="n"/>
-      <c r="E20" s="27" t="n"/>
+      <c r="D20" s="26" t="inlineStr">
+        <is>
+          <t>NIÑERA</t>
+        </is>
+      </c>
+      <c r="E20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
@@ -3019,17 +2975,29 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n"/>
-      <c r="B21" s="24" t="n"/>
+      <c r="A21" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="n"/>
+      <c r="D21" s="26" t="inlineStr">
+        <is>
+          <t>MUJER</t>
+        </is>
+      </c>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
       <c r="I21" s="27" t="n"/>
       <c r="J21" s="27" t="n"/>
-      <c r="K21" s="27" t="n"/>
+      <c r="K21" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L21" s="27" t="n"/>
       <c r="M21" s="27" t="n"/>
       <c r="N21" s="27" t="n"/>
@@ -3075,10 +3043,18 @@
       <c r="BB21" s="33" t="n"/>
     </row>
     <row r="22" ht="13.75" customHeight="1" s="19">
-      <c r="A22" s="41" t="n"/>
-      <c r="B22" s="24" t="n"/>
+      <c r="A22" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="C22" s="25" t="n"/>
-      <c r="D22" s="26" t="n"/>
+      <c r="D22" s="26" t="inlineStr">
+        <is>
+          <t>MARIE</t>
+        </is>
+      </c>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -3091,7 +3067,11 @@
       <c r="N22" s="27" t="n"/>
       <c r="O22" s="27" t="n"/>
       <c r="P22" s="27" t="n"/>
-      <c r="Q22" s="27" t="n"/>
+      <c r="Q22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R22" s="27" t="n"/>
       <c r="S22" s="27" t="n"/>
       <c r="T22" s="27" t="n"/>
@@ -3111,8 +3091,16 @@
       <c r="AH22" s="27" t="n"/>
       <c r="AI22" s="27" t="n"/>
       <c r="AJ22" s="27" t="n"/>
-      <c r="AK22" s="27" t="n"/>
-      <c r="AL22" s="27" t="n"/>
+      <c r="AK22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM22" s="27" t="n"/>
       <c r="AN22" s="27" t="n"/>
       <c r="AO22" s="27" t="n"/>
@@ -3131,10 +3119,18 @@
       <c r="BB22" s="33" t="n"/>
     </row>
     <row r="23" ht="13.75" customHeight="1" s="19">
-      <c r="A23" s="41" t="n"/>
-      <c r="B23" s="24" t="n"/>
+      <c r="A23" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="25" t="n"/>
-      <c r="D23" s="26" t="n"/>
+      <c r="D23" s="26" t="inlineStr">
+        <is>
+          <t>HOMBRE 1</t>
+        </is>
+      </c>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
@@ -3155,7 +3151,11 @@
       <c r="V23" s="27" t="n"/>
       <c r="W23" s="27" t="n"/>
       <c r="X23" s="27" t="n"/>
-      <c r="Y23" s="27" t="n"/>
+      <c r="Y23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z23" s="27" t="n"/>
       <c r="AA23" s="27" t="n"/>
       <c r="AB23" s="27" t="n"/>
@@ -3187,10 +3187,18 @@
       <c r="BB23" s="33" t="n"/>
     </row>
     <row r="24" ht="13.75" customHeight="1" s="19">
-      <c r="A24" s="41" t="n"/>
-      <c r="B24" s="24" t="n"/>
+      <c r="A24" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" s="25" t="n"/>
-      <c r="D24" s="26" t="n"/>
+      <c r="D24" s="26" t="inlineStr">
+        <is>
+          <t>LUCIO</t>
+        </is>
+      </c>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -3198,7 +3206,11 @@
       <c r="I24" s="27" t="n"/>
       <c r="J24" s="27" t="n"/>
       <c r="K24" s="27" t="n"/>
-      <c r="L24" s="27" t="n"/>
+      <c r="L24" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M24" s="27" t="n"/>
       <c r="N24" s="27" t="n"/>
       <c r="O24" s="27" t="n"/>
@@ -3243,12 +3255,24 @@
       <c r="BB24" s="33" t="n"/>
     </row>
     <row r="25" ht="13.75" customHeight="1" s="19">
-      <c r="A25" s="41" t="n"/>
-      <c r="B25" s="24" t="n"/>
+      <c r="A25" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C25" s="25" t="n"/>
-      <c r="D25" s="26" t="n"/>
+      <c r="D25" s="26" t="inlineStr">
+        <is>
+          <t>INSERTO</t>
+        </is>
+      </c>
       <c r="E25" s="27" t="n"/>
-      <c r="F25" s="27" t="n"/>
+      <c r="F25" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G25" s="27" t="n"/>
       <c r="H25" s="27" t="n"/>
       <c r="I25" s="27" t="n"/>
@@ -3299,10 +3323,18 @@
       <c r="BB25" s="33" t="n"/>
     </row>
     <row r="26" ht="13.75" customHeight="1" s="19">
-      <c r="A26" s="41" t="n"/>
-      <c r="B26" s="24" t="n"/>
+      <c r="A26" s="41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="24" t="n">
+        <v>8</v>
+      </c>
       <c r="C26" s="30" t="n"/>
-      <c r="D26" s="26" t="n"/>
+      <c r="D26" s="26" t="inlineStr">
+        <is>
+          <t>IDA</t>
+        </is>
+      </c>
       <c r="E26" s="27" t="n"/>
       <c r="F26" s="27" t="n"/>
       <c r="G26" s="27" t="n"/>
@@ -3327,11 +3359,31 @@
       <c r="Z26" s="27" t="n"/>
       <c r="AA26" s="27" t="n"/>
       <c r="AB26" s="27" t="n"/>
-      <c r="AC26" s="27" t="n"/>
-      <c r="AD26" s="27" t="n"/>
-      <c r="AE26" s="27" t="n"/>
-      <c r="AF26" s="27" t="n"/>
-      <c r="AG26" s="27" t="n"/>
+      <c r="AC26" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD26" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE26" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF26" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG26" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH26" s="27" t="n"/>
       <c r="AI26" s="27" t="n"/>
       <c r="AJ26" s="27" t="n"/>
@@ -3350,71 +3402,239 @@
       <c r="AW26" s="27" t="n"/>
       <c r="AX26" s="27" t="n"/>
       <c r="AY26" s="27" t="n"/>
-      <c r="AZ26" s="27" t="n"/>
-      <c r="BA26" s="27" t="n"/>
-      <c r="BB26" s="33" t="n"/>
+      <c r="AZ26" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BA26" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BB26" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="13.75" customHeight="1" s="19">
-      <c r="A27" s="41" t="n"/>
-      <c r="B27" s="24" t="n"/>
+      <c r="A27" s="41" t="n">
+        <v>106</v>
+      </c>
+      <c r="B27" s="24" t="n">
+        <v>35</v>
+      </c>
       <c r="C27" s="25" t="n"/>
-      <c r="D27" s="26" t="n"/>
-      <c r="E27" s="27" t="n"/>
+      <c r="D27" s="26" t="inlineStr">
+        <is>
+          <t>HANNA</t>
+        </is>
+      </c>
+      <c r="E27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
+      <c r="G27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H27" s="27" t="n"/>
-      <c r="I27" s="27" t="n"/>
+      <c r="I27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J27" s="27" t="n"/>
       <c r="K27" s="27" t="n"/>
-      <c r="L27" s="27" t="n"/>
-      <c r="M27" s="27" t="n"/>
-      <c r="N27" s="27" t="n"/>
-      <c r="O27" s="27" t="n"/>
-      <c r="P27" s="27" t="n"/>
-      <c r="Q27" s="27" t="n"/>
+      <c r="L27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R27" s="27" t="n"/>
-      <c r="S27" s="27" t="n"/>
-      <c r="T27" s="27" t="n"/>
-      <c r="U27" s="27" t="n"/>
+      <c r="S27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V27" s="27" t="n"/>
       <c r="W27" s="27" t="n"/>
       <c r="X27" s="27" t="n"/>
-      <c r="Y27" s="27" t="n"/>
-      <c r="Z27" s="27" t="n"/>
+      <c r="Y27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA27" s="27" t="n"/>
       <c r="AB27" s="27" t="n"/>
-      <c r="AC27" s="27" t="n"/>
-      <c r="AD27" s="27" t="n"/>
+      <c r="AC27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE27" s="27" t="n"/>
       <c r="AF27" s="27" t="n"/>
-      <c r="AG27" s="27" t="n"/>
+      <c r="AG27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH27" s="27" t="n"/>
-      <c r="AI27" s="27" t="n"/>
-      <c r="AJ27" s="27" t="n"/>
-      <c r="AK27" s="27" t="n"/>
-      <c r="AL27" s="27" t="n"/>
+      <c r="AI27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM27" s="27" t="n"/>
-      <c r="AN27" s="27" t="n"/>
-      <c r="AO27" s="27" t="n"/>
+      <c r="AN27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP27" s="27" t="n"/>
-      <c r="AQ27" s="27" t="n"/>
-      <c r="AR27" s="27" t="n"/>
-      <c r="AS27" s="27" t="n"/>
-      <c r="AT27" s="27" t="n"/>
-      <c r="AU27" s="27" t="n"/>
-      <c r="AV27" s="27" t="n"/>
-      <c r="AW27" s="27" t="n"/>
-      <c r="AX27" s="27" t="n"/>
-      <c r="AY27" s="27" t="n"/>
-      <c r="AZ27" s="27" t="n"/>
-      <c r="BA27" s="27" t="n"/>
-      <c r="BB27" s="33" t="n"/>
+      <c r="AQ27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AV27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AW27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AX27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AZ27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BA27" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BB27" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="13.75" customHeight="1" s="19">
-      <c r="A28" s="41" t="n"/>
-      <c r="B28" s="24" t="n"/>
+      <c r="A28" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C28" s="25" t="n"/>
-      <c r="D28" s="26" t="n"/>
+      <c r="D28" s="26" t="inlineStr">
+        <is>
+          <t>PROFESOR</t>
+        </is>
+      </c>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
@@ -3427,7 +3647,11 @@
       <c r="N28" s="27" t="n"/>
       <c r="O28" s="27" t="n"/>
       <c r="P28" s="27" t="n"/>
-      <c r="Q28" s="27" t="n"/>
+      <c r="Q28" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R28" s="27" t="n"/>
       <c r="S28" s="27" t="n"/>
       <c r="T28" s="27" t="n"/>
@@ -3467,10 +3691,18 @@
       <c r="BB28" s="33" t="n"/>
     </row>
     <row r="29" ht="13.75" customHeight="1" s="19">
-      <c r="A29" s="41" t="n"/>
-      <c r="B29" s="24" t="n"/>
+      <c r="A29" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C29" s="25" t="n"/>
-      <c r="D29" s="26" t="n"/>
+      <c r="D29" s="26" t="inlineStr">
+        <is>
+          <t>LISA</t>
+        </is>
+      </c>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -3497,7 +3729,11 @@
       <c r="AB29" s="27" t="n"/>
       <c r="AC29" s="27" t="n"/>
       <c r="AD29" s="27" t="n"/>
-      <c r="AE29" s="27" t="n"/>
+      <c r="AE29" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF29" s="27" t="n"/>
       <c r="AG29" s="27" t="n"/>
       <c r="AH29" s="27" t="n"/>
@@ -5153,15 +5389,15 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>TIM:</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
@@ -5183,12 +5419,28 @@
           <t>X</t>
         </is>
       </c>
-      <c r="T8" s="27" t="n"/>
+      <c r="T8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U8" s="27" t="n"/>
-      <c r="V8" s="27" t="n"/>
-      <c r="W8" s="27" t="n"/>
+      <c r="V8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X8" s="27" t="n"/>
-      <c r="Y8" s="27" t="n"/>
+      <c r="Y8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z8" s="27" t="inlineStr">
         <is>
           <t>X</t>
@@ -5196,27 +5448,27 @@
       </c>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
-      <c r="AC8" s="27" t="n"/>
+      <c r="AC8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD8" s="27" t="n"/>
       <c r="AE8" s="27" t="n"/>
       <c r="AF8" s="27" t="n"/>
-      <c r="AG8" s="27" t="n"/>
+      <c r="AG8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH8" s="27" t="n"/>
       <c r="AI8" s="27" t="n"/>
       <c r="AJ8" s="27" t="n"/>
       <c r="AK8" s="27" t="n"/>
       <c r="AL8" s="27" t="n"/>
-      <c r="AM8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AM8" s="27" t="n"/>
       <c r="AN8" s="27" t="n"/>
-      <c r="AO8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AO8" s="27" t="n"/>
       <c r="AP8" s="27" t="n"/>
       <c r="AQ8" s="27" t="n"/>
       <c r="AR8" s="27" t="n"/>
@@ -5233,15 +5485,15 @@
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>CHRIS:</t>
+          <t>AGNES</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -5250,7 +5502,11 @@
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
       <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="n"/>
+      <c r="K9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
       <c r="N9" s="27" t="n"/>
@@ -5259,124 +5515,84 @@
       <c r="Q9" s="27" t="n"/>
       <c r="R9" s="27" t="n"/>
       <c r="S9" s="27" t="n"/>
-      <c r="T9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T9" s="27" t="n"/>
       <c r="U9" s="27" t="n"/>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
-      <c r="X9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="X9" s="27" t="n"/>
+      <c r="Y9" s="27" t="n"/>
       <c r="Z9" s="27" t="n"/>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
       <c r="AD9" s="27" t="n"/>
       <c r="AE9" s="27" t="n"/>
-      <c r="AF9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AF9" s="27" t="n"/>
       <c r="AG9" s="27" t="n"/>
-      <c r="AH9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH9" s="27" t="n"/>
+      <c r="AI9" s="27" t="n"/>
+      <c r="AJ9" s="27" t="n"/>
+      <c r="AK9" s="27" t="n"/>
       <c r="AL9" s="27" t="n"/>
       <c r="AM9" s="27" t="n"/>
       <c r="AN9" s="27" t="n"/>
       <c r="AO9" s="27" t="n"/>
-      <c r="AP9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP9" s="27" t="n"/>
+      <c r="AQ9" s="27" t="n"/>
       <c r="AR9" s="27" t="n"/>
       <c r="AS9" s="27" t="n"/>
       <c r="AT9" s="27" t="n"/>
       <c r="AU9" s="27" t="n"/>
       <c r="AV9" s="27" t="n"/>
       <c r="AW9" s="27" t="n"/>
-      <c r="AX9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX9" s="27" t="n"/>
+      <c r="AY9" s="27" t="n"/>
       <c r="AZ9" s="27" t="n"/>
       <c r="BA9" s="27" t="n"/>
-      <c r="BB9" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>ANNA:</t>
+          <t>ANTON</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
       <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="n"/>
+      <c r="K10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
       <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
+      <c r="O10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
@@ -5385,98 +5601,50 @@
       <c r="W10" s="27" t="n"/>
       <c r="X10" s="27" t="n"/>
       <c r="Y10" s="27" t="n"/>
-      <c r="Z10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z10" s="27" t="n"/>
       <c r="AA10" s="27" t="n"/>
       <c r="AB10" s="27" t="n"/>
       <c r="AC10" s="27" t="n"/>
       <c r="AD10" s="27" t="n"/>
       <c r="AE10" s="27" t="n"/>
-      <c r="AF10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AF10" s="27" t="n"/>
       <c r="AG10" s="27" t="n"/>
       <c r="AH10" s="27" t="n"/>
       <c r="AI10" s="27" t="n"/>
       <c r="AJ10" s="27" t="n"/>
       <c r="AK10" s="27" t="n"/>
       <c r="AL10" s="27" t="n"/>
-      <c r="AM10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AN10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AM10" s="27" t="n"/>
+      <c r="AN10" s="27" t="n"/>
       <c r="AO10" s="27" t="n"/>
-      <c r="AP10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP10" s="27" t="n"/>
+      <c r="AQ10" s="27" t="n"/>
       <c r="AR10" s="27" t="n"/>
       <c r="AS10" s="27" t="n"/>
       <c r="AT10" s="27" t="n"/>
-      <c r="AU10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AU10" s="27" t="n"/>
       <c r="AV10" s="27" t="n"/>
       <c r="AW10" s="27" t="n"/>
-      <c r="AX10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AZ10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BA10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX10" s="27" t="n"/>
+      <c r="AY10" s="27" t="n"/>
+      <c r="AZ10" s="27" t="n"/>
+      <c r="BA10" s="27" t="n"/>
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>BEN:</t>
-        </is>
-      </c>
-      <c r="E11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>LUCIO</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="inlineStr">
@@ -5484,85 +5652,29 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
       <c r="K11" s="27" t="n"/>
-      <c r="L11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
       <c r="N11" s="27" t="n"/>
-      <c r="O11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
       <c r="R11" s="27" t="n"/>
       <c r="S11" s="27" t="n"/>
       <c r="T11" s="27" t="n"/>
-      <c r="U11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U11" s="27" t="n"/>
+      <c r="V11" s="27" t="n"/>
+      <c r="W11" s="27" t="n"/>
       <c r="X11" s="27" t="n"/>
       <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
-      <c r="AA11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA11" s="27" t="n"/>
+      <c r="AB11" s="27" t="n"/>
+      <c r="AC11" s="27" t="n"/>
       <c r="AD11" s="27" t="n"/>
-      <c r="AE11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE11" s="27" t="n"/>
       <c r="AF11" s="27" t="n"/>
       <c r="AG11" s="27" t="n"/>
       <c r="AH11" s="27" t="n"/>
@@ -5575,89 +5687,49 @@
       <c r="AO11" s="27" t="n"/>
       <c r="AP11" s="27" t="n"/>
       <c r="AQ11" s="27" t="n"/>
-      <c r="AR11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AV11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR11" s="27" t="n"/>
+      <c r="AS11" s="27" t="n"/>
+      <c r="AT11" s="27" t="n"/>
+      <c r="AU11" s="27" t="n"/>
+      <c r="AV11" s="27" t="n"/>
+      <c r="AW11" s="27" t="n"/>
       <c r="AX11" s="27" t="n"/>
-      <c r="AY11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AZ11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BA11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY11" s="27" t="n"/>
+      <c r="AZ11" s="27" t="n"/>
+      <c r="BA11" s="27" t="n"/>
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>INSERT:</t>
+          <t>MÉDICO</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
       <c r="I12" s="27" t="n"/>
       <c r="J12" s="27" t="n"/>
       <c r="K12" s="27" t="n"/>
       <c r="L12" s="27" t="n"/>
-      <c r="M12" s="27" t="n"/>
+      <c r="M12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N12" s="27" t="n"/>
       <c r="O12" s="27" t="n"/>
       <c r="P12" s="27" t="n"/>
       <c r="Q12" s="27" t="n"/>
-      <c r="R12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="R12" s="27" t="n"/>
       <c r="S12" s="27" t="n"/>
       <c r="T12" s="27" t="n"/>
       <c r="U12" s="27" t="n"/>
@@ -5669,27 +5741,15 @@
       <c r="AA12" s="27" t="n"/>
       <c r="AB12" s="27" t="n"/>
       <c r="AC12" s="27" t="n"/>
-      <c r="AD12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD12" s="27" t="n"/>
       <c r="AE12" s="27" t="n"/>
       <c r="AF12" s="27" t="n"/>
-      <c r="AG12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AG12" s="27" t="n"/>
       <c r="AH12" s="27" t="n"/>
       <c r="AI12" s="27" t="n"/>
       <c r="AJ12" s="27" t="n"/>
       <c r="AK12" s="27" t="n"/>
-      <c r="AL12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AL12" s="27" t="n"/>
       <c r="AM12" s="27" t="n"/>
       <c r="AN12" s="27" t="n"/>
       <c r="AO12" s="27" t="n"/>
@@ -5709,15 +5769,15 @@
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>WANG:</t>
+          <t>HOMBRE 3</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -5726,18 +5786,10 @@
       <c r="H13" s="27" t="n"/>
       <c r="I13" s="27" t="n"/>
       <c r="J13" s="27" t="n"/>
-      <c r="K13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K13" s="27" t="n"/>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N13" s="27" t="n"/>
       <c r="O13" s="27" t="n"/>
       <c r="P13" s="27" t="n"/>
       <c r="Q13" s="27" t="n"/>
@@ -5754,7 +5806,11 @@
       <c r="AB13" s="27" t="n"/>
       <c r="AC13" s="27" t="n"/>
       <c r="AD13" s="27" t="n"/>
-      <c r="AE13" s="27" t="n"/>
+      <c r="AE13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF13" s="27" t="n"/>
       <c r="AG13" s="27" t="n"/>
       <c r="AH13" s="27" t="n"/>
@@ -5770,11 +5826,7 @@
       <c r="AR13" s="27" t="n"/>
       <c r="AS13" s="27" t="n"/>
       <c r="AT13" s="27" t="n"/>
-      <c r="AU13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AU13" s="27" t="n"/>
       <c r="AV13" s="27" t="n"/>
       <c r="AW13" s="27" t="n"/>
       <c r="AX13" s="27" t="n"/>
@@ -5784,16 +5836,28 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n"/>
-      <c r="B14" s="24" t="n"/>
+      <c r="A14" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C14" s="25" t="n"/>
-      <c r="D14" s="26" t="n"/>
+      <c r="D14" s="26" t="inlineStr">
+        <is>
+          <t>HELENE</t>
+        </is>
+      </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
-      <c r="J14" s="27" t="n"/>
+      <c r="J14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K14" s="27" t="n"/>
       <c r="L14" s="27" t="n"/>
       <c r="M14" s="27" t="n"/>
@@ -5840,10 +5904,18 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="n"/>
+      <c r="D15" s="26" t="inlineStr">
+        <is>
+          <t>HERMANN</t>
+        </is>
+      </c>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -5870,8 +5942,16 @@
       <c r="AB15" s="27" t="n"/>
       <c r="AC15" s="27" t="n"/>
       <c r="AD15" s="27" t="n"/>
-      <c r="AE15" s="27" t="n"/>
-      <c r="AF15" s="27" t="n"/>
+      <c r="AE15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG15" s="27" t="n"/>
       <c r="AH15" s="27" t="n"/>
       <c r="AI15" s="27" t="n"/>
@@ -5896,72 +5976,216 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="A16" s="41" t="n">
+        <v>106</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>31</v>
+      </c>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="n"/>
-      <c r="E16" s="27" t="n"/>
-      <c r="F16" s="27" t="n"/>
+      <c r="D16" s="26" t="inlineStr">
+        <is>
+          <t>HANNA</t>
+        </is>
+      </c>
+      <c r="E16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G16" s="27" t="n"/>
-      <c r="H16" s="27" t="n"/>
+      <c r="H16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I16" s="27" t="n"/>
-      <c r="J16" s="27" t="n"/>
-      <c r="K16" s="27" t="n"/>
+      <c r="J16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L16" s="27" t="n"/>
-      <c r="M16" s="27" t="n"/>
+      <c r="M16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="n"/>
-      <c r="P16" s="27" t="n"/>
-      <c r="Q16" s="27" t="n"/>
-      <c r="R16" s="27" t="n"/>
-      <c r="S16" s="27" t="n"/>
+      <c r="O16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T16" s="27" t="n"/>
       <c r="U16" s="27" t="n"/>
-      <c r="V16" s="27" t="n"/>
+      <c r="V16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W16" s="27" t="n"/>
-      <c r="X16" s="27" t="n"/>
+      <c r="X16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y16" s="27" t="n"/>
-      <c r="Z16" s="27" t="n"/>
-      <c r="AA16" s="27" t="n"/>
+      <c r="Z16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB16" s="27" t="n"/>
-      <c r="AC16" s="27" t="n"/>
+      <c r="AC16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD16" s="27" t="n"/>
       <c r="AE16" s="27" t="n"/>
       <c r="AF16" s="27" t="n"/>
       <c r="AG16" s="27" t="n"/>
       <c r="AH16" s="27" t="n"/>
-      <c r="AI16" s="27" t="n"/>
-      <c r="AJ16" s="27" t="n"/>
+      <c r="AI16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK16" s="27" t="n"/>
-      <c r="AL16" s="27" t="n"/>
-      <c r="AM16" s="27" t="n"/>
-      <c r="AN16" s="27" t="n"/>
+      <c r="AL16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO16" s="27" t="n"/>
-      <c r="AP16" s="27" t="n"/>
-      <c r="AQ16" s="27" t="n"/>
-      <c r="AR16" s="27" t="n"/>
-      <c r="AS16" s="27" t="n"/>
-      <c r="AT16" s="27" t="n"/>
+      <c r="AP16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AU16" s="27" t="n"/>
-      <c r="AV16" s="27" t="n"/>
-      <c r="AW16" s="27" t="n"/>
-      <c r="AX16" s="27" t="n"/>
-      <c r="AY16" s="27" t="n"/>
+      <c r="AV16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AW16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AX16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ16" s="27" t="n"/>
-      <c r="BA16" s="27" t="n"/>
+      <c r="BA16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
-      <c r="A17" s="41" t="n"/>
-      <c r="B17" s="24" t="n"/>
+      <c r="A17" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C17" s="25" t="n"/>
-      <c r="D17" s="26" t="n"/>
+      <c r="D17" s="26" t="inlineStr">
+        <is>
+          <t>MARIE</t>
+        </is>
+      </c>
       <c r="E17" s="27" t="n"/>
       <c r="F17" s="27" t="n"/>
       <c r="G17" s="27" t="n"/>
       <c r="H17" s="27" t="n"/>
       <c r="I17" s="27" t="n"/>
-      <c r="J17" s="27" t="n"/>
+      <c r="J17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K17" s="27" t="n"/>
       <c r="L17" s="27" t="n"/>
       <c r="M17" s="27" t="n"/>
@@ -6008,15 +6232,27 @@
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
-      <c r="A18" s="41" t="n"/>
-      <c r="B18" s="24" t="n"/>
+      <c r="A18" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" s="25" t="n"/>
-      <c r="D18" s="26" t="n"/>
+      <c r="D18" s="26" t="inlineStr">
+        <is>
+          <t>MUJER 2</t>
+        </is>
+      </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
-      <c r="I18" s="27" t="n"/>
+      <c r="I18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J18" s="27" t="n"/>
       <c r="K18" s="27" t="n"/>
       <c r="L18" s="27" t="n"/>
@@ -6064,10 +6300,18 @@
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n"/>
-      <c r="B19" s="24" t="n"/>
+      <c r="A19" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C19" s="25" t="n"/>
-      <c r="D19" s="26" t="n"/>
+      <c r="D19" s="26" t="inlineStr">
+        <is>
+          <t>HOMBRES</t>
+        </is>
+      </c>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
@@ -6102,7 +6346,11 @@
       <c r="AJ19" s="27" t="n"/>
       <c r="AK19" s="27" t="n"/>
       <c r="AL19" s="27" t="n"/>
-      <c r="AM19" s="27" t="n"/>
+      <c r="AM19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN19" s="27" t="n"/>
       <c r="AO19" s="27" t="n"/>
       <c r="AP19" s="27" t="n"/>
@@ -6120,13 +6368,25 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n"/>
-      <c r="B20" s="24" t="n"/>
+      <c r="A20" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="n"/>
+      <c r="D20" s="26" t="inlineStr">
+        <is>
+          <t>HOMBRE 1</t>
+        </is>
+      </c>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
-      <c r="G20" s="27" t="n"/>
+      <c r="G20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H20" s="27" t="n"/>
       <c r="I20" s="27" t="n"/>
       <c r="J20" s="27" t="n"/>
@@ -6176,10 +6436,18 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n"/>
-      <c r="B21" s="24" t="n"/>
+      <c r="A21" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="n"/>
+      <c r="D21" s="26" t="inlineStr">
+        <is>
+          <t>LOTTE</t>
+        </is>
+      </c>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -6224,23 +6492,51 @@
       <c r="AT21" s="27" t="n"/>
       <c r="AU21" s="27" t="n"/>
       <c r="AV21" s="27" t="n"/>
-      <c r="AW21" s="27" t="n"/>
-      <c r="AX21" s="27" t="n"/>
-      <c r="AY21" s="27" t="n"/>
+      <c r="AW21" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AX21" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY21" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ21" s="27" t="n"/>
       <c r="BA21" s="27" t="n"/>
       <c r="BB21" s="33" t="n"/>
     </row>
     <row r="22" ht="13.75" customHeight="1" s="19">
-      <c r="A22" s="41" t="n"/>
-      <c r="B22" s="24" t="n"/>
+      <c r="A22" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B22" s="24" t="n">
+        <v>7</v>
+      </c>
       <c r="C22" s="25" t="n"/>
-      <c r="D22" s="26" t="n"/>
+      <c r="D22" s="26" t="inlineStr">
+        <is>
+          <t>AMB</t>
+        </is>
+      </c>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
-      <c r="G22" s="27" t="n"/>
+      <c r="G22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H22" s="27" t="n"/>
-      <c r="I22" s="27" t="n"/>
+      <c r="I22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J22" s="27" t="n"/>
       <c r="K22" s="27" t="n"/>
       <c r="L22" s="27" t="n"/>
@@ -6252,20 +6548,40 @@
       <c r="R22" s="27" t="n"/>
       <c r="S22" s="27" t="n"/>
       <c r="T22" s="27" t="n"/>
-      <c r="U22" s="27" t="n"/>
+      <c r="U22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V22" s="27" t="n"/>
       <c r="W22" s="27" t="n"/>
       <c r="X22" s="27" t="n"/>
       <c r="Y22" s="27" t="n"/>
-      <c r="Z22" s="27" t="n"/>
+      <c r="Z22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA22" s="27" t="n"/>
       <c r="AB22" s="27" t="n"/>
-      <c r="AC22" s="27" t="n"/>
-      <c r="AD22" s="27" t="n"/>
+      <c r="AC22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE22" s="27" t="n"/>
       <c r="AF22" s="27" t="n"/>
       <c r="AG22" s="27" t="n"/>
-      <c r="AH22" s="27" t="n"/>
+      <c r="AH22" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AI22" s="27" t="n"/>
       <c r="AJ22" s="27" t="n"/>
       <c r="AK22" s="27" t="n"/>
@@ -6288,13 +6604,33 @@
       <c r="BB22" s="33" t="n"/>
     </row>
     <row r="23" ht="13.75" customHeight="1" s="19">
-      <c r="A23" s="41" t="n"/>
-      <c r="B23" s="24" t="n"/>
+      <c r="A23" s="41" t="n">
+        <v>47</v>
+      </c>
+      <c r="B23" s="24" t="n">
+        <v>18</v>
+      </c>
       <c r="C23" s="25" t="n"/>
-      <c r="D23" s="26" t="n"/>
-      <c r="E23" s="27" t="n"/>
-      <c r="F23" s="27" t="n"/>
-      <c r="G23" s="27" t="n"/>
+      <c r="D23" s="26" t="inlineStr">
+        <is>
+          <t>OTTO</t>
+        </is>
+      </c>
+      <c r="E23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H23" s="27" t="n"/>
       <c r="I23" s="27" t="n"/>
       <c r="J23" s="27" t="n"/>
@@ -6314,25 +6650,85 @@
       <c r="X23" s="27" t="n"/>
       <c r="Y23" s="27" t="n"/>
       <c r="Z23" s="27" t="n"/>
-      <c r="AA23" s="27" t="n"/>
+      <c r="AA23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB23" s="27" t="n"/>
-      <c r="AC23" s="27" t="n"/>
+      <c r="AC23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD23" s="27" t="n"/>
       <c r="AE23" s="27" t="n"/>
-      <c r="AF23" s="27" t="n"/>
-      <c r="AG23" s="27" t="n"/>
+      <c r="AF23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH23" s="27" t="n"/>
-      <c r="AI23" s="27" t="n"/>
-      <c r="AJ23" s="27" t="n"/>
-      <c r="AK23" s="27" t="n"/>
-      <c r="AL23" s="27" t="n"/>
-      <c r="AM23" s="27" t="n"/>
-      <c r="AN23" s="27" t="n"/>
-      <c r="AO23" s="27" t="n"/>
-      <c r="AP23" s="27" t="n"/>
-      <c r="AQ23" s="27" t="n"/>
-      <c r="AR23" s="27" t="n"/>
-      <c r="AS23" s="27" t="n"/>
+      <c r="AI23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AK23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS23" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AT23" s="27" t="n"/>
       <c r="AU23" s="27" t="n"/>
       <c r="AV23" s="27" t="n"/>
@@ -6344,10 +6740,18 @@
       <c r="BB23" s="33" t="n"/>
     </row>
     <row r="24" ht="13.75" customHeight="1" s="19">
-      <c r="A24" s="41" t="n"/>
-      <c r="B24" s="24" t="n"/>
+      <c r="A24" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" s="24" t="n">
+        <v>4</v>
+      </c>
       <c r="C24" s="25" t="n"/>
-      <c r="D24" s="26" t="n"/>
+      <c r="D24" s="26" t="inlineStr">
+        <is>
+          <t>HOMBRE 2</t>
+        </is>
+      </c>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -6365,11 +6769,27 @@
       <c r="S24" s="27" t="n"/>
       <c r="T24" s="27" t="n"/>
       <c r="U24" s="27" t="n"/>
-      <c r="V24" s="27" t="n"/>
-      <c r="W24" s="27" t="n"/>
-      <c r="X24" s="27" t="n"/>
+      <c r="V24" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W24" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X24" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y24" s="27" t="n"/>
-      <c r="Z24" s="27" t="n"/>
+      <c r="Z24" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA24" s="27" t="n"/>
       <c r="AB24" s="27" t="n"/>
       <c r="AC24" s="27" t="n"/>
@@ -8310,7 +8730,7 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B8" s="24" t="n">
         <v>8</v>
@@ -8318,21 +8738,21 @@
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>TIM:</t>
-        </is>
-      </c>
-      <c r="E8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G8" s="27" t="n"/>
-      <c r="H8" s="27" t="n"/>
+          <t>IDA</t>
+        </is>
+      </c>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I8" s="27" t="n"/>
       <c r="J8" s="27" t="n"/>
       <c r="K8" s="27" t="n"/>
@@ -8344,7 +8764,11 @@
       <c r="Q8" s="27" t="n"/>
       <c r="R8" s="27" t="n"/>
       <c r="S8" s="27" t="n"/>
-      <c r="T8" s="27" t="n"/>
+      <c r="T8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U8" s="27" t="n"/>
       <c r="V8" s="27" t="n"/>
       <c r="W8" s="27" t="n"/>
@@ -8352,50 +8776,46 @@
       <c r="Y8" s="27" t="n"/>
       <c r="Z8" s="27" t="n"/>
       <c r="AA8" s="27" t="n"/>
-      <c r="AB8" s="27" t="n"/>
-      <c r="AC8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC8" s="27" t="n"/>
+      <c r="AD8" s="27" t="n"/>
+      <c r="AE8" s="27" t="n"/>
       <c r="AF8" s="27" t="n"/>
       <c r="AG8" s="27" t="n"/>
-      <c r="AH8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH8" s="27" t="n"/>
+      <c r="AI8" s="27" t="n"/>
+      <c r="AJ8" s="27" t="n"/>
       <c r="AK8" s="27" t="n"/>
       <c r="AL8" s="27" t="n"/>
       <c r="AM8" s="27" t="n"/>
       <c r="AN8" s="27" t="n"/>
-      <c r="AO8" s="27" t="n"/>
-      <c r="AP8" s="27" t="n"/>
-      <c r="AQ8" s="27" t="n"/>
+      <c r="AO8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR8" s="27" t="n"/>
       <c r="AS8" s="27" t="n"/>
       <c r="AT8" s="27" t="n"/>
-      <c r="AU8" s="27" t="n"/>
+      <c r="AU8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV8" s="27" t="n"/>
       <c r="AW8" s="27" t="n"/>
       <c r="AX8" s="27" t="n"/>
@@ -8406,15 +8826,15 @@
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>CHRIS:</t>
+          <t>ANTON</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -8436,119 +8856,71 @@
       <c r="U9" s="27" t="n"/>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
-      <c r="X9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="X9" s="27" t="n"/>
       <c r="Y9" s="27" t="n"/>
-      <c r="Z9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z9" s="27" t="n"/>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
       <c r="AD9" s="27" t="n"/>
-      <c r="AE9" s="27" t="n"/>
-      <c r="AF9" s="27" t="n"/>
+      <c r="AE9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG9" s="27" t="n"/>
       <c r="AH9" s="27" t="n"/>
       <c r="AI9" s="27" t="n"/>
       <c r="AJ9" s="27" t="n"/>
-      <c r="AK9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AK9" s="27" t="n"/>
       <c r="AL9" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AM9" s="27" t="n"/>
-      <c r="AN9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AM9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN9" s="27" t="n"/>
       <c r="AO9" s="27" t="n"/>
-      <c r="AP9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP9" s="27" t="n"/>
+      <c r="AQ9" s="27" t="n"/>
       <c r="AR9" s="27" t="n"/>
       <c r="AS9" s="27" t="n"/>
-      <c r="AT9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AT9" s="27" t="n"/>
       <c r="AU9" s="27" t="n"/>
-      <c r="AV9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AX9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AV9" s="27" t="n"/>
+      <c r="AW9" s="27" t="n"/>
+      <c r="AX9" s="27" t="n"/>
       <c r="AY9" s="27" t="n"/>
-      <c r="AZ9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AZ9" s="27" t="n"/>
       <c r="BA9" s="27" t="n"/>
-      <c r="BB9" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>ANNA:</t>
-        </is>
-      </c>
-      <c r="E10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>LUCIO</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
       <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="27" t="n"/>
@@ -8561,24 +8933,20 @@
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U10" s="27" t="n"/>
       <c r="V10" s="27" t="n"/>
       <c r="W10" s="27" t="n"/>
       <c r="X10" s="27" t="n"/>
       <c r="Y10" s="27" t="n"/>
       <c r="Z10" s="27" t="n"/>
       <c r="AA10" s="27" t="n"/>
-      <c r="AB10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB10" s="27" t="n"/>
       <c r="AC10" s="27" t="n"/>
-      <c r="AD10" s="27" t="n"/>
+      <c r="AD10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE10" s="27" t="n"/>
       <c r="AF10" s="27" t="n"/>
       <c r="AG10" s="27" t="n"/>
@@ -8595,26 +8963,18 @@
       <c r="AR10" s="27" t="n"/>
       <c r="AS10" s="27" t="n"/>
       <c r="AT10" s="27" t="n"/>
-      <c r="AU10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AU10" s="27" t="n"/>
       <c r="AV10" s="27" t="n"/>
       <c r="AW10" s="27" t="n"/>
-      <c r="AX10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY10" s="27" t="n"/>
+      <c r="AX10" s="27" t="n"/>
+      <c r="AY10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ10" s="27" t="n"/>
       <c r="BA10" s="27" t="n"/>
-      <c r="BB10" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
@@ -8626,7 +8986,7 @@
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>DAVE:</t>
+          <t>H0MBRE 5</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -8649,7 +9009,11 @@
       <c r="V11" s="27" t="n"/>
       <c r="W11" s="27" t="n"/>
       <c r="X11" s="27" t="n"/>
-      <c r="Y11" s="27" t="n"/>
+      <c r="Y11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z11" s="27" t="n"/>
       <c r="AA11" s="27" t="n"/>
       <c r="AB11" s="27" t="n"/>
@@ -8678,104 +9042,40 @@
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
       <c r="BA11" s="27" t="n"/>
-      <c r="BB11" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>BEN:</t>
-        </is>
-      </c>
-      <c r="E12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>HOMBRE 6</t>
+        </is>
+      </c>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
-      <c r="H12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
       <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S12" s="27" t="n"/>
+      <c r="T12" s="27" t="n"/>
       <c r="U12" s="27" t="n"/>
       <c r="V12" s="27" t="n"/>
-      <c r="W12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W12" s="27" t="n"/>
       <c r="X12" s="27" t="n"/>
       <c r="Y12" s="27" t="inlineStr">
         <is>
@@ -8783,25 +9083,13 @@
         </is>
       </c>
       <c r="Z12" s="27" t="n"/>
-      <c r="AA12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA12" s="27" t="n"/>
       <c r="AB12" s="27" t="n"/>
       <c r="AC12" s="27" t="n"/>
       <c r="AD12" s="27" t="n"/>
       <c r="AE12" s="27" t="n"/>
-      <c r="AF12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AF12" s="27" t="n"/>
+      <c r="AG12" s="27" t="n"/>
       <c r="AH12" s="27" t="n"/>
       <c r="AI12" s="27" t="n"/>
       <c r="AJ12" s="27" t="n"/>
@@ -8812,16 +9100,8 @@
       <c r="AO12" s="27" t="n"/>
       <c r="AP12" s="27" t="n"/>
       <c r="AQ12" s="27" t="n"/>
-      <c r="AR12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR12" s="27" t="n"/>
+      <c r="AS12" s="27" t="n"/>
       <c r="AT12" s="27" t="n"/>
       <c r="AU12" s="27" t="n"/>
       <c r="AV12" s="27" t="n"/>
@@ -8834,15 +9114,15 @@
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>INSERT:</t>
+          <t>HELENE</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -8862,11 +9142,7 @@
       <c r="S13" s="27" t="n"/>
       <c r="T13" s="27" t="n"/>
       <c r="U13" s="27" t="n"/>
-      <c r="V13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V13" s="27" t="n"/>
       <c r="W13" s="27" t="n"/>
       <c r="X13" s="27" t="n"/>
       <c r="Y13" s="27" t="n"/>
@@ -8885,11 +9161,7 @@
       <c r="AL13" s="27" t="n"/>
       <c r="AM13" s="27" t="n"/>
       <c r="AN13" s="27" t="n"/>
-      <c r="AO13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AO13" s="27" t="n"/>
       <c r="AP13" s="27" t="n"/>
       <c r="AQ13" s="27" t="n"/>
       <c r="AR13" s="27" t="n"/>
@@ -8899,7 +9171,11 @@
       <c r="AV13" s="27" t="n"/>
       <c r="AW13" s="27" t="n"/>
       <c r="AX13" s="27" t="n"/>
-      <c r="AY13" s="27" t="n"/>
+      <c r="AY13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ13" s="27" t="n"/>
       <c r="BA13" s="27" t="inlineStr">
         <is>
@@ -8910,20 +9186,24 @@
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
       <c r="A14" s="41" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B14" s="24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>WANG:</t>
+          <t>HERMANN</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="n"/>
+      <c r="G14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
@@ -8933,24 +9213,24 @@
       <c r="N14" s="27" t="n"/>
       <c r="O14" s="27" t="n"/>
       <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
       <c r="S14" s="27" t="n"/>
       <c r="T14" s="27" t="n"/>
       <c r="U14" s="27" t="n"/>
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
-      <c r="X14" s="27" t="n"/>
+      <c r="X14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y14" s="27" t="n"/>
-      <c r="Z14" s="27" t="n"/>
+      <c r="Z14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA14" s="27" t="n"/>
       <c r="AB14" s="27" t="n"/>
       <c r="AC14" s="27" t="n"/>
@@ -8959,15 +9239,15 @@
       <c r="AF14" s="27" t="n"/>
       <c r="AG14" s="27" t="n"/>
       <c r="AH14" s="27" t="n"/>
-      <c r="AI14" s="27" t="n"/>
+      <c r="AI14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ14" s="27" t="n"/>
       <c r="AK14" s="27" t="n"/>
       <c r="AL14" s="27" t="n"/>
-      <c r="AM14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AM14" s="27" t="n"/>
       <c r="AN14" s="27" t="n"/>
       <c r="AO14" s="27" t="n"/>
       <c r="AP14" s="27" t="n"/>
@@ -8975,28 +9255,28 @@
       <c r="AR14" s="27" t="n"/>
       <c r="AS14" s="27" t="n"/>
       <c r="AT14" s="27" t="n"/>
-      <c r="AU14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AU14" s="27" t="n"/>
       <c r="AV14" s="27" t="n"/>
       <c r="AW14" s="27" t="n"/>
       <c r="AX14" s="27" t="n"/>
-      <c r="AY14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY14" s="27" t="n"/>
       <c r="AZ14" s="27" t="n"/>
       <c r="BA14" s="27" t="n"/>
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="n"/>
+      <c r="D15" s="26" t="inlineStr">
+        <is>
+          <t>INSERTO HANNA</t>
+        </is>
+      </c>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -9044,71 +9324,223 @@
       <c r="AW15" s="27" t="n"/>
       <c r="AX15" s="27" t="n"/>
       <c r="AY15" s="27" t="n"/>
-      <c r="AZ15" s="27" t="n"/>
+      <c r="AZ15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BA15" s="27" t="n"/>
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="A16" s="41" t="n">
+        <v>106</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>33</v>
+      </c>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="n"/>
-      <c r="E16" s="27" t="n"/>
-      <c r="F16" s="27" t="n"/>
-      <c r="G16" s="27" t="n"/>
-      <c r="H16" s="27" t="n"/>
+      <c r="D16" s="26" t="inlineStr">
+        <is>
+          <t>HANNA</t>
+        </is>
+      </c>
+      <c r="E16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I16" s="27" t="n"/>
       <c r="J16" s="27" t="n"/>
-      <c r="K16" s="27" t="n"/>
+      <c r="K16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L16" s="27" t="n"/>
       <c r="M16" s="27" t="n"/>
-      <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="n"/>
-      <c r="P16" s="27" t="n"/>
-      <c r="Q16" s="27" t="n"/>
-      <c r="R16" s="27" t="n"/>
+      <c r="N16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="S16" s="27" t="n"/>
-      <c r="T16" s="27" t="n"/>
-      <c r="U16" s="27" t="n"/>
-      <c r="V16" s="27" t="n"/>
-      <c r="W16" s="27" t="n"/>
+      <c r="T16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X16" s="27" t="n"/>
-      <c r="Y16" s="27" t="n"/>
-      <c r="Z16" s="27" t="n"/>
+      <c r="Y16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA16" s="27" t="n"/>
-      <c r="AB16" s="27" t="n"/>
-      <c r="AC16" s="27" t="n"/>
-      <c r="AD16" s="27" t="n"/>
-      <c r="AE16" s="27" t="n"/>
-      <c r="AF16" s="27" t="n"/>
+      <c r="AB16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG16" s="27" t="n"/>
-      <c r="AH16" s="27" t="n"/>
-      <c r="AI16" s="27" t="n"/>
-      <c r="AJ16" s="27" t="n"/>
+      <c r="AH16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK16" s="27" t="n"/>
-      <c r="AL16" s="27" t="n"/>
+      <c r="AL16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM16" s="27" t="n"/>
       <c r="AN16" s="27" t="n"/>
-      <c r="AO16" s="27" t="n"/>
-      <c r="AP16" s="27" t="n"/>
-      <c r="AQ16" s="27" t="n"/>
+      <c r="AO16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR16" s="27" t="n"/>
       <c r="AS16" s="27" t="n"/>
       <c r="AT16" s="27" t="n"/>
       <c r="AU16" s="27" t="n"/>
-      <c r="AV16" s="27" t="n"/>
-      <c r="AW16" s="27" t="n"/>
+      <c r="AV16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AW16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AX16" s="27" t="n"/>
-      <c r="AY16" s="27" t="n"/>
+      <c r="AY16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ16" s="27" t="n"/>
-      <c r="BA16" s="27" t="n"/>
-      <c r="BB16" s="33" t="n"/>
+      <c r="BA16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BB16" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
-      <c r="A17" s="41" t="n"/>
-      <c r="B17" s="24" t="n"/>
+      <c r="A17" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C17" s="25" t="n"/>
-      <c r="D17" s="26" t="n"/>
+      <c r="D17" s="26" t="inlineStr">
+        <is>
+          <t>MUJER 3</t>
+        </is>
+      </c>
       <c r="E17" s="27" t="n"/>
       <c r="F17" s="27" t="n"/>
       <c r="G17" s="27" t="n"/>
@@ -9127,9 +9559,17 @@
       <c r="T17" s="27" t="n"/>
       <c r="U17" s="27" t="n"/>
       <c r="V17" s="27" t="n"/>
-      <c r="W17" s="27" t="n"/>
+      <c r="W17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X17" s="27" t="n"/>
-      <c r="Y17" s="27" t="n"/>
+      <c r="Y17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z17" s="27" t="n"/>
       <c r="AA17" s="27" t="n"/>
       <c r="AB17" s="27" t="n"/>
@@ -9161,17 +9601,37 @@
       <c r="BB17" s="33" t="n"/>
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
-      <c r="A18" s="41" t="n"/>
-      <c r="B18" s="24" t="n"/>
+      <c r="A18" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24" t="n">
+        <v>7</v>
+      </c>
       <c r="C18" s="25" t="n"/>
-      <c r="D18" s="26" t="n"/>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="n"/>
+      <c r="D18" s="26" t="inlineStr">
+        <is>
+          <t>LOTTE</t>
+        </is>
+      </c>
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
       <c r="I18" s="27" t="n"/>
       <c r="J18" s="27" t="n"/>
-      <c r="K18" s="27" t="n"/>
+      <c r="K18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L18" s="27" t="n"/>
       <c r="M18" s="27" t="n"/>
       <c r="N18" s="27" t="n"/>
@@ -9204,12 +9664,28 @@
       <c r="AO18" s="27" t="n"/>
       <c r="AP18" s="27" t="n"/>
       <c r="AQ18" s="27" t="n"/>
-      <c r="AR18" s="27" t="n"/>
-      <c r="AS18" s="27" t="n"/>
+      <c r="AR18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AT18" s="27" t="n"/>
       <c r="AU18" s="27" t="n"/>
-      <c r="AV18" s="27" t="n"/>
-      <c r="AW18" s="27" t="n"/>
+      <c r="AV18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AW18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AX18" s="27" t="n"/>
       <c r="AY18" s="27" t="n"/>
       <c r="AZ18" s="27" t="n"/>
@@ -9217,66 +9693,126 @@
       <c r="BB18" s="33" t="n"/>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n"/>
-      <c r="B19" s="24" t="n"/>
+      <c r="A19" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B19" s="24" t="n">
+        <v>11</v>
+      </c>
       <c r="C19" s="25" t="n"/>
-      <c r="D19" s="26" t="n"/>
+      <c r="D19" s="26" t="inlineStr">
+        <is>
+          <t>AMB</t>
+        </is>
+      </c>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
-      <c r="I19" s="27" t="n"/>
+      <c r="I19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J19" s="27" t="n"/>
       <c r="K19" s="27" t="n"/>
-      <c r="L19" s="27" t="n"/>
+      <c r="L19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M19" s="27" t="n"/>
       <c r="N19" s="27" t="n"/>
       <c r="O19" s="27" t="n"/>
-      <c r="P19" s="27" t="n"/>
+      <c r="P19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q19" s="27" t="n"/>
       <c r="R19" s="27" t="n"/>
       <c r="S19" s="27" t="n"/>
       <c r="T19" s="27" t="n"/>
       <c r="U19" s="27" t="n"/>
       <c r="V19" s="27" t="n"/>
-      <c r="W19" s="27" t="n"/>
+      <c r="W19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X19" s="27" t="n"/>
       <c r="Y19" s="27" t="n"/>
       <c r="Z19" s="27" t="n"/>
       <c r="AA19" s="27" t="n"/>
       <c r="AB19" s="27" t="n"/>
       <c r="AC19" s="27" t="n"/>
-      <c r="AD19" s="27" t="n"/>
-      <c r="AE19" s="27" t="n"/>
+      <c r="AD19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF19" s="27" t="n"/>
       <c r="AG19" s="27" t="n"/>
-      <c r="AH19" s="27" t="n"/>
+      <c r="AH19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AI19" s="27" t="n"/>
       <c r="AJ19" s="27" t="n"/>
-      <c r="AK19" s="27" t="n"/>
+      <c r="AK19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AL19" s="27" t="n"/>
       <c r="AM19" s="27" t="n"/>
-      <c r="AN19" s="27" t="n"/>
+      <c r="AN19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO19" s="27" t="n"/>
       <c r="AP19" s="27" t="n"/>
       <c r="AQ19" s="27" t="n"/>
       <c r="AR19" s="27" t="n"/>
       <c r="AS19" s="27" t="n"/>
-      <c r="AT19" s="27" t="n"/>
+      <c r="AT19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AU19" s="27" t="n"/>
       <c r="AV19" s="27" t="n"/>
       <c r="AW19" s="27" t="n"/>
-      <c r="AX19" s="27" t="n"/>
+      <c r="AX19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AY19" s="27" t="n"/>
       <c r="AZ19" s="27" t="n"/>
       <c r="BA19" s="27" t="n"/>
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n"/>
-      <c r="B20" s="24" t="n"/>
+      <c r="A20" s="41" t="n">
+        <v>47</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>13</v>
+      </c>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="n"/>
+      <c r="D20" s="26" t="inlineStr">
+        <is>
+          <t>OTTO</t>
+        </is>
+      </c>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
@@ -9285,16 +9821,52 @@
       <c r="J20" s="27" t="n"/>
       <c r="K20" s="27" t="n"/>
       <c r="L20" s="27" t="n"/>
-      <c r="M20" s="27" t="n"/>
-      <c r="N20" s="27" t="n"/>
-      <c r="O20" s="27" t="n"/>
-      <c r="P20" s="27" t="n"/>
-      <c r="Q20" s="27" t="n"/>
-      <c r="R20" s="27" t="n"/>
+      <c r="M20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="S20" s="27" t="n"/>
-      <c r="T20" s="27" t="n"/>
-      <c r="U20" s="27" t="n"/>
-      <c r="V20" s="27" t="n"/>
+      <c r="T20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W20" s="27" t="n"/>
       <c r="X20" s="27" t="n"/>
       <c r="Y20" s="27" t="n"/>
@@ -9307,8 +9879,16 @@
       <c r="AF20" s="27" t="n"/>
       <c r="AG20" s="27" t="n"/>
       <c r="AH20" s="27" t="n"/>
-      <c r="AI20" s="27" t="n"/>
-      <c r="AJ20" s="27" t="n"/>
+      <c r="AI20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK20" s="27" t="n"/>
       <c r="AL20" s="27" t="n"/>
       <c r="AM20" s="27" t="n"/>
@@ -9316,8 +9896,16 @@
       <c r="AO20" s="27" t="n"/>
       <c r="AP20" s="27" t="n"/>
       <c r="AQ20" s="27" t="n"/>
-      <c r="AR20" s="27" t="n"/>
-      <c r="AS20" s="27" t="n"/>
+      <c r="AR20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS20" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AT20" s="27" t="n"/>
       <c r="AU20" s="27" t="n"/>
       <c r="AV20" s="27" t="n"/>
@@ -9329,10 +9917,18 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n"/>
-      <c r="B21" s="24" t="n"/>
+      <c r="A21" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>1</v>
+      </c>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="n"/>
+      <c r="D21" s="26" t="inlineStr">
+        <is>
+          <t>HOMBRE 4</t>
+        </is>
+      </c>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -9348,7 +9944,11 @@
       <c r="Q21" s="27" t="n"/>
       <c r="R21" s="27" t="n"/>
       <c r="S21" s="27" t="n"/>
-      <c r="T21" s="27" t="n"/>
+      <c r="T21" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U21" s="27" t="n"/>
       <c r="V21" s="27" t="n"/>
       <c r="W21" s="27" t="n"/>
@@ -11463,70 +12063,50 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>TIM:</t>
-        </is>
-      </c>
-      <c r="E8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>IDA</t>
+        </is>
+      </c>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="n"/>
       <c r="H8" s="27" t="n"/>
       <c r="I8" s="27" t="n"/>
       <c r="J8" s="27" t="n"/>
-      <c r="K8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K8" s="27" t="n"/>
       <c r="L8" s="27" t="n"/>
       <c r="M8" s="27" t="n"/>
       <c r="N8" s="27" t="n"/>
-      <c r="O8" s="27" t="n"/>
-      <c r="P8" s="27" t="n"/>
+      <c r="O8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q8" s="27" t="n"/>
       <c r="R8" s="27" t="n"/>
       <c r="S8" s="27" t="n"/>
-      <c r="T8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T8" s="27" t="n"/>
       <c r="U8" s="27" t="n"/>
       <c r="V8" s="27" t="n"/>
-      <c r="W8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W8" s="27" t="n"/>
       <c r="X8" s="27" t="n"/>
       <c r="Y8" s="27" t="n"/>
       <c r="Z8" s="27" t="n"/>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
-      <c r="AC8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC8" s="27" t="n"/>
       <c r="AD8" s="27" t="n"/>
       <c r="AE8" s="27" t="n"/>
       <c r="AF8" s="27" t="n"/>
@@ -11555,15 +12135,15 @@
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>MUJER 1:</t>
+          <t>INSERTO</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -11580,18 +12160,38 @@
       <c r="P9" s="27" t="n"/>
       <c r="Q9" s="27" t="n"/>
       <c r="R9" s="27" t="n"/>
-      <c r="S9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S9" s="27" t="n"/>
       <c r="T9" s="27" t="n"/>
-      <c r="U9" s="27" t="n"/>
-      <c r="V9" s="27" t="n"/>
-      <c r="W9" s="27" t="n"/>
-      <c r="X9" s="27" t="n"/>
-      <c r="Y9" s="27" t="n"/>
-      <c r="Z9" s="27" t="n"/>
+      <c r="U9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
@@ -11623,15 +12223,15 @@
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>CHRIS:</t>
+          <t>HOMBRE BARCO</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
@@ -11644,13 +12244,13 @@
       <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
       <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O10" s="27" t="n"/>
       <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
+      <c r="Q10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
@@ -11684,83 +12284,51 @@
       <c r="AV10" s="27" t="n"/>
       <c r="AW10" s="27" t="n"/>
       <c r="AX10" s="27" t="n"/>
-      <c r="AY10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AZ10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY10" s="27" t="n"/>
+      <c r="AZ10" s="27" t="n"/>
       <c r="BA10" s="27" t="n"/>
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>ANNA:</t>
+          <t>HELENE</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
       <c r="I11" s="27" t="n"/>
       <c r="J11" s="27" t="n"/>
       <c r="K11" s="27" t="n"/>
       <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M11" s="27" t="n"/>
       <c r="N11" s="27" t="n"/>
       <c r="O11" s="27" t="n"/>
       <c r="P11" s="27" t="n"/>
-      <c r="Q11" s="27" t="n"/>
+      <c r="Q11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R11" s="27" t="n"/>
-      <c r="S11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S11" s="27" t="n"/>
       <c r="T11" s="27" t="n"/>
-      <c r="U11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U11" s="27" t="n"/>
+      <c r="V11" s="27" t="n"/>
       <c r="W11" s="27" t="n"/>
       <c r="X11" s="27" t="n"/>
       <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
-      <c r="AA11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA11" s="27" t="n"/>
       <c r="AB11" s="27" t="n"/>
       <c r="AC11" s="27" t="n"/>
       <c r="AD11" s="27" t="n"/>
@@ -11768,79 +12336,63 @@
       <c r="AF11" s="27" t="n"/>
       <c r="AG11" s="27" t="n"/>
       <c r="AH11" s="27" t="n"/>
-      <c r="AI11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI11" s="27" t="n"/>
       <c r="AJ11" s="27" t="n"/>
       <c r="AK11" s="27" t="n"/>
       <c r="AL11" s="27" t="n"/>
       <c r="AM11" s="27" t="n"/>
       <c r="AN11" s="27" t="n"/>
       <c r="AO11" s="27" t="n"/>
-      <c r="AP11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP11" s="27" t="n"/>
+      <c r="AQ11" s="27" t="n"/>
       <c r="AR11" s="27" t="n"/>
       <c r="AS11" s="27" t="n"/>
-      <c r="AT11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AT11" s="27" t="n"/>
+      <c r="AU11" s="27" t="n"/>
       <c r="AV11" s="27" t="n"/>
-      <c r="AW11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AW11" s="27" t="n"/>
       <c r="AX11" s="27" t="n"/>
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
       <c r="BA11" s="27" t="n"/>
-      <c r="BB11" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>BEN:</t>
-        </is>
-      </c>
-      <c r="E12" s="27" t="n"/>
+          <t>HANNA</t>
+        </is>
+      </c>
+      <c r="E12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="n"/>
+      <c r="G12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H12" s="27" t="n"/>
-      <c r="I12" s="27" t="n"/>
-      <c r="J12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K12" s="27" t="n"/>
+      <c r="I12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L12" s="27" t="inlineStr">
         <is>
           <t>X</t>
@@ -11853,107 +12405,43 @@
       </c>
       <c r="N12" s="27" t="n"/>
       <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="P12" s="27" t="n"/>
       <c r="Q12" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="R12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="R12" s="27" t="n"/>
       <c r="S12" s="27" t="n"/>
       <c r="T12" s="27" t="n"/>
       <c r="U12" s="27" t="n"/>
       <c r="V12" s="27" t="n"/>
       <c r="W12" s="27" t="n"/>
-      <c r="X12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="X12" s="27" t="n"/>
       <c r="Y12" s="27" t="n"/>
-      <c r="Z12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z12" s="27" t="n"/>
       <c r="AA12" s="27" t="n"/>
-      <c r="AB12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB12" s="27" t="n"/>
       <c r="AC12" s="27" t="n"/>
       <c r="AD12" s="27" t="n"/>
-      <c r="AE12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE12" s="27" t="n"/>
+      <c r="AF12" s="27" t="n"/>
+      <c r="AG12" s="27" t="n"/>
       <c r="AH12" s="27" t="n"/>
       <c r="AI12" s="27" t="n"/>
       <c r="AJ12" s="27" t="n"/>
-      <c r="AK12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AN12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AK12" s="27" t="n"/>
+      <c r="AL12" s="27" t="n"/>
+      <c r="AM12" s="27" t="n"/>
+      <c r="AN12" s="27" t="n"/>
       <c r="AO12" s="27" t="n"/>
-      <c r="AP12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP12" s="27" t="n"/>
+      <c r="AQ12" s="27" t="n"/>
       <c r="AR12" s="27" t="n"/>
-      <c r="AS12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AS12" s="27" t="n"/>
       <c r="AT12" s="27" t="n"/>
       <c r="AU12" s="27" t="n"/>
-      <c r="AV12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AV12" s="27" t="n"/>
       <c r="AW12" s="27" t="n"/>
       <c r="AX12" s="27" t="n"/>
       <c r="AY12" s="27" t="n"/>
@@ -11963,42 +12451,34 @@
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>INSERT:</t>
+          <t>MARIE</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
-      <c r="H13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
       <c r="J13" s="27" t="n"/>
       <c r="K13" s="27" t="n"/>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N13" s="27" t="n"/>
       <c r="O13" s="27" t="n"/>
       <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="27" t="n"/>
+      <c r="Q13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R13" s="27" t="n"/>
       <c r="S13" s="27" t="n"/>
       <c r="T13" s="27" t="n"/>
@@ -12011,25 +12491,13 @@
       <c r="AA13" s="27" t="n"/>
       <c r="AB13" s="27" t="n"/>
       <c r="AC13" s="27" t="n"/>
-      <c r="AD13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD13" s="27" t="n"/>
       <c r="AE13" s="27" t="n"/>
       <c r="AF13" s="27" t="n"/>
       <c r="AG13" s="27" t="n"/>
-      <c r="AH13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH13" s="27" t="n"/>
       <c r="AI13" s="27" t="n"/>
-      <c r="AJ13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AJ13" s="27" t="n"/>
       <c r="AK13" s="27" t="n"/>
       <c r="AL13" s="27" t="n"/>
       <c r="AM13" s="27" t="n"/>
@@ -12043,40 +12511,44 @@
       <c r="AU13" s="27" t="n"/>
       <c r="AV13" s="27" t="n"/>
       <c r="AW13" s="27" t="n"/>
-      <c r="AX13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX13" s="27" t="n"/>
       <c r="AY13" s="27" t="n"/>
       <c r="AZ13" s="27" t="n"/>
-      <c r="BA13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BA13" s="27" t="n"/>
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
       <c r="A14" s="41" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>WANG:</t>
+          <t>LOTTE</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="n"/>
+      <c r="G14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H14" s="27" t="n"/>
-      <c r="I14" s="27" t="n"/>
+      <c r="I14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="n"/>
+      <c r="K14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L14" s="27" t="n"/>
       <c r="M14" s="27" t="n"/>
       <c r="N14" s="27" t="n"/>
@@ -12090,11 +12562,7 @@
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
       <c r="X14" s="27" t="n"/>
-      <c r="Y14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y14" s="27" t="n"/>
       <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
       <c r="AB14" s="27" t="n"/>
@@ -12109,29 +12577,13 @@
       <c r="AK14" s="27" t="n"/>
       <c r="AL14" s="27" t="n"/>
       <c r="AM14" s="27" t="n"/>
-      <c r="AN14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AN14" s="27" t="n"/>
+      <c r="AO14" s="27" t="n"/>
       <c r="AP14" s="27" t="n"/>
       <c r="AQ14" s="27" t="n"/>
-      <c r="AR14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR14" s="27" t="n"/>
       <c r="AS14" s="27" t="n"/>
-      <c r="AT14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AT14" s="27" t="n"/>
       <c r="AU14" s="27" t="n"/>
       <c r="AV14" s="27" t="n"/>
       <c r="AW14" s="27" t="n"/>
@@ -12142,10 +12594,18 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="A15" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>3</v>
+      </c>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="n"/>
+      <c r="D15" s="26" t="inlineStr">
+        <is>
+          <t>AMB</t>
+        </is>
+      </c>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -12155,12 +12615,24 @@
       <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
       <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
+      <c r="N15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
-      <c r="Q15" s="27" t="n"/>
+      <c r="Q15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R15" s="27" t="n"/>
-      <c r="S15" s="27" t="n"/>
+      <c r="S15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T15" s="27" t="n"/>
       <c r="U15" s="27" t="n"/>
       <c r="V15" s="27" t="n"/>
@@ -12198,10 +12670,18 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="A16" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="n"/>
+      <c r="D16" s="26" t="inlineStr">
+        <is>
+          <t>HENRI</t>
+        </is>
+      </c>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
       <c r="G16" s="27" t="n"/>
@@ -12212,8 +12692,16 @@
       <c r="L16" s="27" t="n"/>
       <c r="M16" s="27" t="n"/>
       <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="n"/>
-      <c r="P16" s="27" t="n"/>
+      <c r="O16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q16" s="27" t="n"/>
       <c r="R16" s="27" t="n"/>
       <c r="S16" s="27" t="n"/>
@@ -14312,7 +14800,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="44" t="inlineStr"/>
+      <c r="D3" s="44" t="n"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -14371,11 +14859,7 @@
       <c r="AT3" s="56" t="n"/>
       <c r="AU3" s="56" t="n"/>
       <c r="AV3" s="57" t="n"/>
-      <c r="AW3" s="59" t="inlineStr">
-        <is>
-          <t>03/07/2022</t>
-        </is>
-      </c>
+      <c r="AW3" s="59" t="n"/>
       <c r="AX3" s="56" t="n"/>
       <c r="AY3" s="56" t="n"/>
       <c r="AZ3" s="56" t="n"/>
@@ -14611,18 +15095,10 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A8" s="41" t="n"/>
+      <c r="B8" s="24" t="n"/>
       <c r="C8" s="25" t="n"/>
-      <c r="D8" s="26" t="inlineStr">
-        <is>
-          <t>DONA TIM:</t>
-        </is>
-      </c>
+      <c r="D8" s="26" t="n"/>
       <c r="E8" s="27" t="n"/>
       <c r="F8" s="27" t="n"/>
       <c r="G8" s="27" t="n"/>
@@ -14653,11 +15129,7 @@
       <c r="AF8" s="27" t="n"/>
       <c r="AG8" s="27" t="n"/>
       <c r="AH8" s="27" t="n"/>
-      <c r="AI8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI8" s="27" t="n"/>
       <c r="AJ8" s="27" t="n"/>
       <c r="AK8" s="27" t="n"/>
       <c r="AL8" s="27" t="n"/>
@@ -14679,67 +15151,27 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n">
-        <v>49</v>
-      </c>
-      <c r="B9" s="24" t="n">
-        <v>19</v>
-      </c>
+      <c r="A9" s="41" t="n"/>
+      <c r="B9" s="24" t="n"/>
       <c r="C9" s="25" t="n"/>
-      <c r="D9" s="26" t="inlineStr">
-        <is>
-          <t>TIM:</t>
-        </is>
-      </c>
+      <c r="D9" s="26" t="n"/>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J9" s="27" t="n"/>
       <c r="K9" s="27" t="n"/>
-      <c r="L9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
       <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
+      <c r="S9" s="27" t="n"/>
       <c r="T9" s="27" t="n"/>
-      <c r="U9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U9" s="27" t="n"/>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
       <c r="X9" s="27" t="n"/>
@@ -14747,69 +15179,25 @@
       <c r="Z9" s="27" t="n"/>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
-      <c r="AC9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC9" s="27" t="n"/>
       <c r="AD9" s="27" t="n"/>
-      <c r="AE9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AH9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE9" s="27" t="n"/>
+      <c r="AF9" s="27" t="n"/>
+      <c r="AG9" s="27" t="n"/>
+      <c r="AH9" s="27" t="n"/>
+      <c r="AI9" s="27" t="n"/>
+      <c r="AJ9" s="27" t="n"/>
       <c r="AK9" s="27" t="n"/>
       <c r="AL9" s="27" t="n"/>
       <c r="AM9" s="27" t="n"/>
-      <c r="AN9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AN9" s="27" t="n"/>
       <c r="AO9" s="27" t="n"/>
       <c r="AP9" s="27" t="n"/>
       <c r="AQ9" s="27" t="n"/>
       <c r="AR9" s="27" t="n"/>
-      <c r="AS9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AS9" s="27" t="n"/>
+      <c r="AT9" s="27" t="n"/>
+      <c r="AU9" s="27" t="n"/>
       <c r="AV9" s="27" t="n"/>
       <c r="AW9" s="27" t="n"/>
       <c r="AX9" s="27" t="n"/>
@@ -14819,23 +15207,11 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A10" s="41" t="n"/>
+      <c r="B10" s="24" t="n"/>
       <c r="C10" s="25" t="n"/>
-      <c r="D10" s="26" t="inlineStr">
-        <is>
-          <t>HOME 3:</t>
-        </is>
-      </c>
-      <c r="E10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D10" s="26" t="n"/>
+      <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
@@ -14887,18 +15263,10 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="B11" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A11" s="41" t="n"/>
+      <c r="B11" s="24" t="n"/>
       <c r="C11" s="25" t="n"/>
-      <c r="D11" s="26" t="inlineStr">
-        <is>
-          <t>WANG:</t>
-        </is>
-      </c>
+      <c r="D11" s="26" t="n"/>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
@@ -14935,11 +15303,7 @@
       <c r="AL11" s="27" t="n"/>
       <c r="AM11" s="27" t="n"/>
       <c r="AN11" s="27" t="n"/>
-      <c r="AO11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AO11" s="27" t="n"/>
       <c r="AP11" s="27" t="n"/>
       <c r="AQ11" s="27" t="n"/>
       <c r="AR11" s="27" t="n"/>
@@ -14952,25 +15316,13 @@
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
       <c r="BA11" s="27" t="n"/>
-      <c r="BB11" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A12" s="41" t="n"/>
+      <c r="B12" s="24" t="n"/>
       <c r="C12" s="25" t="n"/>
-      <c r="D12" s="26" t="inlineStr">
-        <is>
-          <t>GUÍA 2:</t>
-        </is>
-      </c>
+      <c r="D12" s="26" t="n"/>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
@@ -14986,11 +15338,7 @@
       <c r="Q12" s="27" t="n"/>
       <c r="R12" s="27" t="n"/>
       <c r="S12" s="27" t="n"/>
-      <c r="T12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T12" s="27" t="n"/>
       <c r="U12" s="27" t="n"/>
       <c r="V12" s="27" t="n"/>
       <c r="W12" s="27" t="n"/>
@@ -15027,60 +15375,28 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n">
-        <v>57</v>
-      </c>
-      <c r="B13" s="24" t="n">
-        <v>9</v>
-      </c>
+      <c r="A13" s="41" t="n"/>
+      <c r="B13" s="24" t="n"/>
       <c r="C13" s="25" t="n"/>
-      <c r="D13" s="26" t="inlineStr">
-        <is>
-          <t>ANNA:</t>
-        </is>
-      </c>
+      <c r="D13" s="26" t="n"/>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
-      <c r="H13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
       <c r="J13" s="27" t="n"/>
       <c r="K13" s="27" t="n"/>
       <c r="L13" s="27" t="n"/>
       <c r="M13" s="27" t="n"/>
       <c r="N13" s="27" t="n"/>
-      <c r="O13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
       <c r="Q13" s="27" t="n"/>
       <c r="R13" s="27" t="n"/>
       <c r="S13" s="27" t="n"/>
-      <c r="T13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T13" s="27" t="n"/>
       <c r="U13" s="27" t="n"/>
-      <c r="V13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V13" s="27" t="n"/>
       <c r="W13" s="27" t="n"/>
       <c r="X13" s="27" t="n"/>
       <c r="Y13" s="27" t="n"/>
@@ -15097,28 +15413,16 @@
       <c r="AJ13" s="27" t="n"/>
       <c r="AK13" s="27" t="n"/>
       <c r="AL13" s="27" t="n"/>
-      <c r="AM13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AM13" s="27" t="n"/>
       <c r="AN13" s="27" t="n"/>
       <c r="AO13" s="27" t="n"/>
-      <c r="AP13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AP13" s="27" t="n"/>
       <c r="AQ13" s="27" t="n"/>
       <c r="AR13" s="27" t="n"/>
       <c r="AS13" s="27" t="n"/>
       <c r="AT13" s="27" t="n"/>
       <c r="AU13" s="27" t="n"/>
-      <c r="AV13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AV13" s="27" t="n"/>
       <c r="AW13" s="27" t="n"/>
       <c r="AX13" s="27" t="n"/>
       <c r="AY13" s="27" t="n"/>
@@ -15127,94 +15431,34 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n">
-        <v>126</v>
-      </c>
-      <c r="B14" s="24" t="n">
-        <v>19</v>
-      </c>
+      <c r="A14" s="41" t="n"/>
+      <c r="B14" s="24" t="n"/>
       <c r="C14" s="25" t="n"/>
-      <c r="D14" s="26" t="inlineStr">
-        <is>
-          <t>BEN:</t>
-        </is>
-      </c>
-      <c r="E14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D14" s="26" t="n"/>
+      <c r="E14" s="27" t="n"/>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K14" s="27" t="n"/>
       <c r="L14" s="27" t="n"/>
-      <c r="M14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M14" s="27" t="n"/>
       <c r="N14" s="27" t="n"/>
-      <c r="O14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O14" s="27" t="n"/>
       <c r="P14" s="27" t="n"/>
       <c r="Q14" s="27" t="n"/>
-      <c r="R14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="R14" s="27" t="n"/>
+      <c r="S14" s="27" t="n"/>
       <c r="T14" s="27" t="n"/>
       <c r="U14" s="27" t="n"/>
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
-      <c r="X14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="X14" s="27" t="n"/>
+      <c r="Y14" s="27" t="n"/>
+      <c r="Z14" s="27" t="n"/>
+      <c r="AA14" s="27" t="n"/>
+      <c r="AB14" s="27" t="n"/>
       <c r="AC14" s="27" t="n"/>
       <c r="AD14" s="27" t="n"/>
       <c r="AE14" s="27" t="n"/>
@@ -15223,62 +15467,30 @@
       <c r="AH14" s="27" t="n"/>
       <c r="AI14" s="27" t="n"/>
       <c r="AJ14" s="27" t="n"/>
-      <c r="AK14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AK14" s="27" t="n"/>
+      <c r="AL14" s="27" t="n"/>
+      <c r="AM14" s="27" t="n"/>
       <c r="AN14" s="27" t="n"/>
       <c r="AO14" s="27" t="n"/>
       <c r="AP14" s="27" t="n"/>
-      <c r="AQ14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AQ14" s="27" t="n"/>
       <c r="AR14" s="27" t="n"/>
       <c r="AS14" s="27" t="n"/>
       <c r="AT14" s="27" t="n"/>
       <c r="AU14" s="27" t="n"/>
       <c r="AV14" s="27" t="n"/>
       <c r="AW14" s="27" t="n"/>
-      <c r="AX14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX14" s="27" t="n"/>
       <c r="AY14" s="27" t="n"/>
       <c r="AZ14" s="27" t="n"/>
-      <c r="BA14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BA14" s="27" t="n"/>
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n">
-        <v>42</v>
-      </c>
-      <c r="B15" s="24" t="n">
-        <v>7</v>
-      </c>
+      <c r="A15" s="41" t="n"/>
+      <c r="B15" s="24" t="n"/>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="inlineStr">
-        <is>
-          <t>INSERT:</t>
-        </is>
-      </c>
+      <c r="D15" s="26" t="n"/>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -15288,11 +15500,7 @@
       <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
       <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N15" s="27" t="n"/>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
       <c r="Q15" s="27" t="n"/>
@@ -15301,22 +15509,14 @@
       <c r="T15" s="27" t="n"/>
       <c r="U15" s="27" t="n"/>
       <c r="V15" s="27" t="n"/>
-      <c r="W15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W15" s="27" t="n"/>
       <c r="X15" s="27" t="n"/>
       <c r="Y15" s="27" t="n"/>
       <c r="Z15" s="27" t="n"/>
       <c r="AA15" s="27" t="n"/>
       <c r="AB15" s="27" t="n"/>
       <c r="AC15" s="27" t="n"/>
-      <c r="AD15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD15" s="27" t="n"/>
       <c r="AE15" s="27" t="n"/>
       <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
@@ -15330,47 +15530,23 @@
       <c r="AO15" s="27" t="n"/>
       <c r="AP15" s="27" t="n"/>
       <c r="AQ15" s="27" t="n"/>
-      <c r="AR15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR15" s="27" t="n"/>
       <c r="AS15" s="27" t="n"/>
       <c r="AT15" s="27" t="n"/>
       <c r="AU15" s="27" t="n"/>
       <c r="AV15" s="27" t="n"/>
-      <c r="AW15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AW15" s="27" t="n"/>
       <c r="AX15" s="27" t="n"/>
-      <c r="AY15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AZ15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY15" s="27" t="n"/>
+      <c r="AZ15" s="27" t="n"/>
       <c r="BA15" s="27" t="n"/>
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A16" s="41" t="n"/>
+      <c r="B16" s="24" t="n"/>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="inlineStr">
-        <is>
-          <t>TRISTAN:</t>
-        </is>
-      </c>
+      <c r="D16" s="26" t="n"/>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
       <c r="G16" s="27" t="n"/>
@@ -15397,19 +15573,11 @@
       <c r="AB16" s="27" t="n"/>
       <c r="AC16" s="27" t="n"/>
       <c r="AD16" s="27" t="n"/>
-      <c r="AE16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE16" s="27" t="n"/>
       <c r="AF16" s="27" t="n"/>
       <c r="AG16" s="27" t="n"/>
       <c r="AH16" s="27" t="n"/>
-      <c r="AI16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI16" s="27" t="n"/>
       <c r="AJ16" s="27" t="n"/>
       <c r="AK16" s="27" t="n"/>
       <c r="AL16" s="27" t="n"/>
@@ -17489,7 +17657,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="44" t="inlineStr"/>
+      <c r="D3" s="44" t="n"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -17548,11 +17716,7 @@
       <c r="AT3" s="56" t="n"/>
       <c r="AU3" s="56" t="n"/>
       <c r="AV3" s="57" t="n"/>
-      <c r="AW3" s="59" t="inlineStr">
-        <is>
-          <t>03/07/2022</t>
-        </is>
-      </c>
+      <c r="AW3" s="59" t="n"/>
       <c r="AX3" s="56" t="n"/>
       <c r="AY3" s="56" t="n"/>
       <c r="AZ3" s="56" t="n"/>
@@ -17788,24 +17952,12 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n">
-        <v>49</v>
-      </c>
-      <c r="B8" s="24" t="n">
-        <v>8</v>
-      </c>
+      <c r="A8" s="41" t="n"/>
+      <c r="B8" s="24" t="n"/>
       <c r="C8" s="25" t="n"/>
-      <c r="D8" s="26" t="inlineStr">
-        <is>
-          <t>TIM:</t>
-        </is>
-      </c>
+      <c r="D8" s="26" t="n"/>
       <c r="E8" s="27" t="n"/>
-      <c r="F8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F8" s="27" t="n"/>
       <c r="G8" s="27" t="n"/>
       <c r="H8" s="27" t="n"/>
       <c r="I8" s="27" t="n"/>
@@ -17814,56 +17966,28 @@
       <c r="L8" s="27" t="n"/>
       <c r="M8" s="27" t="n"/>
       <c r="N8" s="27" t="n"/>
-      <c r="O8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
       <c r="Q8" s="27" t="n"/>
       <c r="R8" s="27" t="n"/>
       <c r="S8" s="27" t="n"/>
       <c r="T8" s="27" t="n"/>
       <c r="U8" s="27" t="n"/>
-      <c r="V8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V8" s="27" t="n"/>
       <c r="W8" s="27" t="n"/>
-      <c r="X8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="X8" s="27" t="n"/>
+      <c r="Y8" s="27" t="n"/>
       <c r="Z8" s="27" t="n"/>
       <c r="AA8" s="27" t="n"/>
       <c r="AB8" s="27" t="n"/>
       <c r="AC8" s="27" t="n"/>
-      <c r="AD8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD8" s="27" t="n"/>
       <c r="AE8" s="27" t="n"/>
       <c r="AF8" s="27" t="n"/>
       <c r="AG8" s="27" t="n"/>
       <c r="AH8" s="27" t="n"/>
       <c r="AI8" s="27" t="n"/>
-      <c r="AJ8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AJ8" s="27" t="n"/>
       <c r="AK8" s="27" t="n"/>
       <c r="AL8" s="27" t="n"/>
       <c r="AM8" s="27" t="n"/>
@@ -17884,18 +18008,10 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A9" s="41" t="n"/>
+      <c r="B9" s="24" t="n"/>
       <c r="C9" s="25" t="n"/>
-      <c r="D9" s="26" t="inlineStr">
-        <is>
-          <t>GUÍA 2:</t>
-        </is>
-      </c>
+      <c r="D9" s="26" t="n"/>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
@@ -17923,11 +18039,7 @@
       <c r="AC9" s="27" t="n"/>
       <c r="AD9" s="27" t="n"/>
       <c r="AE9" s="27" t="n"/>
-      <c r="AF9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AF9" s="27" t="n"/>
       <c r="AG9" s="27" t="n"/>
       <c r="AH9" s="27" t="n"/>
       <c r="AI9" s="27" t="n"/>
@@ -17952,92 +18064,40 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n">
-        <v>57</v>
-      </c>
-      <c r="B10" s="24" t="n">
-        <v>11</v>
-      </c>
+      <c r="A10" s="41" t="n"/>
+      <c r="B10" s="24" t="n"/>
       <c r="C10" s="25" t="n"/>
-      <c r="D10" s="26" t="inlineStr">
-        <is>
-          <t>ANNA:</t>
-        </is>
-      </c>
-      <c r="E10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D10" s="26" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
       <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="27" t="n"/>
-      <c r="L10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
       <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O10" s="27" t="n"/>
       <c r="P10" s="27" t="n"/>
       <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
-      <c r="T10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T10" s="27" t="n"/>
       <c r="U10" s="27" t="n"/>
-      <c r="V10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V10" s="27" t="n"/>
       <c r="W10" s="27" t="n"/>
       <c r="X10" s="27" t="n"/>
       <c r="Y10" s="27" t="n"/>
-      <c r="Z10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z10" s="27" t="n"/>
       <c r="AA10" s="27" t="n"/>
       <c r="AB10" s="27" t="n"/>
       <c r="AC10" s="27" t="n"/>
       <c r="AD10" s="27" t="n"/>
       <c r="AE10" s="27" t="n"/>
-      <c r="AF10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AF10" s="27" t="n"/>
       <c r="AG10" s="27" t="n"/>
-      <c r="AH10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH10" s="27" t="n"/>
       <c r="AI10" s="27" t="n"/>
       <c r="AJ10" s="27" t="n"/>
       <c r="AK10" s="27" t="n"/>
@@ -18060,18 +18120,10 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A11" s="41" t="n"/>
+      <c r="B11" s="24" t="n"/>
       <c r="C11" s="25" t="n"/>
-      <c r="D11" s="26" t="inlineStr">
-        <is>
-          <t>GUÍA 3:</t>
-        </is>
-      </c>
+      <c r="D11" s="26" t="n"/>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
@@ -18079,11 +18131,7 @@
       <c r="I11" s="27" t="n"/>
       <c r="J11" s="27" t="n"/>
       <c r="K11" s="27" t="n"/>
-      <c r="L11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L11" s="27" t="n"/>
       <c r="M11" s="27" t="n"/>
       <c r="N11" s="27" t="n"/>
       <c r="O11" s="27" t="n"/>
@@ -18128,113 +18176,45 @@
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n">
-        <v>126</v>
-      </c>
-      <c r="B12" s="24" t="n">
-        <v>15</v>
-      </c>
+      <c r="A12" s="41" t="n"/>
+      <c r="B12" s="24" t="n"/>
       <c r="C12" s="25" t="n"/>
-      <c r="D12" s="26" t="inlineStr">
-        <is>
-          <t>BEN:</t>
-        </is>
-      </c>
+      <c r="D12" s="26" t="n"/>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
-      <c r="H12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
       <c r="J12" s="27" t="n"/>
       <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L12" s="27" t="n"/>
       <c r="M12" s="27" t="n"/>
       <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O12" s="27" t="n"/>
       <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q12" s="27" t="n"/>
       <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S12" s="27" t="n"/>
       <c r="T12" s="27" t="n"/>
-      <c r="U12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U12" s="27" t="n"/>
       <c r="V12" s="27" t="n"/>
-      <c r="W12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W12" s="27" t="n"/>
+      <c r="X12" s="27" t="n"/>
       <c r="Y12" s="27" t="n"/>
       <c r="Z12" s="27" t="n"/>
-      <c r="AA12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA12" s="27" t="n"/>
       <c r="AB12" s="27" t="n"/>
-      <c r="AC12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC12" s="27" t="n"/>
       <c r="AD12" s="27" t="n"/>
       <c r="AE12" s="27" t="n"/>
       <c r="AF12" s="27" t="n"/>
-      <c r="AG12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AG12" s="27" t="n"/>
       <c r="AH12" s="27" t="n"/>
       <c r="AI12" s="27" t="n"/>
       <c r="AJ12" s="27" t="n"/>
-      <c r="AK12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AK12" s="27" t="n"/>
+      <c r="AL12" s="27" t="n"/>
+      <c r="AM12" s="27" t="n"/>
       <c r="AN12" s="27" t="n"/>
       <c r="AO12" s="27" t="n"/>
       <c r="AP12" s="27" t="n"/>
@@ -18252,18 +18232,10 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A13" s="41" t="n"/>
+      <c r="B13" s="24" t="n"/>
       <c r="C13" s="25" t="n"/>
-      <c r="D13" s="26" t="inlineStr">
-        <is>
-          <t>AMBIENTE:</t>
-        </is>
-      </c>
+      <c r="D13" s="26" t="n"/>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
@@ -18299,11 +18271,7 @@
       <c r="AK13" s="27" t="n"/>
       <c r="AL13" s="27" t="n"/>
       <c r="AM13" s="27" t="n"/>
-      <c r="AN13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AN13" s="27" t="n"/>
       <c r="AO13" s="27" t="n"/>
       <c r="AP13" s="27" t="n"/>
       <c r="AQ13" s="27" t="n"/>
@@ -18320,33 +18288,17 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n">
-        <v>42</v>
-      </c>
-      <c r="B14" s="24" t="n">
-        <v>4</v>
-      </c>
+      <c r="A14" s="41" t="n"/>
+      <c r="B14" s="24" t="n"/>
       <c r="C14" s="25" t="n"/>
-      <c r="D14" s="26" t="inlineStr">
-        <is>
-          <t>INSERT:</t>
-        </is>
-      </c>
+      <c r="D14" s="26" t="n"/>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K14" s="27" t="n"/>
       <c r="L14" s="27" t="n"/>
       <c r="M14" s="27" t="n"/>
       <c r="N14" s="27" t="n"/>
@@ -18363,18 +18315,10 @@
       <c r="Y14" s="27" t="n"/>
       <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
-      <c r="AB14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB14" s="27" t="n"/>
       <c r="AC14" s="27" t="n"/>
       <c r="AD14" s="27" t="n"/>
-      <c r="AE14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE14" s="27" t="n"/>
       <c r="AF14" s="27" t="n"/>
       <c r="AG14" s="27" t="n"/>
       <c r="AH14" s="27" t="n"/>
@@ -18400,40 +18344,20 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" s="24" t="n">
-        <v>4</v>
-      </c>
+      <c r="A15" s="41" t="n"/>
+      <c r="B15" s="24" t="n"/>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="inlineStr">
-        <is>
-          <t>WANG:</t>
-        </is>
-      </c>
+      <c r="D15" s="26" t="n"/>
       <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
       <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J15" s="27" t="n"/>
       <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
       <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N15" s="27" t="n"/>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
       <c r="Q15" s="27" t="n"/>
@@ -18454,11 +18378,7 @@
       <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
       <c r="AH15" s="27" t="n"/>
-      <c r="AI15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI15" s="27" t="n"/>
       <c r="AJ15" s="27" t="n"/>
       <c r="AK15" s="27" t="n"/>
       <c r="AL15" s="27" t="n"/>

--- a/grafic_output.xlsx
+++ b/grafic_output.xlsx
@@ -1676,7 +1676,11 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="44" t="inlineStr"/>
+      <c r="D3" s="44" t="inlineStr">
+        <is>
+          <t>THE TEACHER</t>
+        </is>
+      </c>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -1976,83 +1980,219 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 3</t>
+          <t>JENNA</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
-      <c r="F8" s="27" t="n"/>
-      <c r="G8" s="27" t="n"/>
-      <c r="H8" s="27" t="n"/>
-      <c r="I8" s="27" t="n"/>
+      <c r="F8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J8" s="27" t="n"/>
       <c r="K8" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="L8" s="27" t="n"/>
+      <c r="L8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M8" s="27" t="n"/>
-      <c r="N8" s="27" t="n"/>
+      <c r="N8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O8" s="27" t="n"/>
-      <c r="P8" s="27" t="n"/>
-      <c r="Q8" s="27" t="n"/>
+      <c r="P8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R8" s="27" t="n"/>
       <c r="S8" s="27" t="n"/>
-      <c r="T8" s="27" t="n"/>
-      <c r="U8" s="27" t="n"/>
-      <c r="V8" s="27" t="n"/>
-      <c r="W8" s="27" t="n"/>
+      <c r="T8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X8" s="27" t="n"/>
-      <c r="Y8" s="27" t="n"/>
-      <c r="Z8" s="27" t="n"/>
-      <c r="AA8" s="27" t="n"/>
-      <c r="AB8" s="27" t="n"/>
-      <c r="AC8" s="27" t="n"/>
+      <c r="Y8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD8" s="27" t="n"/>
-      <c r="AE8" s="27" t="n"/>
+      <c r="AE8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF8" s="27" t="n"/>
-      <c r="AG8" s="27" t="n"/>
-      <c r="AH8" s="27" t="n"/>
-      <c r="AI8" s="27" t="n"/>
-      <c r="AJ8" s="27" t="n"/>
+      <c r="AG8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AH8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AJ8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK8" s="27" t="n"/>
-      <c r="AL8" s="27" t="n"/>
-      <c r="AM8" s="27" t="n"/>
-      <c r="AN8" s="27" t="n"/>
-      <c r="AO8" s="27" t="n"/>
+      <c r="AL8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AM8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP8" s="27" t="n"/>
-      <c r="AQ8" s="27" t="n"/>
+      <c r="AQ8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR8" s="27" t="n"/>
       <c r="AS8" s="27" t="n"/>
-      <c r="AT8" s="27" t="n"/>
-      <c r="AU8" s="27" t="n"/>
-      <c r="AV8" s="27" t="n"/>
+      <c r="AT8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AV8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AW8" s="27" t="n"/>
-      <c r="AX8" s="27" t="n"/>
+      <c r="AX8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AY8" s="27" t="n"/>
-      <c r="AZ8" s="27" t="n"/>
-      <c r="BA8" s="27" t="n"/>
-      <c r="BB8" s="32" t="n"/>
+      <c r="AZ8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BA8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BB8" s="32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>ANTON</t>
+          <t>INSERTO</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
@@ -2061,17 +2201,9 @@
         </is>
       </c>
       <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I9" s="27" t="n"/>
       <c r="J9" s="27" t="n"/>
       <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
@@ -2081,21 +2213,9 @@
       <c r="P9" s="27" t="n"/>
       <c r="Q9" s="27" t="n"/>
       <c r="R9" s="27" t="n"/>
-      <c r="S9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S9" s="27" t="n"/>
+      <c r="T9" s="27" t="n"/>
+      <c r="U9" s="27" t="n"/>
       <c r="V9" s="27" t="n"/>
       <c r="W9" s="27" t="n"/>
       <c r="X9" s="27" t="n"/>
@@ -2104,9 +2224,17 @@
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
-      <c r="AD9" s="27" t="n"/>
+      <c r="AD9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AE9" s="27" t="n"/>
-      <c r="AF9" s="27" t="n"/>
+      <c r="AF9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG9" s="27" t="n"/>
       <c r="AH9" s="27" t="n"/>
       <c r="AI9" s="27" t="n"/>
@@ -2125,32 +2253,32 @@
       <c r="AV9" s="27" t="n"/>
       <c r="AW9" s="27" t="n"/>
       <c r="AX9" s="27" t="n"/>
-      <c r="AY9" s="27" t="n"/>
+      <c r="AY9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ9" s="27" t="n"/>
       <c r="BA9" s="27" t="n"/>
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>TÍTULO</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H10" s="27" t="n"/>
       <c r="I10" s="27" t="n"/>
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="27" t="n"/>
@@ -2163,21 +2291,49 @@
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="n"/>
-      <c r="V10" s="27" t="n"/>
+      <c r="U10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W10" s="27" t="n"/>
       <c r="X10" s="27" t="n"/>
       <c r="Y10" s="27" t="n"/>
       <c r="Z10" s="27" t="n"/>
       <c r="AA10" s="27" t="n"/>
       <c r="AB10" s="27" t="n"/>
-      <c r="AC10" s="27" t="n"/>
+      <c r="AC10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD10" s="27" t="n"/>
-      <c r="AE10" s="27" t="n"/>
+      <c r="AE10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AF10" s="27" t="n"/>
-      <c r="AG10" s="27" t="n"/>
-      <c r="AH10" s="27" t="n"/>
-      <c r="AI10" s="27" t="n"/>
+      <c r="AG10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AH10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ10" s="27" t="n"/>
       <c r="AK10" s="27" t="n"/>
       <c r="AL10" s="27" t="n"/>
@@ -2200,15 +2356,15 @@
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
+          <t>AD LIBS</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -2216,29 +2372,37 @@
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
       <c r="I11" s="27" t="n"/>
-      <c r="J11" s="27" t="n"/>
+      <c r="J11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K11" s="27" t="n"/>
       <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="n"/>
+      <c r="M11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N11" s="27" t="n"/>
-      <c r="O11" s="27" t="n"/>
+      <c r="O11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P11" s="27" t="n"/>
       <c r="Q11" s="27" t="n"/>
       <c r="R11" s="27" t="n"/>
       <c r="S11" s="27" t="n"/>
       <c r="T11" s="27" t="n"/>
       <c r="U11" s="27" t="n"/>
-      <c r="V11" s="27" t="inlineStr">
+      <c r="V11" s="27" t="n"/>
+      <c r="W11" s="27" t="n"/>
+      <c r="X11" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="W11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X11" s="27" t="n"/>
       <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
       <c r="AA11" s="27" t="n"/>
@@ -2251,24 +2415,48 @@
       <c r="AH11" s="27" t="n"/>
       <c r="AI11" s="27" t="n"/>
       <c r="AJ11" s="27" t="n"/>
-      <c r="AK11" s="27" t="n"/>
-      <c r="AL11" s="27" t="n"/>
+      <c r="AK11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM11" s="27" t="n"/>
-      <c r="AN11" s="27" t="n"/>
-      <c r="AO11" s="27" t="n"/>
-      <c r="AP11" s="27" t="n"/>
+      <c r="AN11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AQ11" s="27" t="n"/>
-      <c r="AR11" s="27" t="n"/>
+      <c r="AR11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AS11" s="27" t="n"/>
-      <c r="AT11" s="27" t="n"/>
+      <c r="AT11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AU11" s="27" t="n"/>
       <c r="AV11" s="27" t="n"/>
       <c r="AW11" s="27" t="n"/>
-      <c r="AX11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX11" s="27" t="n"/>
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
       <c r="BA11" s="27" t="n"/>
@@ -2276,15 +2464,15 @@
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 2</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -2293,23 +2481,43 @@
       <c r="H12" s="27" t="n"/>
       <c r="I12" s="27" t="n"/>
       <c r="J12" s="27" t="n"/>
-      <c r="K12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K12" s="27" t="n"/>
       <c r="L12" s="27" t="n"/>
       <c r="M12" s="27" t="n"/>
       <c r="N12" s="27" t="n"/>
       <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="n"/>
+      <c r="P12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q12" s="27" t="n"/>
-      <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="n"/>
+      <c r="R12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T12" s="27" t="n"/>
-      <c r="U12" s="27" t="n"/>
-      <c r="V12" s="27" t="n"/>
-      <c r="W12" s="27" t="n"/>
+      <c r="U12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X12" s="27" t="n"/>
       <c r="Y12" s="27" t="n"/>
       <c r="Z12" s="27" t="n"/>
@@ -2344,15 +2552,15 @@
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>PROFESORA</t>
+          <t>PAULINE</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -2366,20 +2574,32 @@
       <c r="M13" s="27" t="n"/>
       <c r="N13" s="27" t="n"/>
       <c r="O13" s="27" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="27" t="n"/>
+      <c r="P13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R13" s="27" t="n"/>
       <c r="S13" s="27" t="n"/>
-      <c r="T13" s="27" t="n"/>
+      <c r="T13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U13" s="27" t="n"/>
       <c r="V13" s="27" t="n"/>
-      <c r="W13" s="27" t="n"/>
+      <c r="W13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X13" s="27" t="n"/>
-      <c r="Y13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y13" s="27" t="n"/>
       <c r="Z13" s="27" t="n"/>
       <c r="AA13" s="27" t="n"/>
       <c r="AB13" s="27" t="n"/>
@@ -2412,15 +2632,15 @@
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
       <c r="A14" s="41" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>AMBIENTE HOMBRES</t>
+          <t>JACK</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
@@ -2434,20 +2654,32 @@
       <c r="M14" s="27" t="n"/>
       <c r="N14" s="27" t="n"/>
       <c r="O14" s="27" t="n"/>
-      <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="27" t="n"/>
-      <c r="R14" s="27" t="n"/>
-      <c r="S14" s="27" t="n"/>
+      <c r="P14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T14" s="27" t="n"/>
       <c r="U14" s="27" t="n"/>
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
       <c r="X14" s="27" t="n"/>
-      <c r="Y14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y14" s="27" t="n"/>
       <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
       <c r="AB14" s="27" t="n"/>
@@ -2480,15 +2712,15 @@
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
       <c r="A15" s="41" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B15" s="24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>ADNAN</t>
         </is>
       </c>
       <c r="E15" s="27" t="n"/>
@@ -2497,44 +2729,24 @@
       <c r="H15" s="27" t="n"/>
       <c r="I15" s="27" t="n"/>
       <c r="J15" s="27" t="n"/>
-      <c r="K15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
       <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N15" s="27" t="n"/>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
       <c r="Q15" s="27" t="n"/>
-      <c r="R15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="R15" s="27" t="n"/>
       <c r="S15" s="27" t="n"/>
       <c r="T15" s="27" t="n"/>
       <c r="U15" s="27" t="n"/>
       <c r="V15" s="27" t="n"/>
       <c r="W15" s="27" t="n"/>
       <c r="X15" s="27" t="n"/>
-      <c r="Y15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y15" s="27" t="n"/>
       <c r="Z15" s="27" t="n"/>
       <c r="AA15" s="27" t="n"/>
-      <c r="AB15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB15" s="27" t="n"/>
       <c r="AC15" s="27" t="n"/>
       <c r="AD15" s="27" t="n"/>
       <c r="AE15" s="27" t="n"/>
@@ -2546,24 +2758,28 @@
       <c r="AK15" s="27" t="n"/>
       <c r="AL15" s="27" t="n"/>
       <c r="AM15" s="27" t="n"/>
-      <c r="AN15" s="27" t="n"/>
-      <c r="AO15" s="27" t="n"/>
+      <c r="AN15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP15" s="27" t="n"/>
       <c r="AQ15" s="27" t="n"/>
-      <c r="AR15" s="27" t="inlineStr">
+      <c r="AR15" s="27" t="n"/>
+      <c r="AS15" s="27" t="n"/>
+      <c r="AT15" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AS15" s="27" t="n"/>
-      <c r="AT15" s="27" t="n"/>
       <c r="AU15" s="27" t="n"/>
       <c r="AV15" s="27" t="n"/>
-      <c r="AW15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AW15" s="27" t="n"/>
       <c r="AX15" s="27" t="n"/>
       <c r="AY15" s="27" t="n"/>
       <c r="AZ15" s="27" t="n"/>
@@ -2572,15 +2788,15 @@
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
       <c r="A16" s="41" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B16" s="24" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>OTTO</t>
+          <t>KYLE</t>
         </is>
       </c>
       <c r="E16" s="27" t="n"/>
@@ -2592,130 +2808,82 @@
       <c r="K16" s="27" t="n"/>
       <c r="L16" s="27" t="n"/>
       <c r="M16" s="27" t="n"/>
-      <c r="N16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
       <c r="Q16" s="27" t="n"/>
       <c r="R16" s="27" t="n"/>
       <c r="S16" s="27" t="n"/>
       <c r="T16" s="27" t="n"/>
-      <c r="U16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U16" s="27" t="n"/>
+      <c r="V16" s="27" t="n"/>
+      <c r="W16" s="27" t="n"/>
       <c r="X16" s="27" t="n"/>
       <c r="Y16" s="27" t="n"/>
-      <c r="Z16" s="27" t="n"/>
+      <c r="Z16" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA16" s="27" t="n"/>
       <c r="AB16" s="27" t="n"/>
-      <c r="AC16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC16" s="27" t="n"/>
       <c r="AD16" s="27" t="n"/>
       <c r="AE16" s="27" t="n"/>
       <c r="AF16" s="27" t="n"/>
       <c r="AG16" s="27" t="n"/>
       <c r="AH16" s="27" t="n"/>
       <c r="AI16" s="27" t="n"/>
-      <c r="AJ16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AJ16" s="27" t="n"/>
       <c r="AK16" s="27" t="n"/>
       <c r="AL16" s="27" t="n"/>
       <c r="AM16" s="27" t="n"/>
       <c r="AN16" s="27" t="n"/>
-      <c r="AO16" s="27" t="inlineStr">
+      <c r="AO16" s="27" t="n"/>
+      <c r="AP16" s="27" t="n"/>
+      <c r="AQ16" s="27" t="n"/>
+      <c r="AR16" s="27" t="n"/>
+      <c r="AS16" s="27" t="n"/>
+      <c r="AT16" s="27" t="n"/>
+      <c r="AU16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AP16" s="27" t="n"/>
-      <c r="AQ16" s="27" t="inlineStr">
+      <c r="AV16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AR16" s="27" t="inlineStr">
+      <c r="AW16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AS16" s="27" t="inlineStr">
+      <c r="AX16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AT16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AV16" s="27" t="n"/>
-      <c r="AW16" s="27" t="n"/>
-      <c r="AX16" s="27" t="n"/>
       <c r="AY16" s="27" t="n"/>
-      <c r="AZ16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BA16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AZ16" s="27" t="n"/>
+      <c r="BA16" s="27" t="n"/>
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
       <c r="A17" s="41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B17" s="24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="26" t="inlineStr">
         <is>
-          <t>AMBIENTE NIÑAS</t>
-        </is>
-      </c>
-      <c r="E17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>IZZY</t>
+        </is>
+      </c>
+      <c r="E17" s="27" t="n"/>
       <c r="F17" s="27" t="n"/>
       <c r="G17" s="27" t="n"/>
       <c r="H17" s="27" t="n"/>
@@ -2735,9 +2903,17 @@
       <c r="V17" s="27" t="n"/>
       <c r="W17" s="27" t="n"/>
       <c r="X17" s="27" t="n"/>
-      <c r="Y17" s="27" t="n"/>
+      <c r="Y17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z17" s="27" t="n"/>
-      <c r="AA17" s="27" t="n"/>
+      <c r="AA17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB17" s="27" t="n"/>
       <c r="AC17" s="27" t="n"/>
       <c r="AD17" s="27" t="n"/>
@@ -2746,17 +2922,37 @@
       <c r="AG17" s="27" t="n"/>
       <c r="AH17" s="27" t="n"/>
       <c r="AI17" s="27" t="n"/>
-      <c r="AJ17" s="27" t="n"/>
+      <c r="AJ17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK17" s="27" t="n"/>
-      <c r="AL17" s="27" t="n"/>
+      <c r="AL17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM17" s="27" t="n"/>
       <c r="AN17" s="27" t="n"/>
-      <c r="AO17" s="27" t="n"/>
+      <c r="AO17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP17" s="27" t="n"/>
       <c r="AQ17" s="27" t="n"/>
       <c r="AR17" s="27" t="n"/>
-      <c r="AS17" s="27" t="n"/>
-      <c r="AT17" s="27" t="n"/>
+      <c r="AS17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AU17" s="27" t="n"/>
       <c r="AV17" s="27" t="n"/>
       <c r="AW17" s="27" t="n"/>
@@ -2768,15 +2964,15 @@
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
       <c r="A18" s="41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="25" t="n"/>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE</t>
+          <t>ROGER</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
@@ -2785,11 +2981,7 @@
       <c r="H18" s="27" t="n"/>
       <c r="I18" s="27" t="n"/>
       <c r="J18" s="27" t="n"/>
-      <c r="K18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K18" s="27" t="n"/>
       <c r="L18" s="27" t="n"/>
       <c r="M18" s="27" t="n"/>
       <c r="N18" s="27" t="n"/>
@@ -2830,23 +3022,27 @@
       <c r="AW18" s="27" t="n"/>
       <c r="AX18" s="27" t="n"/>
       <c r="AY18" s="27" t="n"/>
-      <c r="AZ18" s="27" t="n"/>
-      <c r="BA18" s="27" t="n"/>
-      <c r="BB18" s="33" t="n"/>
+      <c r="AZ18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BA18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BB18" s="33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
-      <c r="A19" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A19" s="41" t="n"/>
+      <c r="B19" s="24" t="n"/>
       <c r="C19" s="25" t="n"/>
-      <c r="D19" s="26" t="inlineStr">
-        <is>
-          <t>HELENE</t>
-        </is>
-      </c>
+      <c r="D19" s="26" t="n"/>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
@@ -2859,11 +3055,7 @@
       <c r="N19" s="27" t="n"/>
       <c r="O19" s="27" t="n"/>
       <c r="P19" s="27" t="n"/>
-      <c r="Q19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q19" s="27" t="n"/>
       <c r="R19" s="27" t="n"/>
       <c r="S19" s="27" t="n"/>
       <c r="T19" s="27" t="n"/>
@@ -2884,11 +3076,7 @@
       <c r="AI19" s="27" t="n"/>
       <c r="AJ19" s="27" t="n"/>
       <c r="AK19" s="27" t="n"/>
-      <c r="AL19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AL19" s="27" t="n"/>
       <c r="AM19" s="27" t="n"/>
       <c r="AN19" s="27" t="n"/>
       <c r="AO19" s="27" t="n"/>
@@ -2907,23 +3095,11 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" s="41" t="n"/>
+      <c r="B20" s="24" t="n"/>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="inlineStr">
-        <is>
-          <t>NIÑERA</t>
-        </is>
-      </c>
-      <c r="E20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D20" s="26" t="n"/>
+      <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
@@ -2975,29 +3151,17 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A21" s="41" t="n"/>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="inlineStr">
-        <is>
-          <t>MUJER</t>
-        </is>
-      </c>
+      <c r="D21" s="26" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
       <c r="I21" s="27" t="n"/>
       <c r="J21" s="27" t="n"/>
-      <c r="K21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K21" s="27" t="n"/>
       <c r="L21" s="27" t="n"/>
       <c r="M21" s="27" t="n"/>
       <c r="N21" s="27" t="n"/>
@@ -3043,18 +3207,10 @@
       <c r="BB21" s="33" t="n"/>
     </row>
     <row r="22" ht="13.75" customHeight="1" s="19">
-      <c r="A22" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" s="24" t="n">
-        <v>3</v>
-      </c>
+      <c r="A22" s="41" t="n"/>
+      <c r="B22" s="24" t="n"/>
       <c r="C22" s="25" t="n"/>
-      <c r="D22" s="26" t="inlineStr">
-        <is>
-          <t>MARIE</t>
-        </is>
-      </c>
+      <c r="D22" s="26" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -3067,11 +3223,7 @@
       <c r="N22" s="27" t="n"/>
       <c r="O22" s="27" t="n"/>
       <c r="P22" s="27" t="n"/>
-      <c r="Q22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q22" s="27" t="n"/>
       <c r="R22" s="27" t="n"/>
       <c r="S22" s="27" t="n"/>
       <c r="T22" s="27" t="n"/>
@@ -3091,16 +3243,8 @@
       <c r="AH22" s="27" t="n"/>
       <c r="AI22" s="27" t="n"/>
       <c r="AJ22" s="27" t="n"/>
-      <c r="AK22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AK22" s="27" t="n"/>
+      <c r="AL22" s="27" t="n"/>
       <c r="AM22" s="27" t="n"/>
       <c r="AN22" s="27" t="n"/>
       <c r="AO22" s="27" t="n"/>
@@ -3119,18 +3263,10 @@
       <c r="BB22" s="33" t="n"/>
     </row>
     <row r="23" ht="13.75" customHeight="1" s="19">
-      <c r="A23" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A23" s="41" t="n"/>
+      <c r="B23" s="24" t="n"/>
       <c r="C23" s="25" t="n"/>
-      <c r="D23" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 1</t>
-        </is>
-      </c>
+      <c r="D23" s="26" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
@@ -3151,11 +3287,7 @@
       <c r="V23" s="27" t="n"/>
       <c r="W23" s="27" t="n"/>
       <c r="X23" s="27" t="n"/>
-      <c r="Y23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y23" s="27" t="n"/>
       <c r="Z23" s="27" t="n"/>
       <c r="AA23" s="27" t="n"/>
       <c r="AB23" s="27" t="n"/>
@@ -3187,18 +3319,10 @@
       <c r="BB23" s="33" t="n"/>
     </row>
     <row r="24" ht="13.75" customHeight="1" s="19">
-      <c r="A24" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="B24" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A24" s="41" t="n"/>
+      <c r="B24" s="24" t="n"/>
       <c r="C24" s="25" t="n"/>
-      <c r="D24" s="26" t="inlineStr">
-        <is>
-          <t>LUCIO</t>
-        </is>
-      </c>
+      <c r="D24" s="26" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -3206,11 +3330,7 @@
       <c r="I24" s="27" t="n"/>
       <c r="J24" s="27" t="n"/>
       <c r="K24" s="27" t="n"/>
-      <c r="L24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L24" s="27" t="n"/>
       <c r="M24" s="27" t="n"/>
       <c r="N24" s="27" t="n"/>
       <c r="O24" s="27" t="n"/>
@@ -3255,24 +3375,12 @@
       <c r="BB24" s="33" t="n"/>
     </row>
     <row r="25" ht="13.75" customHeight="1" s="19">
-      <c r="A25" s="41" t="n">
-        <v>7</v>
-      </c>
-      <c r="B25" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A25" s="41" t="n"/>
+      <c r="B25" s="24" t="n"/>
       <c r="C25" s="25" t="n"/>
-      <c r="D25" s="26" t="inlineStr">
-        <is>
-          <t>INSERTO</t>
-        </is>
-      </c>
+      <c r="D25" s="26" t="n"/>
       <c r="E25" s="27" t="n"/>
-      <c r="F25" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F25" s="27" t="n"/>
       <c r="G25" s="27" t="n"/>
       <c r="H25" s="27" t="n"/>
       <c r="I25" s="27" t="n"/>
@@ -3323,18 +3431,10 @@
       <c r="BB25" s="33" t="n"/>
     </row>
     <row r="26" ht="13.75" customHeight="1" s="19">
-      <c r="A26" s="41" t="n">
-        <v>26</v>
-      </c>
-      <c r="B26" s="24" t="n">
-        <v>8</v>
-      </c>
+      <c r="A26" s="41" t="n"/>
+      <c r="B26" s="24" t="n"/>
       <c r="C26" s="30" t="n"/>
-      <c r="D26" s="26" t="inlineStr">
-        <is>
-          <t>IDA</t>
-        </is>
-      </c>
+      <c r="D26" s="26" t="n"/>
       <c r="E26" s="27" t="n"/>
       <c r="F26" s="27" t="n"/>
       <c r="G26" s="27" t="n"/>
@@ -3359,31 +3459,11 @@
       <c r="Z26" s="27" t="n"/>
       <c r="AA26" s="27" t="n"/>
       <c r="AB26" s="27" t="n"/>
-      <c r="AC26" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD26" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE26" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF26" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG26" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC26" s="27" t="n"/>
+      <c r="AD26" s="27" t="n"/>
+      <c r="AE26" s="27" t="n"/>
+      <c r="AF26" s="27" t="n"/>
+      <c r="AG26" s="27" t="n"/>
       <c r="AH26" s="27" t="n"/>
       <c r="AI26" s="27" t="n"/>
       <c r="AJ26" s="27" t="n"/>
@@ -3402,239 +3482,71 @@
       <c r="AW26" s="27" t="n"/>
       <c r="AX26" s="27" t="n"/>
       <c r="AY26" s="27" t="n"/>
-      <c r="AZ26" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BA26" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BB26" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AZ26" s="27" t="n"/>
+      <c r="BA26" s="27" t="n"/>
+      <c r="BB26" s="33" t="n"/>
     </row>
     <row r="27" ht="13.75" customHeight="1" s="19">
-      <c r="A27" s="41" t="n">
-        <v>106</v>
-      </c>
-      <c r="B27" s="24" t="n">
-        <v>35</v>
-      </c>
+      <c r="A27" s="41" t="n"/>
+      <c r="B27" s="24" t="n"/>
       <c r="C27" s="25" t="n"/>
-      <c r="D27" s="26" t="inlineStr">
-        <is>
-          <t>HANNA</t>
-        </is>
-      </c>
-      <c r="E27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D27" s="26" t="n"/>
+      <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
-      <c r="I27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I27" s="27" t="n"/>
       <c r="J27" s="27" t="n"/>
       <c r="K27" s="27" t="n"/>
-      <c r="L27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
+      <c r="Q27" s="27" t="n"/>
       <c r="R27" s="27" t="n"/>
-      <c r="S27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S27" s="27" t="n"/>
+      <c r="T27" s="27" t="n"/>
+      <c r="U27" s="27" t="n"/>
       <c r="V27" s="27" t="n"/>
       <c r="W27" s="27" t="n"/>
       <c r="X27" s="27" t="n"/>
-      <c r="Y27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y27" s="27" t="n"/>
+      <c r="Z27" s="27" t="n"/>
       <c r="AA27" s="27" t="n"/>
       <c r="AB27" s="27" t="n"/>
-      <c r="AC27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC27" s="27" t="n"/>
+      <c r="AD27" s="27" t="n"/>
       <c r="AE27" s="27" t="n"/>
       <c r="AF27" s="27" t="n"/>
-      <c r="AG27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AG27" s="27" t="n"/>
       <c r="AH27" s="27" t="n"/>
-      <c r="AI27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI27" s="27" t="n"/>
+      <c r="AJ27" s="27" t="n"/>
+      <c r="AK27" s="27" t="n"/>
+      <c r="AL27" s="27" t="n"/>
       <c r="AM27" s="27" t="n"/>
-      <c r="AN27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AN27" s="27" t="n"/>
+      <c r="AO27" s="27" t="n"/>
       <c r="AP27" s="27" t="n"/>
-      <c r="AQ27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AU27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AV27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AX27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AZ27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BA27" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BB27" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AQ27" s="27" t="n"/>
+      <c r="AR27" s="27" t="n"/>
+      <c r="AS27" s="27" t="n"/>
+      <c r="AT27" s="27" t="n"/>
+      <c r="AU27" s="27" t="n"/>
+      <c r="AV27" s="27" t="n"/>
+      <c r="AW27" s="27" t="n"/>
+      <c r="AX27" s="27" t="n"/>
+      <c r="AY27" s="27" t="n"/>
+      <c r="AZ27" s="27" t="n"/>
+      <c r="BA27" s="27" t="n"/>
+      <c r="BB27" s="33" t="n"/>
     </row>
     <row r="28" ht="13.75" customHeight="1" s="19">
-      <c r="A28" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A28" s="41" t="n"/>
+      <c r="B28" s="24" t="n"/>
       <c r="C28" s="25" t="n"/>
-      <c r="D28" s="26" t="inlineStr">
-        <is>
-          <t>PROFESOR</t>
-        </is>
-      </c>
+      <c r="D28" s="26" t="n"/>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
@@ -3647,11 +3559,7 @@
       <c r="N28" s="27" t="n"/>
       <c r="O28" s="27" t="n"/>
       <c r="P28" s="27" t="n"/>
-      <c r="Q28" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q28" s="27" t="n"/>
       <c r="R28" s="27" t="n"/>
       <c r="S28" s="27" t="n"/>
       <c r="T28" s="27" t="n"/>
@@ -3691,18 +3599,10 @@
       <c r="BB28" s="33" t="n"/>
     </row>
     <row r="29" ht="13.75" customHeight="1" s="19">
-      <c r="A29" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A29" s="41" t="n"/>
+      <c r="B29" s="24" t="n"/>
       <c r="C29" s="25" t="n"/>
-      <c r="D29" s="26" t="inlineStr">
-        <is>
-          <t>LISA</t>
-        </is>
-      </c>
+      <c r="D29" s="26" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -3729,11 +3629,7 @@
       <c r="AB29" s="27" t="n"/>
       <c r="AC29" s="27" t="n"/>
       <c r="AD29" s="27" t="n"/>
-      <c r="AE29" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE29" s="27" t="n"/>
       <c r="AF29" s="27" t="n"/>
       <c r="AG29" s="27" t="n"/>
       <c r="AH29" s="27" t="n"/>
@@ -5089,7 +4985,11 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="44" t="inlineStr"/>
+      <c r="D3" s="44" t="inlineStr">
+        <is>
+          <t>THE TEACHER</t>
+        </is>
+      </c>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -5389,36 +5289,76 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
-        </is>
-      </c>
-      <c r="E8" s="27" t="n"/>
-      <c r="F8" s="27" t="n"/>
+          <t>JENNA</t>
+        </is>
+      </c>
+      <c r="E8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G8" s="27" t="n"/>
-      <c r="H8" s="27" t="n"/>
-      <c r="I8" s="27" t="n"/>
-      <c r="J8" s="27" t="n"/>
-      <c r="K8" s="27" t="n"/>
-      <c r="L8" s="27" t="n"/>
-      <c r="M8" s="27" t="n"/>
-      <c r="N8" s="27" t="n"/>
-      <c r="O8" s="27" t="n"/>
+      <c r="H8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P8" s="27" t="n"/>
-      <c r="Q8" s="27" t="n"/>
+      <c r="Q8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R8" s="27" t="n"/>
-      <c r="S8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S8" s="27" t="n"/>
       <c r="T8" s="27" t="inlineStr">
         <is>
           <t>X</t>
@@ -5435,7 +5375,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="X8" s="27" t="n"/>
+      <c r="X8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y8" s="27" t="inlineStr">
         <is>
           <t>X</t>
@@ -5447,41 +5391,113 @@
         </is>
       </c>
       <c r="AA8" s="27" t="n"/>
-      <c r="AB8" s="27" t="n"/>
+      <c r="AB8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC8" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AD8" s="27" t="n"/>
-      <c r="AE8" s="27" t="n"/>
-      <c r="AF8" s="27" t="n"/>
-      <c r="AG8" s="27" t="inlineStr">
+      <c r="AD8" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="AE8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG8" s="27" t="n"/>
       <c r="AH8" s="27" t="n"/>
       <c r="AI8" s="27" t="n"/>
       <c r="AJ8" s="27" t="n"/>
-      <c r="AK8" s="27" t="n"/>
+      <c r="AK8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AL8" s="27" t="n"/>
-      <c r="AM8" s="27" t="n"/>
+      <c r="AM8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN8" s="27" t="n"/>
-      <c r="AO8" s="27" t="n"/>
-      <c r="AP8" s="27" t="n"/>
-      <c r="AQ8" s="27" t="n"/>
-      <c r="AR8" s="27" t="n"/>
-      <c r="AS8" s="27" t="n"/>
-      <c r="AT8" s="27" t="n"/>
-      <c r="AU8" s="27" t="n"/>
-      <c r="AV8" s="27" t="n"/>
+      <c r="AO8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AS8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AT8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AV8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AW8" s="27" t="n"/>
-      <c r="AX8" s="27" t="n"/>
-      <c r="AY8" s="27" t="n"/>
-      <c r="AZ8" s="27" t="n"/>
-      <c r="BA8" s="27" t="n"/>
-      <c r="BB8" s="32" t="n"/>
+      <c r="AX8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AZ8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BA8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="BB8" s="32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
@@ -5493,7 +5509,7 @@
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>AGNES</t>
+          <t>ENTREVISTADORA 2</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -5502,11 +5518,7 @@
       <c r="H9" s="27" t="n"/>
       <c r="I9" s="27" t="n"/>
       <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K9" s="27" t="n"/>
       <c r="L9" s="27" t="n"/>
       <c r="M9" s="27" t="n"/>
       <c r="N9" s="27" t="n"/>
@@ -5521,7 +5533,11 @@
       <c r="W9" s="27" t="n"/>
       <c r="X9" s="27" t="n"/>
       <c r="Y9" s="27" t="n"/>
-      <c r="Z9" s="27" t="n"/>
+      <c r="Z9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
@@ -5553,46 +5569,42 @@
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>ANTON</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n"/>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="inlineStr">
+      <c r="H10" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="I10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K10" s="27" t="n"/>
       <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
       <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
@@ -5614,10 +5626,22 @@
       <c r="AJ10" s="27" t="n"/>
       <c r="AK10" s="27" t="n"/>
       <c r="AL10" s="27" t="n"/>
-      <c r="AM10" s="27" t="n"/>
+      <c r="AM10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AN10" s="27" t="n"/>
-      <c r="AO10" s="27" t="n"/>
-      <c r="AP10" s="27" t="n"/>
+      <c r="AO10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AP10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AQ10" s="27" t="n"/>
       <c r="AR10" s="27" t="n"/>
       <c r="AS10" s="27" t="n"/>
@@ -5633,25 +5657,25 @@
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>LUCIO</t>
+          <t>AD LIBS</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
-      <c r="H11" s="27" t="inlineStr">
+      <c r="G11" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="H11" s="27" t="n"/>
       <c r="I11" s="27" t="n"/>
       <c r="J11" s="27" t="n"/>
       <c r="K11" s="27" t="n"/>
@@ -5659,31 +5683,67 @@
       <c r="M11" s="27" t="n"/>
       <c r="N11" s="27" t="n"/>
       <c r="O11" s="27" t="n"/>
-      <c r="P11" s="27" t="n"/>
+      <c r="P11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Q11" s="27" t="n"/>
-      <c r="R11" s="27" t="n"/>
-      <c r="S11" s="27" t="n"/>
+      <c r="R11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T11" s="27" t="n"/>
-      <c r="U11" s="27" t="n"/>
+      <c r="U11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V11" s="27" t="n"/>
       <c r="W11" s="27" t="n"/>
       <c r="X11" s="27" t="n"/>
       <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
-      <c r="AA11" s="27" t="n"/>
+      <c r="AA11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB11" s="27" t="n"/>
       <c r="AC11" s="27" t="n"/>
       <c r="AD11" s="27" t="n"/>
       <c r="AE11" s="27" t="n"/>
       <c r="AF11" s="27" t="n"/>
-      <c r="AG11" s="27" t="n"/>
+      <c r="AG11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH11" s="27" t="n"/>
       <c r="AI11" s="27" t="n"/>
-      <c r="AJ11" s="27" t="n"/>
+      <c r="AJ11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK11" s="27" t="n"/>
-      <c r="AL11" s="27" t="n"/>
+      <c r="AL11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM11" s="27" t="n"/>
-      <c r="AN11" s="27" t="n"/>
+      <c r="AN11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AO11" s="27" t="n"/>
       <c r="AP11" s="27" t="n"/>
       <c r="AQ11" s="27" t="n"/>
@@ -5692,7 +5752,11 @@
       <c r="AT11" s="27" t="n"/>
       <c r="AU11" s="27" t="n"/>
       <c r="AV11" s="27" t="n"/>
-      <c r="AW11" s="27" t="n"/>
+      <c r="AW11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AX11" s="27" t="n"/>
       <c r="AY11" s="27" t="n"/>
       <c r="AZ11" s="27" t="n"/>
@@ -5701,15 +5765,15 @@
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>MÉDICO</t>
+          <t>NINA</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -5719,14 +5783,26 @@
       <c r="I12" s="27" t="n"/>
       <c r="J12" s="27" t="n"/>
       <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="n"/>
+      <c r="L12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M12" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="n"/>
+      <c r="N12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="P12" s="27" t="n"/>
       <c r="Q12" s="27" t="n"/>
       <c r="R12" s="27" t="n"/>
@@ -5745,8 +5821,16 @@
       <c r="AE12" s="27" t="n"/>
       <c r="AF12" s="27" t="n"/>
       <c r="AG12" s="27" t="n"/>
-      <c r="AH12" s="27" t="n"/>
-      <c r="AI12" s="27" t="n"/>
+      <c r="AH12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ12" s="27" t="n"/>
       <c r="AK12" s="27" t="n"/>
       <c r="AL12" s="27" t="n"/>
@@ -5754,12 +5838,28 @@
       <c r="AN12" s="27" t="n"/>
       <c r="AO12" s="27" t="n"/>
       <c r="AP12" s="27" t="n"/>
-      <c r="AQ12" s="27" t="n"/>
+      <c r="AQ12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR12" s="27" t="n"/>
-      <c r="AS12" s="27" t="n"/>
+      <c r="AS12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AT12" s="27" t="n"/>
-      <c r="AU12" s="27" t="n"/>
-      <c r="AV12" s="27" t="n"/>
+      <c r="AU12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AV12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AW12" s="27" t="n"/>
       <c r="AX12" s="27" t="n"/>
       <c r="AY12" s="27" t="n"/>
@@ -5772,12 +5872,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 3</t>
+          <t>OPERADOR</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -5811,7 +5911,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AF13" s="27" t="n"/>
+      <c r="AF13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AG13" s="27" t="n"/>
       <c r="AH13" s="27" t="n"/>
       <c r="AI13" s="27" t="n"/>
@@ -5837,15 +5941,15 @@
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
       <c r="A14" s="41" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14" s="24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>HELENE</t>
+          <t>PAULINE</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
@@ -5853,11 +5957,7 @@
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
-      <c r="J14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J14" s="27" t="n"/>
       <c r="K14" s="27" t="n"/>
       <c r="L14" s="27" t="n"/>
       <c r="M14" s="27" t="n"/>
@@ -5867,11 +5967,23 @@
       <c r="Q14" s="27" t="n"/>
       <c r="R14" s="27" t="n"/>
       <c r="S14" s="27" t="n"/>
-      <c r="T14" s="27" t="n"/>
+      <c r="T14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="U14" s="27" t="n"/>
       <c r="V14" s="27" t="n"/>
-      <c r="W14" s="27" t="n"/>
-      <c r="X14" s="27" t="n"/>
+      <c r="W14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Y14" s="27" t="n"/>
       <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
@@ -5881,8 +5993,16 @@
       <c r="AE14" s="27" t="n"/>
       <c r="AF14" s="27" t="n"/>
       <c r="AG14" s="27" t="n"/>
-      <c r="AH14" s="27" t="n"/>
-      <c r="AI14" s="27" t="n"/>
+      <c r="AH14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ14" s="27" t="n"/>
       <c r="AK14" s="27" t="n"/>
       <c r="AL14" s="27" t="n"/>
@@ -5890,22 +6010,50 @@
       <c r="AN14" s="27" t="n"/>
       <c r="AO14" s="27" t="n"/>
       <c r="AP14" s="27" t="n"/>
-      <c r="AQ14" s="27" t="n"/>
+      <c r="AQ14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR14" s="27" t="n"/>
       <c r="AS14" s="27" t="n"/>
-      <c r="AT14" s="27" t="n"/>
-      <c r="AU14" s="27" t="n"/>
-      <c r="AV14" s="27" t="n"/>
+      <c r="AT14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AU14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AV14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AW14" s="27" t="n"/>
-      <c r="AX14" s="27" t="n"/>
-      <c r="AY14" s="27" t="n"/>
+      <c r="AX14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AY14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AZ14" s="27" t="n"/>
-      <c r="BA14" s="27" t="n"/>
+      <c r="BA14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
       <c r="A15" s="41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" s="24" t="n">
         <v>2</v>
@@ -5913,7 +6061,7 @@
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
-          <t>HERMANN</t>
+          <t>ENTREVISTADOR</t>
         </is>
       </c>
       <c r="E15" s="27" t="n"/>
@@ -5936,22 +6084,22 @@
       <c r="V15" s="27" t="n"/>
       <c r="W15" s="27" t="n"/>
       <c r="X15" s="27" t="n"/>
-      <c r="Y15" s="27" t="n"/>
-      <c r="Z15" s="27" t="n"/>
+      <c r="Y15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AA15" s="27" t="n"/>
       <c r="AB15" s="27" t="n"/>
       <c r="AC15" s="27" t="n"/>
       <c r="AD15" s="27" t="n"/>
-      <c r="AE15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE15" s="27" t="n"/>
+      <c r="AF15" s="27" t="n"/>
       <c r="AG15" s="27" t="n"/>
       <c r="AH15" s="27" t="n"/>
       <c r="AI15" s="27" t="n"/>
@@ -5977,101 +6125,45 @@
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
       <c r="A16" s="41" t="n">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="B16" s="24" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>HANNA</t>
-        </is>
-      </c>
-      <c r="E16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>JACK</t>
+        </is>
+      </c>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
       <c r="G16" s="27" t="n"/>
-      <c r="H16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H16" s="27" t="n"/>
       <c r="I16" s="27" t="n"/>
-      <c r="J16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
       <c r="L16" s="27" t="n"/>
-      <c r="M16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M16" s="27" t="n"/>
       <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
+      <c r="S16" s="27" t="n"/>
       <c r="T16" s="27" t="n"/>
       <c r="U16" s="27" t="n"/>
-      <c r="V16" s="27" t="inlineStr">
+      <c r="V16" s="27" t="n"/>
+      <c r="W16" s="27" t="n"/>
+      <c r="X16" s="27" t="n"/>
+      <c r="Y16" s="27" t="n"/>
+      <c r="Z16" s="27" t="n"/>
+      <c r="AA16" s="27" t="n"/>
+      <c r="AB16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="W16" s="27" t="n"/>
-      <c r="X16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y16" s="27" t="n"/>
-      <c r="Z16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB16" s="27" t="n"/>
       <c r="AC16" s="27" t="inlineStr">
         <is>
           <t>X</t>
@@ -6081,91 +6173,59 @@
       <c r="AE16" s="27" t="n"/>
       <c r="AF16" s="27" t="n"/>
       <c r="AG16" s="27" t="n"/>
-      <c r="AH16" s="27" t="n"/>
-      <c r="AI16" s="27" t="inlineStr">
+      <c r="AH16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AJ16" s="27" t="inlineStr">
+      <c r="AI16" s="27" t="n"/>
+      <c r="AJ16" s="27" t="n"/>
+      <c r="AK16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AK16" s="27" t="n"/>
-      <c r="AL16" s="27" t="inlineStr">
+      <c r="AL16" s="27" t="n"/>
+      <c r="AM16" s="27" t="n"/>
+      <c r="AN16" s="27" t="n"/>
+      <c r="AO16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AM16" s="27" t="inlineStr">
+      <c r="AP16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AN16" s="27" t="inlineStr">
+      <c r="AQ16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AO16" s="27" t="n"/>
-      <c r="AP16" s="27" t="inlineStr">
+      <c r="AR16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AQ16" s="27" t="inlineStr">
+      <c r="AS16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AR16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AT16" s="27" t="n"/>
       <c r="AU16" s="27" t="n"/>
-      <c r="AV16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AX16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AV16" s="27" t="n"/>
+      <c r="AW16" s="27" t="n"/>
+      <c r="AX16" s="27" t="n"/>
+      <c r="AY16" s="27" t="n"/>
       <c r="AZ16" s="27" t="n"/>
-      <c r="BA16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BA16" s="27" t="n"/>
       <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
       <c r="A17" s="41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" s="24" t="n">
         <v>1</v>
@@ -6173,7 +6233,7 @@
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="26" t="inlineStr">
         <is>
-          <t>MARIE</t>
+          <t>ENTREVISTADORA 1</t>
         </is>
       </c>
       <c r="E17" s="27" t="n"/>
@@ -6181,11 +6241,7 @@
       <c r="G17" s="27" t="n"/>
       <c r="H17" s="27" t="n"/>
       <c r="I17" s="27" t="n"/>
-      <c r="J17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J17" s="27" t="n"/>
       <c r="K17" s="27" t="n"/>
       <c r="L17" s="27" t="n"/>
       <c r="M17" s="27" t="n"/>
@@ -6200,7 +6256,11 @@
       <c r="V17" s="27" t="n"/>
       <c r="W17" s="27" t="n"/>
       <c r="X17" s="27" t="n"/>
-      <c r="Y17" s="27" t="n"/>
+      <c r="Y17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="Z17" s="27" t="n"/>
       <c r="AA17" s="27" t="n"/>
       <c r="AB17" s="27" t="n"/>
@@ -6241,18 +6301,14 @@
       <c r="C18" s="25" t="n"/>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>MUJER 2</t>
+          <t>JOJO</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
-      <c r="I18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I18" s="27" t="n"/>
       <c r="J18" s="27" t="n"/>
       <c r="K18" s="27" t="n"/>
       <c r="L18" s="27" t="n"/>
@@ -6293,7 +6349,11 @@
       <c r="AU18" s="27" t="n"/>
       <c r="AV18" s="27" t="n"/>
       <c r="AW18" s="27" t="n"/>
-      <c r="AX18" s="27" t="n"/>
+      <c r="AX18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AY18" s="27" t="n"/>
       <c r="AZ18" s="27" t="n"/>
       <c r="BA18" s="27" t="n"/>
@@ -6301,7 +6361,7 @@
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
       <c r="A19" s="41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="24" t="n">
         <v>1</v>
@@ -6309,10 +6369,14 @@
       <c r="C19" s="25" t="n"/>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>HOMBRES</t>
-        </is>
-      </c>
-      <c r="E19" s="27" t="n"/>
+          <t>ROGER</t>
+        </is>
+      </c>
+      <c r="E19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
@@ -6346,11 +6410,7 @@
       <c r="AJ19" s="27" t="n"/>
       <c r="AK19" s="27" t="n"/>
       <c r="AL19" s="27" t="n"/>
-      <c r="AM19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AM19" s="27" t="n"/>
       <c r="AN19" s="27" t="n"/>
       <c r="AO19" s="27" t="n"/>
       <c r="AP19" s="27" t="n"/>
@@ -6368,25 +6428,13 @@
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" s="41" t="n"/>
+      <c r="B20" s="24" t="n"/>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 1</t>
-        </is>
-      </c>
+      <c r="D20" s="26" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
-      <c r="G20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
       <c r="I20" s="27" t="n"/>
       <c r="J20" s="27" t="n"/>
@@ -6436,18 +6484,10 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <v>3</v>
-      </c>
+      <c r="A21" s="41" t="n"/>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="inlineStr">
-        <is>
-          <t>LOTTE</t>
-        </is>
-      </c>
+      <c r="D21" s="26" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -6492,51 +6532,23 @@
       <c r="AT21" s="27" t="n"/>
       <c r="AU21" s="27" t="n"/>
       <c r="AV21" s="27" t="n"/>
-      <c r="AW21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AX21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AY21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AW21" s="27" t="n"/>
+      <c r="AX21" s="27" t="n"/>
+      <c r="AY21" s="27" t="n"/>
       <c r="AZ21" s="27" t="n"/>
       <c r="BA21" s="27" t="n"/>
       <c r="BB21" s="33" t="n"/>
     </row>
     <row r="22" ht="13.75" customHeight="1" s="19">
-      <c r="A22" s="41" t="n">
-        <v>28</v>
-      </c>
-      <c r="B22" s="24" t="n">
-        <v>7</v>
-      </c>
+      <c r="A22" s="41" t="n"/>
+      <c r="B22" s="24" t="n"/>
       <c r="C22" s="25" t="n"/>
-      <c r="D22" s="26" t="inlineStr">
-        <is>
-          <t>AMB</t>
-        </is>
-      </c>
+      <c r="D22" s="26" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
-      <c r="G22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
-      <c r="I22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I22" s="27" t="n"/>
       <c r="J22" s="27" t="n"/>
       <c r="K22" s="27" t="n"/>
       <c r="L22" s="27" t="n"/>
@@ -6548,40 +6560,20 @@
       <c r="R22" s="27" t="n"/>
       <c r="S22" s="27" t="n"/>
       <c r="T22" s="27" t="n"/>
-      <c r="U22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U22" s="27" t="n"/>
       <c r="V22" s="27" t="n"/>
       <c r="W22" s="27" t="n"/>
       <c r="X22" s="27" t="n"/>
       <c r="Y22" s="27" t="n"/>
-      <c r="Z22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z22" s="27" t="n"/>
       <c r="AA22" s="27" t="n"/>
       <c r="AB22" s="27" t="n"/>
-      <c r="AC22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC22" s="27" t="n"/>
+      <c r="AD22" s="27" t="n"/>
       <c r="AE22" s="27" t="n"/>
       <c r="AF22" s="27" t="n"/>
       <c r="AG22" s="27" t="n"/>
-      <c r="AH22" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH22" s="27" t="n"/>
       <c r="AI22" s="27" t="n"/>
       <c r="AJ22" s="27" t="n"/>
       <c r="AK22" s="27" t="n"/>
@@ -6604,33 +6596,13 @@
       <c r="BB22" s="33" t="n"/>
     </row>
     <row r="23" ht="13.75" customHeight="1" s="19">
-      <c r="A23" s="41" t="n">
-        <v>47</v>
-      </c>
-      <c r="B23" s="24" t="n">
-        <v>18</v>
-      </c>
+      <c r="A23" s="41" t="n"/>
+      <c r="B23" s="24" t="n"/>
       <c r="C23" s="25" t="n"/>
-      <c r="D23" s="26" t="inlineStr">
-        <is>
-          <t>OTTO</t>
-        </is>
-      </c>
-      <c r="E23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D23" s="26" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
       <c r="I23" s="27" t="n"/>
       <c r="J23" s="27" t="n"/>
@@ -6650,85 +6622,25 @@
       <c r="X23" s="27" t="n"/>
       <c r="Y23" s="27" t="n"/>
       <c r="Z23" s="27" t="n"/>
-      <c r="AA23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AA23" s="27" t="n"/>
       <c r="AB23" s="27" t="n"/>
-      <c r="AC23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AC23" s="27" t="n"/>
       <c r="AD23" s="27" t="n"/>
       <c r="AE23" s="27" t="n"/>
-      <c r="AF23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AG23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AF23" s="27" t="n"/>
+      <c r="AG23" s="27" t="n"/>
       <c r="AH23" s="27" t="n"/>
-      <c r="AI23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AM23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AN23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AO23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AP23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS23" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI23" s="27" t="n"/>
+      <c r="AJ23" s="27" t="n"/>
+      <c r="AK23" s="27" t="n"/>
+      <c r="AL23" s="27" t="n"/>
+      <c r="AM23" s="27" t="n"/>
+      <c r="AN23" s="27" t="n"/>
+      <c r="AO23" s="27" t="n"/>
+      <c r="AP23" s="27" t="n"/>
+      <c r="AQ23" s="27" t="n"/>
+      <c r="AR23" s="27" t="n"/>
+      <c r="AS23" s="27" t="n"/>
       <c r="AT23" s="27" t="n"/>
       <c r="AU23" s="27" t="n"/>
       <c r="AV23" s="27" t="n"/>
@@ -6740,18 +6652,10 @@
       <c r="BB23" s="33" t="n"/>
     </row>
     <row r="24" ht="13.75" customHeight="1" s="19">
-      <c r="A24" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" s="24" t="n">
-        <v>4</v>
-      </c>
+      <c r="A24" s="41" t="n"/>
+      <c r="B24" s="24" t="n"/>
       <c r="C24" s="25" t="n"/>
-      <c r="D24" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 2</t>
-        </is>
-      </c>
+      <c r="D24" s="26" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -6769,27 +6673,11 @@
       <c r="S24" s="27" t="n"/>
       <c r="T24" s="27" t="n"/>
       <c r="U24" s="27" t="n"/>
-      <c r="V24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V24" s="27" t="n"/>
+      <c r="W24" s="27" t="n"/>
+      <c r="X24" s="27" t="n"/>
       <c r="Y24" s="27" t="n"/>
-      <c r="Z24" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z24" s="27" t="n"/>
       <c r="AA24" s="27" t="n"/>
       <c r="AB24" s="27" t="n"/>
       <c r="AC24" s="27" t="n"/>
@@ -8430,7 +8318,11 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="44" t="inlineStr"/>
+      <c r="D3" s="44" t="inlineStr">
+        <is>
+          <t>THE TEACHER</t>
+        </is>
+      </c>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -8730,29 +8622,21 @@
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
       <c r="A8" s="41" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B8" s="24" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="26" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>SOWERBY</t>
         </is>
       </c>
       <c r="E8" s="27" t="n"/>
       <c r="F8" s="27" t="n"/>
-      <c r="G8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G8" s="27" t="n"/>
+      <c r="H8" s="27" t="n"/>
       <c r="I8" s="27" t="n"/>
       <c r="J8" s="27" t="n"/>
       <c r="K8" s="27" t="n"/>
@@ -8769,53 +8653,93 @@
           <t>X</t>
         </is>
       </c>
-      <c r="U8" s="27" t="n"/>
+      <c r="U8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V8" s="27" t="n"/>
       <c r="W8" s="27" t="n"/>
-      <c r="X8" s="27" t="n"/>
-      <c r="Y8" s="27" t="n"/>
-      <c r="Z8" s="27" t="n"/>
-      <c r="AA8" s="27" t="n"/>
+      <c r="X8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AB8" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AC8" s="27" t="n"/>
-      <c r="AD8" s="27" t="n"/>
-      <c r="AE8" s="27" t="n"/>
-      <c r="AF8" s="27" t="n"/>
-      <c r="AG8" s="27" t="n"/>
-      <c r="AH8" s="27" t="n"/>
-      <c r="AI8" s="27" t="n"/>
+      <c r="AC8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AD8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AE8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AH8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ8" s="27" t="n"/>
-      <c r="AK8" s="27" t="n"/>
-      <c r="AL8" s="27" t="n"/>
+      <c r="AK8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AL8" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AM8" s="27" t="n"/>
       <c r="AN8" s="27" t="n"/>
-      <c r="AO8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AP8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AO8" s="27" t="n"/>
+      <c r="AP8" s="27" t="n"/>
+      <c r="AQ8" s="27" t="n"/>
       <c r="AR8" s="27" t="n"/>
       <c r="AS8" s="27" t="n"/>
       <c r="AT8" s="27" t="n"/>
-      <c r="AU8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AU8" s="27" t="n"/>
       <c r="AV8" s="27" t="n"/>
       <c r="AW8" s="27" t="n"/>
       <c r="AX8" s="27" t="n"/>
@@ -8826,15 +8750,15 @@
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
       <c r="A9" s="41" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="26" t="inlineStr">
         <is>
-          <t>ANTON</t>
+          <t>MARY</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
@@ -8863,35 +8787,31 @@
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
       <c r="AD9" s="27" t="n"/>
-      <c r="AE9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AE9" s="27" t="n"/>
+      <c r="AF9" s="27" t="n"/>
       <c r="AG9" s="27" t="n"/>
       <c r="AH9" s="27" t="n"/>
       <c r="AI9" s="27" t="n"/>
       <c r="AJ9" s="27" t="n"/>
       <c r="AK9" s="27" t="n"/>
-      <c r="AL9" s="27" t="inlineStr">
+      <c r="AL9" s="27" t="n"/>
+      <c r="AM9" s="27" t="n"/>
+      <c r="AN9" s="27" t="n"/>
+      <c r="AO9" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AM9" s="27" t="inlineStr">
+      <c r="AP9" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AN9" s="27" t="n"/>
-      <c r="AO9" s="27" t="n"/>
-      <c r="AP9" s="27" t="n"/>
-      <c r="AQ9" s="27" t="n"/>
+      <c r="AQ9" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AR9" s="27" t="n"/>
       <c r="AS9" s="27" t="n"/>
       <c r="AT9" s="27" t="n"/>
@@ -8906,87 +8826,203 @@
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
       <c r="A10" s="41" t="n">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B10" s="24" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C10" s="25" t="n"/>
       <c r="D10" s="26" t="inlineStr">
         <is>
-          <t>LUCIO</t>
-        </is>
-      </c>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n"/>
-      <c r="J10" s="27" t="n"/>
+          <t>JENNA</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K10" s="27" t="n"/>
       <c r="L10" s="27" t="n"/>
       <c r="M10" s="27" t="n"/>
-      <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n"/>
-      <c r="S10" s="27" t="n"/>
-      <c r="T10" s="27" t="n"/>
-      <c r="U10" s="27" t="n"/>
+      <c r="N10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="V10" s="27" t="n"/>
       <c r="W10" s="27" t="n"/>
-      <c r="X10" s="27" t="n"/>
-      <c r="Y10" s="27" t="n"/>
-      <c r="Z10" s="27" t="n"/>
-      <c r="AA10" s="27" t="n"/>
-      <c r="AB10" s="27" t="n"/>
-      <c r="AC10" s="27" t="n"/>
+      <c r="X10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Z10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AB10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AC10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AD10" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AE10" s="27" t="n"/>
-      <c r="AF10" s="27" t="n"/>
-      <c r="AG10" s="27" t="n"/>
-      <c r="AH10" s="27" t="n"/>
-      <c r="AI10" s="27" t="n"/>
+      <c r="AE10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AF10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AG10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AH10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AI10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AJ10" s="27" t="n"/>
       <c r="AK10" s="27" t="n"/>
       <c r="AL10" s="27" t="n"/>
-      <c r="AM10" s="27" t="n"/>
-      <c r="AN10" s="27" t="n"/>
-      <c r="AO10" s="27" t="n"/>
+      <c r="AM10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AN10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AO10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AP10" s="27" t="n"/>
       <c r="AQ10" s="27" t="n"/>
-      <c r="AR10" s="27" t="n"/>
+      <c r="AR10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AS10" s="27" t="n"/>
       <c r="AT10" s="27" t="n"/>
-      <c r="AU10" s="27" t="n"/>
+      <c r="AU10" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AV10" s="27" t="n"/>
       <c r="AW10" s="27" t="n"/>
       <c r="AX10" s="27" t="n"/>
-      <c r="AY10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY10" s="27" t="n"/>
       <c r="AZ10" s="27" t="n"/>
       <c r="BA10" s="27" t="n"/>
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
       <c r="A11" s="41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="25" t="n"/>
       <c r="D11" s="26" t="inlineStr">
         <is>
-          <t>H0MBRE 5</t>
+          <t>INSERTO</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -8995,7 +9031,11 @@
       <c r="H11" s="27" t="n"/>
       <c r="I11" s="27" t="n"/>
       <c r="J11" s="27" t="n"/>
-      <c r="K11" s="27" t="n"/>
+      <c r="K11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L11" s="27" t="n"/>
       <c r="M11" s="27" t="n"/>
       <c r="N11" s="27" t="n"/>
@@ -9007,13 +9047,13 @@
       <c r="T11" s="27" t="n"/>
       <c r="U11" s="27" t="n"/>
       <c r="V11" s="27" t="n"/>
-      <c r="W11" s="27" t="n"/>
+      <c r="W11" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X11" s="27" t="n"/>
-      <c r="Y11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y11" s="27" t="n"/>
       <c r="Z11" s="27" t="n"/>
       <c r="AA11" s="27" t="n"/>
       <c r="AB11" s="27" t="n"/>
@@ -9046,15 +9086,15 @@
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
       <c r="A12" s="41" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B12" s="24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="25" t="n"/>
       <c r="D12" s="26" t="inlineStr">
         <is>
-          <t>HOMBRE 6</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
@@ -9066,10 +9106,26 @@
       <c r="K12" s="27" t="n"/>
       <c r="L12" s="27" t="n"/>
       <c r="M12" s="27" t="n"/>
-      <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="n"/>
+      <c r="N12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q12" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="R12" s="27" t="n"/>
       <c r="S12" s="27" t="n"/>
       <c r="T12" s="27" t="n"/>
@@ -9077,11 +9133,7 @@
       <c r="V12" s="27" t="n"/>
       <c r="W12" s="27" t="n"/>
       <c r="X12" s="27" t="n"/>
-      <c r="Y12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y12" s="27" t="n"/>
       <c r="Z12" s="27" t="n"/>
       <c r="AA12" s="27" t="n"/>
       <c r="AB12" s="27" t="n"/>
@@ -9114,15 +9166,15 @@
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
       <c r="A13" s="41" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B13" s="24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="25" t="n"/>
       <c r="D13" s="26" t="inlineStr">
         <is>
-          <t>HELENE</t>
+          <t>AD LIBS</t>
         </is>
       </c>
       <c r="E13" s="27" t="n"/>
@@ -9132,8 +9184,16 @@
       <c r="I13" s="27" t="n"/>
       <c r="J13" s="27" t="n"/>
       <c r="K13" s="27" t="n"/>
-      <c r="L13" s="27" t="n"/>
-      <c r="M13" s="27" t="n"/>
+      <c r="L13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="N13" s="27" t="n"/>
       <c r="O13" s="27" t="n"/>
       <c r="P13" s="27" t="n"/>
@@ -9142,7 +9202,11 @@
       <c r="S13" s="27" t="n"/>
       <c r="T13" s="27" t="n"/>
       <c r="U13" s="27" t="n"/>
-      <c r="V13" s="27" t="n"/>
+      <c r="V13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="W13" s="27" t="n"/>
       <c r="X13" s="27" t="n"/>
       <c r="Y13" s="27" t="n"/>
@@ -9156,7 +9220,11 @@
       <c r="AG13" s="27" t="n"/>
       <c r="AH13" s="27" t="n"/>
       <c r="AI13" s="27" t="n"/>
-      <c r="AJ13" s="27" t="n"/>
+      <c r="AJ13" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AK13" s="27" t="n"/>
       <c r="AL13" s="27" t="n"/>
       <c r="AM13" s="27" t="n"/>
@@ -9171,46 +9239,38 @@
       <c r="AV13" s="27" t="n"/>
       <c r="AW13" s="27" t="n"/>
       <c r="AX13" s="27" t="n"/>
-      <c r="AY13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY13" s="27" t="n"/>
       <c r="AZ13" s="27" t="n"/>
-      <c r="BA13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BA13" s="27" t="n"/>
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
       <c r="A14" s="41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" s="24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="25" t="n"/>
       <c r="D14" s="26" t="inlineStr">
         <is>
-          <t>HERMANN</t>
+          <t>PROFESORA</t>
         </is>
       </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
       <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
       <c r="K14" s="27" t="n"/>
       <c r="L14" s="27" t="n"/>
       <c r="M14" s="27" t="n"/>
-      <c r="N14" s="27" t="n"/>
+      <c r="N14" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="O14" s="27" t="n"/>
       <c r="P14" s="27" t="n"/>
       <c r="Q14" s="27" t="n"/>
@@ -9220,17 +9280,9 @@
       <c r="U14" s="27" t="n"/>
       <c r="V14" s="27" t="n"/>
       <c r="W14" s="27" t="n"/>
-      <c r="X14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="X14" s="27" t="n"/>
       <c r="Y14" s="27" t="n"/>
-      <c r="Z14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Z14" s="27" t="n"/>
       <c r="AA14" s="27" t="n"/>
       <c r="AB14" s="27" t="n"/>
       <c r="AC14" s="27" t="n"/>
@@ -9239,11 +9291,7 @@
       <c r="AF14" s="27" t="n"/>
       <c r="AG14" s="27" t="n"/>
       <c r="AH14" s="27" t="n"/>
-      <c r="AI14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI14" s="27" t="n"/>
       <c r="AJ14" s="27" t="n"/>
       <c r="AK14" s="27" t="n"/>
       <c r="AL14" s="27" t="n"/>
@@ -9266,15 +9314,15 @@
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
       <c r="A15" s="41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="25" t="n"/>
       <c r="D15" s="26" t="inlineStr">
         <is>
-          <t>INSERTO HANNA</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="E15" s="27" t="n"/>
@@ -9300,12 +9348,20 @@
       <c r="Y15" s="27" t="n"/>
       <c r="Z15" s="27" t="n"/>
       <c r="AA15" s="27" t="n"/>
-      <c r="AB15" s="27" t="n"/>
+      <c r="AB15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AC15" s="27" t="n"/>
       <c r="AD15" s="27" t="n"/>
       <c r="AE15" s="27" t="n"/>
       <c r="AF15" s="27" t="n"/>
-      <c r="AG15" s="27" t="n"/>
+      <c r="AG15" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AH15" s="27" t="n"/>
       <c r="AI15" s="27" t="n"/>
       <c r="AJ15" s="27" t="n"/>
@@ -9324,221 +9380,89 @@
       <c r="AW15" s="27" t="n"/>
       <c r="AX15" s="27" t="n"/>
       <c r="AY15" s="27" t="n"/>
-      <c r="AZ15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AZ15" s="27" t="n"/>
       <c r="BA15" s="27" t="n"/>
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
       <c r="A16" s="41" t="n">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B16" s="24" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="26" t="inlineStr">
         <is>
-          <t>HANNA</t>
-        </is>
-      </c>
-      <c r="E16" s="27" t="inlineStr">
+          <t>PAULINE</t>
+        </is>
+      </c>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
       <c r="I16" s="27" t="n"/>
       <c r="J16" s="27" t="n"/>
-      <c r="K16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K16" s="27" t="n"/>
       <c r="L16" s="27" t="n"/>
       <c r="M16" s="27" t="n"/>
-      <c r="N16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
       <c r="S16" s="27" t="n"/>
-      <c r="T16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T16" s="27" t="n"/>
+      <c r="U16" s="27" t="n"/>
+      <c r="V16" s="27" t="n"/>
+      <c r="W16" s="27" t="n"/>
       <c r="X16" s="27" t="n"/>
-      <c r="Y16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y16" s="27" t="n"/>
+      <c r="Z16" s="27" t="n"/>
       <c r="AA16" s="27" t="n"/>
-      <c r="AB16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AB16" s="27" t="n"/>
+      <c r="AC16" s="27" t="n"/>
+      <c r="AD16" s="27" t="n"/>
+      <c r="AE16" s="27" t="n"/>
+      <c r="AF16" s="27" t="n"/>
       <c r="AG16" s="27" t="n"/>
-      <c r="AH16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH16" s="27" t="n"/>
+      <c r="AI16" s="27" t="n"/>
+      <c r="AJ16" s="27" t="n"/>
       <c r="AK16" s="27" t="n"/>
-      <c r="AL16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AL16" s="27" t="n"/>
       <c r="AM16" s="27" t="n"/>
       <c r="AN16" s="27" t="n"/>
-      <c r="AO16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AP16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AO16" s="27" t="n"/>
+      <c r="AP16" s="27" t="n"/>
+      <c r="AQ16" s="27" t="n"/>
       <c r="AR16" s="27" t="n"/>
       <c r="AS16" s="27" t="n"/>
       <c r="AT16" s="27" t="n"/>
       <c r="AU16" s="27" t="n"/>
-      <c r="AV16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AV16" s="27" t="n"/>
+      <c r="AW16" s="27" t="n"/>
       <c r="AX16" s="27" t="n"/>
-      <c r="AY16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AY16" s="27" t="n"/>
       <c r="AZ16" s="27" t="n"/>
-      <c r="BA16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="BB16" s="33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="BA16" s="27" t="n"/>
+      <c r="BB16" s="33" t="n"/>
     </row>
     <row r="17" ht="13.75" customHeight="1" s="19">
       <c r="A17" s="41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="25" t="n"/>
       <c r="D17" s="26" t="inlineStr">
         <is>
-          <t>MUJER 3</t>
+          <t>CONTESTADOR (MUJER)</t>
         </is>
       </c>
       <c r="E17" s="27" t="n"/>
@@ -9559,17 +9483,9 @@
       <c r="T17" s="27" t="n"/>
       <c r="U17" s="27" t="n"/>
       <c r="V17" s="27" t="n"/>
-      <c r="W17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W17" s="27" t="n"/>
       <c r="X17" s="27" t="n"/>
-      <c r="Y17" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Y17" s="27" t="n"/>
       <c r="Z17" s="27" t="n"/>
       <c r="AA17" s="27" t="n"/>
       <c r="AB17" s="27" t="n"/>
@@ -9589,7 +9505,11 @@
       <c r="AP17" s="27" t="n"/>
       <c r="AQ17" s="27" t="n"/>
       <c r="AR17" s="27" t="n"/>
-      <c r="AS17" s="27" t="n"/>
+      <c r="AS17" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AT17" s="27" t="n"/>
       <c r="AU17" s="27" t="n"/>
       <c r="AV17" s="27" t="n"/>
@@ -9602,36 +9522,24 @@
     </row>
     <row r="18" ht="13.75" customHeight="1" s="19">
       <c r="A18" s="41" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" s="24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="25" t="n"/>
       <c r="D18" s="26" t="inlineStr">
         <is>
-          <t>LOTTE</t>
-        </is>
-      </c>
-      <c r="E18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>KYLE</t>
+        </is>
+      </c>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
       <c r="I18" s="27" t="n"/>
       <c r="J18" s="27" t="n"/>
-      <c r="K18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K18" s="27" t="n"/>
       <c r="L18" s="27" t="n"/>
       <c r="M18" s="27" t="n"/>
       <c r="N18" s="27" t="n"/>
@@ -9660,32 +9568,36 @@
       <c r="AK18" s="27" t="n"/>
       <c r="AL18" s="27" t="n"/>
       <c r="AM18" s="27" t="n"/>
-      <c r="AN18" s="27" t="n"/>
-      <c r="AO18" s="27" t="n"/>
-      <c r="AP18" s="27" t="n"/>
-      <c r="AQ18" s="27" t="n"/>
-      <c r="AR18" s="27" t="inlineStr">
+      <c r="AN18" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AS18" s="27" t="inlineStr">
+      <c r="AO18" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="AT18" s="27" t="n"/>
+      <c r="AP18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AQ18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AR18" s="27" t="n"/>
+      <c r="AS18" s="27" t="n"/>
+      <c r="AT18" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="AU18" s="27" t="n"/>
-      <c r="AV18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AW18" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AV18" s="27" t="n"/>
+      <c r="AW18" s="27" t="n"/>
       <c r="AX18" s="27" t="n"/>
       <c r="AY18" s="27" t="n"/>
       <c r="AZ18" s="27" t="n"/>
@@ -9694,125 +9606,81 @@
     </row>
     <row r="19" ht="13.75" customHeight="1" s="19">
       <c r="A19" s="41" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B19" s="24" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C19" s="25" t="n"/>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>ROGER</t>
         </is>
       </c>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
-      <c r="I19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I19" s="27" t="n"/>
       <c r="J19" s="27" t="n"/>
       <c r="K19" s="27" t="n"/>
-      <c r="L19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L19" s="27" t="n"/>
       <c r="M19" s="27" t="n"/>
       <c r="N19" s="27" t="n"/>
       <c r="O19" s="27" t="n"/>
-      <c r="P19" s="27" t="inlineStr">
+      <c r="P19" s="27" t="n"/>
+      <c r="Q19" s="27" t="n"/>
+      <c r="R19" s="27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="Q19" s="27" t="n"/>
-      <c r="R19" s="27" t="n"/>
-      <c r="S19" s="27" t="n"/>
+      <c r="S19" s="27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="T19" s="27" t="n"/>
       <c r="U19" s="27" t="n"/>
       <c r="V19" s="27" t="n"/>
-      <c r="W19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W19" s="27" t="n"/>
       <c r="X19" s="27" t="n"/>
       <c r="Y19" s="27" t="n"/>
       <c r="Z19" s="27" t="n"/>
       <c r="AA19" s="27" t="n"/>
       <c r="AB19" s="27" t="n"/>
       <c r="AC19" s="27" t="n"/>
-      <c r="AD19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AE19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AD19" s="27" t="n"/>
+      <c r="AE19" s="27" t="n"/>
       <c r="AF19" s="27" t="n"/>
       <c r="AG19" s="27" t="n"/>
-      <c r="AH19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AH19" s="27" t="n"/>
       <c r="AI19" s="27" t="n"/>
       <c r="AJ19" s="27" t="n"/>
-      <c r="AK19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AK19" s="27" t="n"/>
       <c r="AL19" s="27" t="n"/>
       <c r="AM19" s="27" t="n"/>
-      <c r="AN19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AN19" s="27" t="n"/>
       <c r="AO19" s="27" t="n"/>
       <c r="AP19" s="27" t="n"/>
       <c r="AQ19" s="27" t="n"/>
       <c r="AR19" s="27" t="n"/>
       <c r="AS19" s="27" t="n"/>
-      <c r="AT19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AT19" s="27" t="n"/>
       <c r="AU19" s="27" t="n"/>
       <c r="AV19" s="27" t="n"/>
       <c r="AW19" s="27" t="n"/>
-      <c r="AX19" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AX19" s="27" t="n"/>
       <c r="AY19" s="27" t="n"/>
       <c r="AZ19" s="27" t="n"/>
       <c r="BA19" s="27" t="n"/>
       <c r="BB19" s="33" t="n"/>
     </row>
     <row r="20" ht="13.75" customHeight="1" s="19">
-      <c r="A20" s="41" t="n">
-        <v>47</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <v>13</v>
-      </c>
+      <c r="A20" s="41" t="n"/>
+      <c r="B20" s="24" t="n"/>
       <c r="C20" s="25" t="n"/>
-      <c r="D20" s="26" t="inlineStr">
-        <is>
-          <t>OTTO</t>
-        </is>
-      </c>
+      <c r="D20" s="26" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
@@ -9821,52 +9689,16 @@
       <c r="J20" s="27" t="n"/>
       <c r="K20" s="27" t="n"/>
       <c r="L20" s="27" t="n"/>
-      <c r="M20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="M20" s="27" t="n"/>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
       <c r="S20" s="27" t="n"/>
-      <c r="T20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T20" s="27" t="n"/>
+      <c r="U20" s="27" t="n"/>
+      <c r="V20" s="27" t="n"/>
       <c r="W20" s="27" t="n"/>
       <c r="X20" s="27" t="n"/>
       <c r="Y20" s="27" t="n"/>
@@ -9879,16 +9711,8 @@
       <c r="AF20" s="27" t="n"/>
       <c r="AG20" s="27" t="n"/>
       <c r="AH20" s="27" t="n"/>
-      <c r="AI20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AI20" s="27" t="n"/>
+      <c r="AJ20" s="27" t="n"/>
       <c r="AK20" s="27" t="n"/>
       <c r="AL20" s="27" t="n"/>
       <c r="AM20" s="27" t="n"/>
@@ -9896,16 +9720,8 @@
       <c r="AO20" s="27" t="n"/>
       <c r="AP20" s="27" t="n"/>
       <c r="AQ20" s="27" t="n"/>
-      <c r="AR20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS20" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="AR20" s="27" t="n"/>
+      <c r="AS20" s="27" t="n"/>
       <c r="AT20" s="27" t="n"/>
       <c r="AU20" s="27" t="n"/>
       <c r="AV20" s="27" t="n"/>
@@ -9917,18 +9733,10 @@
       <c r="BB20" s="33" t="n"/>
     </row>
     <row r="21" ht="13.75" customHeight="1" s="19">
-      <c r="A21" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A21" s="41" t="n"/>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="25" t="n"/>
-      <c r="D21" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE 4</t>
-        </is>
-      </c>
+      <c r="D21" s="26" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -9944,11 +9752,7 @@
       <c r="Q21" s="27" t="n"/>
       <c r="R21" s="27" t="n"/>
       <c r="S21" s="27" t="n"/>
-      <c r="T21" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="T21" s="27" t="n"/>
       <c r="U21" s="27" t="n"/>
       <c r="V21" s="27" t="n"/>
       <c r="W21" s="27" t="n"/>
@@ -11763,7 +11567,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n"/>
-      <c r="D3" s="44" t="inlineStr"/>
+      <c r="D3" s="44" t="n"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="8" t="n"/>
@@ -11822,11 +11626,7 @@
       <c r="AT3" s="56" t="n"/>
       <c r="AU3" s="56" t="n"/>
       <c r="AV3" s="57" t="n"/>
-      <c r="AW3" s="59" t="inlineStr">
-        <is>
-          <t>03/07/2022</t>
-        </is>
-      </c>
+      <c r="AW3" s="59" t="n"/>
       <c r="AX3" s="56" t="n"/>
       <c r="AY3" s="56" t="n"/>
       <c r="AZ3" s="56" t="n"/>
@@ -12062,18 +11862,10 @@
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="19">
-      <c r="A8" s="41" t="n">
-        <v>26</v>
-      </c>
-      <c r="B8" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A8" s="41" t="n"/>
+      <c r="B8" s="24" t="n"/>
       <c r="C8" s="25" t="n"/>
-      <c r="D8" s="26" t="inlineStr">
-        <is>
-          <t>IDA</t>
-        </is>
-      </c>
+      <c r="D8" s="26" t="n"/>
       <c r="E8" s="27" t="n"/>
       <c r="F8" s="27" t="n"/>
       <c r="G8" s="27" t="n"/>
@@ -12084,16 +11876,8 @@
       <c r="L8" s="27" t="n"/>
       <c r="M8" s="27" t="n"/>
       <c r="N8" s="27" t="n"/>
-      <c r="O8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P8" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
       <c r="Q8" s="27" t="n"/>
       <c r="R8" s="27" t="n"/>
       <c r="S8" s="27" t="n"/>
@@ -12134,18 +11918,10 @@
       <c r="BB8" s="32" t="n"/>
     </row>
     <row r="9" ht="13.75" customHeight="1" s="19">
-      <c r="A9" s="41" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="n">
-        <v>6</v>
-      </c>
+      <c r="A9" s="41" t="n"/>
+      <c r="B9" s="24" t="n"/>
       <c r="C9" s="25" t="n"/>
-      <c r="D9" s="26" t="inlineStr">
-        <is>
-          <t>INSERTO</t>
-        </is>
-      </c>
+      <c r="D9" s="26" t="n"/>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
@@ -12162,36 +11938,12 @@
       <c r="R9" s="27" t="n"/>
       <c r="S9" s="27" t="n"/>
       <c r="T9" s="27" t="n"/>
-      <c r="U9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z9" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="U9" s="27" t="n"/>
+      <c r="V9" s="27" t="n"/>
+      <c r="W9" s="27" t="n"/>
+      <c r="X9" s="27" t="n"/>
+      <c r="Y9" s="27" t="n"/>
+      <c r="Z9" s="27" t="n"/>
       <c r="AA9" s="27" t="n"/>
       <c r="AB9" s="27" t="n"/>
       <c r="AC9" s="27" t="n"/>
@@ -12222,18 +11974,10 @@
       <c r="BB9" s="33" t="n"/>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="19">
-      <c r="A10" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A10" s="41" t="n"/>
+      <c r="B10" s="24" t="n"/>
       <c r="C10" s="25" t="n"/>
-      <c r="D10" s="26" t="inlineStr">
-        <is>
-          <t>HOMBRE BARCO</t>
-        </is>
-      </c>
+      <c r="D10" s="26" t="n"/>
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
@@ -12246,11 +11990,7 @@
       <c r="N10" s="27" t="n"/>
       <c r="O10" s="27" t="n"/>
       <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q10" s="27" t="n"/>
       <c r="R10" s="27" t="n"/>
       <c r="S10" s="27" t="n"/>
       <c r="T10" s="27" t="n"/>
@@ -12290,18 +12030,10 @@
       <c r="BB10" s="33" t="n"/>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="19">
-      <c r="A11" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A11" s="41" t="n"/>
+      <c r="B11" s="24" t="n"/>
       <c r="C11" s="25" t="n"/>
-      <c r="D11" s="26" t="inlineStr">
-        <is>
-          <t>HELENE</t>
-        </is>
-      </c>
+      <c r="D11" s="26" t="n"/>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
@@ -12314,11 +12046,7 @@
       <c r="N11" s="27" t="n"/>
       <c r="O11" s="27" t="n"/>
       <c r="P11" s="27" t="n"/>
-      <c r="Q11" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q11" s="27" t="n"/>
       <c r="R11" s="27" t="n"/>
       <c r="S11" s="27" t="n"/>
       <c r="T11" s="27" t="n"/>
@@ -12358,59 +12086,23 @@
       <c r="BB11" s="33" t="n"/>
     </row>
     <row r="12" ht="13.75" customHeight="1" s="19">
-      <c r="A12" s="41" t="n">
-        <v>106</v>
-      </c>
-      <c r="B12" s="24" t="n">
-        <v>7</v>
-      </c>
+      <c r="A12" s="41" t="n"/>
+      <c r="B12" s="24" t="n"/>
       <c r="C12" s="25" t="n"/>
-      <c r="D12" s="26" t="inlineStr">
-        <is>
-          <t>HANNA</t>
-        </is>
-      </c>
-      <c r="E12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D12" s="26" t="n"/>
+      <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
-      <c r="I12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I12" s="27" t="n"/>
       <c r="J12" s="27" t="n"/>
-      <c r="K12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
       <c r="N12" s="27" t="n"/>
       <c r="O12" s="27" t="n"/>
       <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q12" s="27" t="n"/>
       <c r="R12" s="27" t="n"/>
       <c r="S12" s="27" t="n"/>
       <c r="T12" s="27" t="n"/>
@@ -12450,18 +12142,10 @@
       <c r="BB12" s="33" t="n"/>
     </row>
     <row r="13" ht="13.75" customHeight="1" s="19">
-      <c r="A13" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="24" t="n">
-        <v>1</v>
-      </c>
+      <c r="A13" s="41" t="n"/>
+      <c r="B13" s="24" t="n"/>
       <c r="C13" s="25" t="n"/>
-      <c r="D13" s="26" t="inlineStr">
-        <is>
-          <t>MARIE</t>
-        </is>
-      </c>
+      <c r="D13" s="26" t="n"/>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
@@ -12474,11 +12158,7 @@
       <c r="N13" s="27" t="n"/>
       <c r="O13" s="27" t="n"/>
       <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q13" s="27" t="n"/>
       <c r="R13" s="27" t="n"/>
       <c r="S13" s="27" t="n"/>
       <c r="T13" s="27" t="n"/>
@@ -12518,37 +12198,17 @@
       <c r="BB13" s="33" t="n"/>
     </row>
     <row r="14" ht="13.75" customHeight="1" s="19">
-      <c r="A14" s="41" t="n">
-        <v>16</v>
-      </c>
-      <c r="B14" s="24" t="n">
-        <v>3</v>
-      </c>
+      <c r="A14" s="41" t="n"/>
+      <c r="B14" s="24" t="n"/>
       <c r="C14" s="25" t="n"/>
-      <c r="D14" s="26" t="inlineStr">
-        <is>
-          <t>LOTTE</t>
-        </is>
-      </c>
+      <c r="D14" s="26" t="n"/>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
-      <c r="I14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I14" s="27" t="n"/>
       <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K14" s="27" t="n"/>
       <c r="L14" s="27" t="n"/>
       <c r="M14" s="27" t="n"/>
       <c r="N14" s="27" t="n"/>
@@ -12594,18 +12254,10 @@
       <c r="BB14" s="33" t="n"/>
     </row>
     <row r="15" ht="13.75" customHeight="1" s="19">
-      <c r="A15" s="41" t="n">
-        <v>28</v>
-      </c>
-      <c r="B15" s="24" t="n">
-        <v>3</v>
-      </c>
+      <c r="A15" s="41" t="n"/>
+      <c r="B15" s="24" t="n"/>
       <c r="C15" s="25" t="n"/>
-      <c r="D15" s="26" t="inlineStr">
-        <is>
-          <t>AMB</t>
-        </is>
-      </c>
+      <c r="D15" s="26" t="n"/>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -12615,24 +12267,12 @@
       <c r="K15" s="27" t="n"/>
       <c r="L15" s="27" t="n"/>
       <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="N15" s="27" t="n"/>
       <c r="O15" s="27" t="n"/>
       <c r="P15" s="27" t="n"/>
-      <c r="Q15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="Q15" s="27" t="n"/>
       <c r="R15" s="27" t="n"/>
-      <c r="S15" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="S15" s="27" t="n"/>
       <c r="T15" s="27" t="n"/>
       <c r="U15" s="27" t="n"/>
       <c r="V15" s="27" t="n"/>
@@ -12670,18 +12310,10 @@
       <c r="BB15" s="33" t="n"/>
     </row>
     <row r="16" ht="13.75" customHeight="1" s="19">
-      <c r="A16" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="A16" s="41" t="n"/>
+      <c r="B16" s="24" t="n"/>
       <c r="C16" s="25" t="n"/>
-      <c r="D16" s="26" t="inlineStr">
-        <is>
-          <t>HENRI</t>
-        </is>
-      </c>
+      <c r="D16" s="26" t="n"/>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
       <c r="G16" s="27" t="n"/>
@@ -12692,16 +12324,8 @@
       <c r="L16" s="27" t="n"/>
       <c r="M16" s="27" t="n"/>
       <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" s="27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
       <c r="Q16" s="27" t="n"/>
       <c r="R16" s="27" t="n"/>
       <c r="S16" s="27" t="n"/>
